--- a/Orcamento_Controle.xlsx
+++ b/Orcamento_Controle.xlsx
@@ -1374,7 +1374,7 @@
   <dimension ref="A1:AC1029"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C138" activeCellId="0" sqref="C138"/>
+      <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20380,7 +20380,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -20403,7 +20403,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Orcamento_Controle.xlsx
+++ b/Orcamento_Controle.xlsx
@@ -12,6 +12,9 @@
     <sheet name="Planilha2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Planilha3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$3:$J$141</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="204">
   <si>
     <t xml:space="preserve">Custo Obra</t>
   </si>
@@ -31,6 +34,9 @@
   </si>
   <si>
     <t xml:space="preserve">Real</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forn</t>
   </si>
   <si>
     <t xml:space="preserve">Tipo</t>
@@ -213,6 +219,9 @@
     <t xml:space="preserve">Janela 1,00x1,20</t>
   </si>
   <si>
+    <t xml:space="preserve">Janela</t>
+  </si>
+  <si>
     <t xml:space="preserve">Janela 1,20x1,20</t>
   </si>
   <si>
@@ -387,6 +396,9 @@
     <t xml:space="preserve">Geral (m²)</t>
   </si>
   <si>
+    <t xml:space="preserve">Piso Forte</t>
+  </si>
+  <si>
     <t xml:space="preserve">Revest(parede)</t>
   </si>
   <si>
@@ -405,10 +417,10 @@
     <t xml:space="preserve">sc</t>
   </si>
   <si>
-    <t xml:space="preserve">Argamassa ext AC-II</t>
+    <t xml:space="preserve">MegaLajes</t>
   </si>
   <si>
-    <t xml:space="preserve">MegaLajes</t>
+    <t xml:space="preserve">Argamassa ext AC-II</t>
   </si>
   <si>
     <t xml:space="preserve">Argamassa ext AC-III</t>
@@ -608,6 +620,24 @@
   <si>
     <t xml:space="preserve">Transf Zé(Irmão) Nota Vaso (03/04)</t>
   </si>
+  <si>
+    <t xml:space="preserve">Controle de Serviços</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mês</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                /</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xerox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impressão</t>
+  </si>
 </sst>
 </file>
 
@@ -620,7 +650,7 @@
     <numFmt numFmtId="167" formatCode="DD/MM/YY"/>
     <numFmt numFmtId="168" formatCode="General"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="37">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -852,6 +882,50 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A6099"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF2A6099"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="14"/>
+      <color rgb="FF2A6099"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF2A6099"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2A6099"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF2A6099"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -903,7 +977,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -939,6 +1013,21 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF2A6099"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF2A6099"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF2A6099"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF2A6099"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -965,7 +1054,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="91">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1102,6 +1191,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1192,10 +1285,6 @@
     </xf>
     <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1294,6 +1383,42 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1366,15 +1491,19 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AC1029"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
+      <selection pane="topLeft" activeCell="B155" activeCellId="0" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1469,7 +1598,9 @@
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
+      <c r="J3" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
@@ -1490,33 +1621,33 @@
       <c r="AB3" s="18"/>
       <c r="AC3" s="18"/>
     </row>
-    <row r="4" s="23" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" s="23" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="H4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>7</v>
-      </c>
       <c r="I4" s="22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -1539,15 +1670,15 @@
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
     </row>
-    <row r="5" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="27" t="n">
         <v>1.5</v>
@@ -1570,7 +1701,7 @@
         <v>43.61</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
@@ -1592,10 +1723,10 @@
       <c r="AB5" s="18"/>
       <c r="AC5" s="18"/>
     </row>
-    <row r="6" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="24"/>
       <c r="B6" s="31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="27" t="n">
@@ -1635,10 +1766,10 @@
       <c r="AB6" s="18"/>
       <c r="AC6" s="18"/>
     </row>
-    <row r="7" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="24"/>
       <c r="B7" s="25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="27" t="n">
@@ -1662,7 +1793,7 @@
         <v>3.2</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
@@ -1684,10 +1815,10 @@
       <c r="AB7" s="18"/>
       <c r="AC7" s="18"/>
     </row>
-    <row r="8" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="24"/>
       <c r="B8" s="25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="27" t="n">
@@ -1711,7 +1842,7 @@
         <v>26.56</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
@@ -1733,10 +1864,10 @@
       <c r="AB8" s="18"/>
       <c r="AC8" s="18"/>
     </row>
-    <row r="9" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="27" t="n">
@@ -1760,7 +1891,7 @@
         <v>13.99</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
@@ -1782,10 +1913,10 @@
       <c r="AB9" s="18"/>
       <c r="AC9" s="18"/>
     </row>
-    <row r="10" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="24"/>
       <c r="B10" s="32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="27" t="n">
@@ -1809,7 +1940,7 @@
         <v>9.5</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
@@ -1831,10 +1962,10 @@
       <c r="AB10" s="18"/>
       <c r="AC10" s="18"/>
     </row>
-    <row r="11" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="24"/>
       <c r="B11" s="32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="27" t="n">
@@ -1858,7 +1989,7 @@
         <v>8</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
@@ -1880,10 +2011,10 @@
       <c r="AB11" s="18"/>
       <c r="AC11" s="18"/>
     </row>
-    <row r="12" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="24"/>
       <c r="B12" s="25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="27" t="n">
@@ -1907,7 +2038,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
@@ -1929,13 +2060,13 @@
       <c r="AB12" s="18"/>
       <c r="AC12" s="18"/>
     </row>
-    <row r="13" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="24"/>
       <c r="B13" s="32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" s="27" t="n">
         <v>3</v>
@@ -1958,7 +2089,7 @@
         <v>13.64</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
@@ -1980,13 +2111,13 @@
       <c r="AB13" s="18"/>
       <c r="AC13" s="18"/>
     </row>
-    <row r="14" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="24"/>
       <c r="B14" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="27" t="n">
         <v>1</v>
@@ -2009,7 +2140,7 @@
         <v>43.9</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
@@ -2031,13 +2162,13 @@
       <c r="AB14" s="18"/>
       <c r="AC14" s="18"/>
     </row>
-    <row r="15" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="24"/>
       <c r="B15" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>25</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>24</v>
       </c>
       <c r="D15" s="27" t="n">
         <v>1</v>
@@ -2060,7 +2191,7 @@
         <v>46.9</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
@@ -2082,13 +2213,13 @@
       <c r="AB15" s="18"/>
       <c r="AC15" s="18"/>
     </row>
-    <row r="16" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="24"/>
       <c r="B16" s="32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="27" t="n">
         <v>2</v>
@@ -2111,7 +2242,7 @@
         <v>17.9</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
@@ -2133,10 +2264,10 @@
       <c r="AB16" s="18"/>
       <c r="AC16" s="18"/>
     </row>
-    <row r="17" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="24"/>
       <c r="B17" s="32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="27" t="n">
@@ -2160,7 +2291,7 @@
         <v>1.2</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
@@ -2182,10 +2313,10 @@
       <c r="AB17" s="18"/>
       <c r="AC17" s="18"/>
     </row>
-    <row r="18" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="24"/>
       <c r="B18" s="25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="27" t="n">
@@ -2209,7 +2340,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
@@ -2231,10 +2362,10 @@
       <c r="AB18" s="18"/>
       <c r="AC18" s="18"/>
     </row>
-    <row r="19" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="24"/>
       <c r="B19" s="32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="27" t="n">
@@ -2258,7 +2389,7 @@
         <v>3.6</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
@@ -2280,10 +2411,10 @@
       <c r="AB19" s="18"/>
       <c r="AC19" s="18"/>
     </row>
-    <row r="20" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="24"/>
       <c r="B20" s="32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="27" t="n">
@@ -2307,7 +2438,7 @@
         <v>3.8</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
@@ -2329,10 +2460,10 @@
       <c r="AB20" s="18"/>
       <c r="AC20" s="18"/>
     </row>
-    <row r="21" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="24"/>
       <c r="B21" s="32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="27" t="n">
@@ -2356,7 +2487,7 @@
         <v>19.5</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
@@ -2378,13 +2509,13 @@
       <c r="AB21" s="18"/>
       <c r="AC21" s="18"/>
     </row>
-    <row r="22" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="24"/>
       <c r="B22" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" s="27" t="n">
         <v>1</v>
@@ -2407,7 +2538,7 @@
         <v>15.98</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
@@ -2429,13 +2560,13 @@
       <c r="AB22" s="18"/>
       <c r="AC22" s="18"/>
     </row>
-    <row r="23" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="24"/>
       <c r="B23" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23" s="27" t="n">
         <v>1</v>
@@ -2458,7 +2589,7 @@
         <v>17.66</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
@@ -2480,10 +2611,10 @@
       <c r="AB23" s="18"/>
       <c r="AC23" s="18"/>
     </row>
-    <row r="24" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="24"/>
       <c r="B24" s="32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="27" t="n">
@@ -2507,7 +2638,7 @@
         <v>4</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
@@ -2529,10 +2660,10 @@
       <c r="AB24" s="18"/>
       <c r="AC24" s="18"/>
     </row>
-    <row r="25" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="24"/>
       <c r="B25" s="33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="27"/>
@@ -2551,7 +2682,7 @@
         <v>8.5</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
@@ -2573,10 +2704,10 @@
       <c r="AB25" s="18"/>
       <c r="AC25" s="18"/>
     </row>
-    <row r="26" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="24"/>
       <c r="B26" s="33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="27"/>
@@ -2595,9 +2726,9 @@
         <v>15.2</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K26" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="K26" s="34"/>
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
@@ -2617,10 +2748,10 @@
       <c r="AB26" s="18"/>
       <c r="AC26" s="18"/>
     </row>
-    <row r="27" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="24"/>
       <c r="B27" s="33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="27"/>
@@ -2640,7 +2771,7 @@
         <v>13.76</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
@@ -2662,10 +2793,10 @@
       <c r="AB27" s="18"/>
       <c r="AC27" s="18"/>
     </row>
-    <row r="28" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="24"/>
       <c r="B28" s="31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="27" t="n">
@@ -2705,16 +2836,16 @@
       <c r="AB28" s="18"/>
       <c r="AC28" s="18"/>
     </row>
-    <row r="29" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="34" t="n">
+    <row r="29" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="35" t="n">
         <f aca="false">SUM(F5:F29)</f>
         <v>416.46</v>
       </c>
-      <c r="B29" s="35" t="n">
+      <c r="B29" s="36" t="n">
         <f aca="false">SUM(I5:I29)</f>
         <v>334.4</v>
       </c>
-      <c r="C29" s="36" t="n">
+      <c r="C29" s="37" t="n">
         <f aca="false">B29/I145*100</f>
         <v>3.75462977905478</v>
       </c>
@@ -2745,15 +2876,15 @@
       <c r="AB29" s="18"/>
       <c r="AC29" s="18"/>
     </row>
-    <row r="30" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D30" s="27" t="n">
         <v>1.5</v>
@@ -2776,7 +2907,7 @@
         <v>148.00000005</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K30" s="18"/>
       <c r="L30" s="18"/>
@@ -2798,10 +2929,10 @@
       <c r="AB30" s="18"/>
       <c r="AC30" s="18"/>
     </row>
-    <row r="31" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="24"/>
       <c r="B31" s="33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" s="26"/>
       <c r="D31" s="27"/>
@@ -2820,7 +2951,7 @@
         <v>50</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>
@@ -2842,10 +2973,10 @@
       <c r="AB31" s="18"/>
       <c r="AC31" s="18"/>
     </row>
-    <row r="32" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="24"/>
       <c r="B32" s="33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" s="26"/>
       <c r="D32" s="27"/>
@@ -2864,7 +2995,7 @@
         <v>50</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32" s="18"/>
       <c r="L32" s="18"/>
@@ -2886,13 +3017,13 @@
       <c r="AB32" s="18"/>
       <c r="AC32" s="18"/>
     </row>
-    <row r="33" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="24"/>
       <c r="B33" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D33" s="27" t="n">
         <v>8</v>
@@ -2915,7 +3046,7 @@
         <v>212</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
@@ -2937,10 +3068,10 @@
       <c r="AB33" s="18"/>
       <c r="AC33" s="18"/>
     </row>
-    <row r="34" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="24"/>
       <c r="B34" s="33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34" s="26"/>
       <c r="D34" s="27"/>
@@ -2959,7 +3090,7 @@
         <v>147</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
@@ -2981,10 +3112,10 @@
       <c r="AB34" s="18"/>
       <c r="AC34" s="18"/>
     </row>
-    <row r="35" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="24"/>
       <c r="B35" s="33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35" s="26"/>
       <c r="D35" s="27"/>
@@ -3003,7 +3134,7 @@
         <v>17.49</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K35" s="18"/>
       <c r="L35" s="18"/>
@@ -3025,10 +3156,10 @@
       <c r="AB35" s="18"/>
       <c r="AC35" s="18"/>
     </row>
-    <row r="36" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="24"/>
       <c r="B36" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36" s="26"/>
       <c r="D36" s="27" t="n">
@@ -3052,7 +3183,7 @@
         <v>200</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K36" s="18"/>
       <c r="L36" s="18"/>
@@ -3074,10 +3205,10 @@
       <c r="AB36" s="18"/>
       <c r="AC36" s="18"/>
     </row>
-    <row r="37" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="24"/>
       <c r="B37" s="33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37" s="26"/>
       <c r="D37" s="27"/>
@@ -3096,7 +3227,7 @@
         <v>200</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K37" s="18"/>
       <c r="L37" s="18"/>
@@ -3118,10 +3249,10 @@
       <c r="AB37" s="18"/>
       <c r="AC37" s="18"/>
     </row>
-    <row r="38" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="24"/>
       <c r="B38" s="25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38" s="26"/>
       <c r="D38" s="27" t="n">
@@ -3145,7 +3276,7 @@
         <v>35</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K38" s="18"/>
       <c r="L38" s="18"/>
@@ -3167,10 +3298,10 @@
       <c r="AB38" s="18"/>
       <c r="AC38" s="18"/>
     </row>
-    <row r="39" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="24"/>
       <c r="B39" s="33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39" s="26"/>
       <c r="D39" s="27"/>
@@ -3189,7 +3320,7 @@
         <v>35</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
@@ -3211,13 +3342,13 @@
       <c r="AB39" s="18"/>
       <c r="AC39" s="18"/>
     </row>
-    <row r="40" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="24"/>
       <c r="B40" s="25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D40" s="27" t="n">
         <v>0.5</v>
@@ -3240,7 +3371,7 @@
         <v>70</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K40" s="18"/>
       <c r="L40" s="18"/>
@@ -3262,13 +3393,13 @@
       <c r="AB40" s="18"/>
       <c r="AC40" s="18"/>
     </row>
-    <row r="41" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="24"/>
-      <c r="B41" s="37" t="s">
-        <v>54</v>
+      <c r="B41" s="38" t="s">
+        <v>55</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="28"/>
@@ -3282,8 +3413,8 @@
         <f aca="false">G41*H41</f>
         <v>0</v>
       </c>
-      <c r="J41" s="38" t="s">
-        <v>56</v>
+      <c r="J41" s="39" t="s">
+        <v>57</v>
       </c>
       <c r="K41" s="18"/>
       <c r="L41" s="18"/>
@@ -3305,10 +3436,10 @@
       <c r="AB41" s="18"/>
       <c r="AC41" s="18"/>
     </row>
-    <row r="42" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="24"/>
       <c r="B42" s="31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C42" s="26"/>
       <c r="D42" s="27" t="n">
@@ -3348,10 +3479,10 @@
       <c r="AB42" s="18"/>
       <c r="AC42" s="18"/>
     </row>
-    <row r="43" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="24"/>
       <c r="B43" s="31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C43" s="26"/>
       <c r="D43" s="27" t="n">
@@ -3391,10 +3522,10 @@
       <c r="AB43" s="18"/>
       <c r="AC43" s="18"/>
     </row>
-    <row r="44" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="24"/>
-      <c r="B44" s="37" t="s">
-        <v>59</v>
+      <c r="B44" s="38" t="s">
+        <v>60</v>
       </c>
       <c r="C44" s="26"/>
       <c r="D44" s="27"/>
@@ -3409,8 +3540,8 @@
         <f aca="false">G44*H44</f>
         <v>0</v>
       </c>
-      <c r="J44" s="38" t="s">
-        <v>56</v>
+      <c r="J44" s="39" t="s">
+        <v>57</v>
       </c>
       <c r="K44" s="18"/>
       <c r="L44" s="18"/>
@@ -3432,13 +3563,13 @@
       <c r="AB44" s="18"/>
       <c r="AC44" s="18"/>
     </row>
-    <row r="45" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="24"/>
-      <c r="B45" s="37" t="s">
-        <v>60</v>
+      <c r="B45" s="38" t="s">
+        <v>61</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="28"/>
@@ -3452,8 +3583,8 @@
         <f aca="false">G45*H45</f>
         <v>0</v>
       </c>
-      <c r="J45" s="38" t="s">
-        <v>56</v>
+      <c r="J45" s="39" t="s">
+        <v>57</v>
       </c>
       <c r="K45" s="18"/>
       <c r="L45" s="18"/>
@@ -3477,8 +3608,8 @@
     </row>
     <row r="46" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="24"/>
-      <c r="B46" s="39" t="s">
-        <v>62</v>
+      <c r="B46" s="40" t="s">
+        <v>63</v>
       </c>
       <c r="C46" s="26"/>
       <c r="D46" s="27" t="n">
@@ -3501,7 +3632,9 @@
         <f aca="false">G46*H46</f>
         <v>300</v>
       </c>
-      <c r="J46" s="18"/>
+      <c r="J46" s="18" t="s">
+        <v>64</v>
+      </c>
       <c r="K46" s="18"/>
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
@@ -3524,8 +3657,8 @@
     </row>
     <row r="47" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="24"/>
-      <c r="B47" s="39" t="s">
-        <v>63</v>
+      <c r="B47" s="40" t="s">
+        <v>65</v>
       </c>
       <c r="C47" s="26"/>
       <c r="D47" s="27" t="n">
@@ -3548,7 +3681,9 @@
         <f aca="false">G47*H47</f>
         <v>760</v>
       </c>
-      <c r="J47" s="18"/>
+      <c r="J47" s="18" t="s">
+        <v>64</v>
+      </c>
       <c r="K47" s="18"/>
       <c r="L47" s="18"/>
       <c r="M47" s="18"/>
@@ -3571,8 +3706,8 @@
     </row>
     <row r="48" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="24"/>
-      <c r="B48" s="39" t="s">
-        <v>64</v>
+      <c r="B48" s="40" t="s">
+        <v>66</v>
       </c>
       <c r="C48" s="26"/>
       <c r="D48" s="27" t="n">
@@ -3595,7 +3730,9 @@
         <f aca="false">G48*H48</f>
         <v>180</v>
       </c>
-      <c r="J48" s="18"/>
+      <c r="J48" s="18" t="s">
+        <v>64</v>
+      </c>
       <c r="K48" s="18"/>
       <c r="L48" s="18"/>
       <c r="M48" s="18"/>
@@ -3616,10 +3753,10 @@
       <c r="AB48" s="18"/>
       <c r="AC48" s="18"/>
     </row>
-    <row r="49" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="24"/>
-      <c r="B49" s="40" t="s">
-        <v>65</v>
+      <c r="B49" s="41" t="s">
+        <v>67</v>
       </c>
       <c r="C49" s="26"/>
       <c r="D49" s="27" t="n">
@@ -3659,10 +3796,10 @@
       <c r="AB49" s="18"/>
       <c r="AC49" s="18"/>
     </row>
-    <row r="50" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="24"/>
-      <c r="B50" s="41" t="s">
-        <v>66</v>
+      <c r="B50" s="42" t="s">
+        <v>68</v>
       </c>
       <c r="C50" s="26"/>
       <c r="D50" s="27"/>
@@ -3681,7 +3818,7 @@
         <v>297.9</v>
       </c>
       <c r="J50" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K50" s="18"/>
       <c r="L50" s="18"/>
@@ -3703,10 +3840,10 @@
       <c r="AB50" s="18"/>
       <c r="AC50" s="18"/>
     </row>
-    <row r="51" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="24"/>
       <c r="B51" s="25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C51" s="26"/>
       <c r="D51" s="27" t="n">
@@ -3731,7 +3868,7 @@
         <v>178.9</v>
       </c>
       <c r="J51" s="18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K51" s="18"/>
       <c r="L51" s="18"/>
@@ -3753,10 +3890,10 @@
       <c r="AB51" s="18"/>
       <c r="AC51" s="18"/>
     </row>
-    <row r="52" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="24"/>
       <c r="B52" s="25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C52" s="26"/>
       <c r="D52" s="27"/>
@@ -3775,7 +3912,7 @@
         <v>21.9</v>
       </c>
       <c r="J52" s="18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K52" s="18"/>
       <c r="L52" s="18"/>
@@ -3797,10 +3934,10 @@
       <c r="AB52" s="18"/>
       <c r="AC52" s="18"/>
     </row>
-    <row r="53" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="24"/>
       <c r="B53" s="25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C53" s="26"/>
       <c r="D53" s="27"/>
@@ -3818,8 +3955,9 @@
         <f aca="false">G53*H53</f>
         <v>18.9</v>
       </c>
-      <c r="J53" s="18" t="s">
-        <v>68</v>
+      <c r="J53" s="34" t="n">
+        <f aca="false">SUM(I51:I53)</f>
+        <v>219.7</v>
       </c>
       <c r="K53" s="18"/>
       <c r="L53" s="18"/>
@@ -3841,10 +3979,10 @@
       <c r="AB53" s="18"/>
       <c r="AC53" s="18"/>
     </row>
-    <row r="54" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="24"/>
       <c r="B54" s="31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C54" s="26"/>
       <c r="D54" s="27" t="n">
@@ -3884,13 +4022,13 @@
       <c r="AB54" s="18"/>
       <c r="AC54" s="18"/>
     </row>
-    <row r="55" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="24"/>
       <c r="B55" s="31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D55" s="27" t="n">
         <v>1</v>
@@ -3929,10 +4067,10 @@
       <c r="AB55" s="18"/>
       <c r="AC55" s="18"/>
     </row>
-    <row r="56" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="24"/>
       <c r="B56" s="33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C56" s="26"/>
       <c r="D56" s="27"/>
@@ -3953,7 +4091,7 @@
         <v>12.5</v>
       </c>
       <c r="J56" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K56" s="18"/>
       <c r="L56" s="18"/>
@@ -3975,10 +4113,10 @@
       <c r="AB56" s="18"/>
       <c r="AC56" s="18"/>
     </row>
-    <row r="57" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="24"/>
-      <c r="B57" s="42" t="s">
-        <v>75</v>
+      <c r="B57" s="43" t="s">
+        <v>77</v>
       </c>
       <c r="C57" s="26"/>
       <c r="D57" s="27" t="n">
@@ -3991,7 +4129,7 @@
         <f aca="false">D57*E57</f>
         <v>60</v>
       </c>
-      <c r="G57" s="43" t="n">
+      <c r="G57" s="44" t="n">
         <v>1</v>
       </c>
       <c r="H57" s="29" t="n">
@@ -4002,7 +4140,7 @@
         <v>29.9</v>
       </c>
       <c r="J57" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K57" s="18"/>
       <c r="L57" s="18"/>
@@ -4024,16 +4162,16 @@
       <c r="AB57" s="18"/>
       <c r="AC57" s="18"/>
     </row>
-    <row r="58" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="44" t="n">
+    <row r="58" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="45" t="n">
         <f aca="false">SUM(F30:F58)</f>
         <v>3240.04</v>
       </c>
-      <c r="B58" s="35" t="n">
+      <c r="B58" s="36" t="n">
         <f aca="false">SUM(I30:I58)</f>
         <v>2964.49000005</v>
       </c>
-      <c r="C58" s="36" t="n">
+      <c r="C58" s="37" t="n">
         <f aca="false">B58/I145*100</f>
         <v>33.2851747425174</v>
       </c>
@@ -4064,15 +4202,15 @@
       <c r="AB58" s="18"/>
       <c r="AC58" s="18"/>
     </row>
-    <row r="59" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="24" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D59" s="27" t="n">
         <v>1</v>
@@ -4095,7 +4233,7 @@
         <v>72.9</v>
       </c>
       <c r="J59" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K59" s="18"/>
       <c r="L59" s="18"/>
@@ -4117,10 +4255,10 @@
       <c r="AB59" s="18"/>
       <c r="AC59" s="18"/>
     </row>
-    <row r="60" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="24"/>
-      <c r="B60" s="45" t="s">
-        <v>77</v>
+      <c r="B60" s="46" t="s">
+        <v>79</v>
       </c>
       <c r="C60" s="26"/>
       <c r="D60" s="27"/>
@@ -4141,7 +4279,7 @@
         <v>60</v>
       </c>
       <c r="J60" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K60" s="18"/>
       <c r="L60" s="18"/>
@@ -4163,10 +4301,10 @@
       <c r="AB60" s="18"/>
       <c r="AC60" s="18"/>
     </row>
-    <row r="61" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="24"/>
-      <c r="B61" s="45" t="s">
-        <v>79</v>
+      <c r="B61" s="46" t="s">
+        <v>81</v>
       </c>
       <c r="C61" s="26"/>
       <c r="D61" s="27"/>
@@ -4187,7 +4325,7 @@
         <v>10</v>
       </c>
       <c r="J61" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K61" s="18"/>
       <c r="L61" s="18"/>
@@ -4209,10 +4347,10 @@
       <c r="AB61" s="18"/>
       <c r="AC61" s="18"/>
     </row>
-    <row r="62" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="24"/>
       <c r="B62" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C62" s="26"/>
       <c r="D62" s="27" t="n">
@@ -4236,7 +4374,7 @@
         <v>65.9</v>
       </c>
       <c r="J62" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K62" s="18"/>
       <c r="L62" s="18"/>
@@ -4258,10 +4396,10 @@
       <c r="AB62" s="18"/>
       <c r="AC62" s="18"/>
     </row>
-    <row r="63" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="24"/>
       <c r="B63" s="25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C63" s="26"/>
       <c r="D63" s="27" t="n">
@@ -4285,7 +4423,7 @@
         <v>29.8</v>
       </c>
       <c r="J63" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K63" s="18"/>
       <c r="L63" s="18"/>
@@ -4307,10 +4445,10 @@
       <c r="AB63" s="18"/>
       <c r="AC63" s="18"/>
     </row>
-    <row r="64" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="24"/>
       <c r="B64" s="25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C64" s="26"/>
       <c r="D64" s="27" t="n">
@@ -4334,7 +4472,7 @@
         <v>11.56</v>
       </c>
       <c r="J64" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K64" s="18"/>
       <c r="L64" s="18"/>
@@ -4356,54 +4494,54 @@
       <c r="AB64" s="18"/>
       <c r="AC64" s="18"/>
     </row>
-    <row r="65" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="24"/>
-      <c r="B65" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" s="47"/>
-      <c r="D65" s="48"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="50" t="n">
+      <c r="B65" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="48"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="51" t="n">
         <v>15</v>
       </c>
-      <c r="G65" s="49" t="n">
+      <c r="G65" s="50" t="n">
         <v>6</v>
       </c>
-      <c r="H65" s="50" t="n">
+      <c r="H65" s="51" t="n">
         <v>2.5</v>
       </c>
       <c r="I65" s="30" t="n">
         <f aca="false">G65*H65</f>
         <v>15</v>
       </c>
-      <c r="J65" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="K65" s="52"/>
-      <c r="L65" s="52"/>
-      <c r="M65" s="52"/>
-      <c r="N65" s="52"/>
-      <c r="O65" s="52"/>
-      <c r="P65" s="52"/>
-      <c r="Q65" s="52"/>
-      <c r="R65" s="52"/>
-      <c r="S65" s="52"/>
-      <c r="T65" s="52"/>
-      <c r="U65" s="52"/>
-      <c r="V65" s="52"/>
-      <c r="W65" s="52"/>
-      <c r="X65" s="52"/>
-      <c r="Y65" s="52"/>
-      <c r="Z65" s="52"/>
-      <c r="AA65" s="52"/>
-      <c r="AB65" s="52"/>
-      <c r="AC65" s="52"/>
-    </row>
-    <row r="66" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J65" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="K65" s="53"/>
+      <c r="L65" s="53"/>
+      <c r="M65" s="53"/>
+      <c r="N65" s="53"/>
+      <c r="O65" s="53"/>
+      <c r="P65" s="53"/>
+      <c r="Q65" s="53"/>
+      <c r="R65" s="53"/>
+      <c r="S65" s="53"/>
+      <c r="T65" s="53"/>
+      <c r="U65" s="53"/>
+      <c r="V65" s="53"/>
+      <c r="W65" s="53"/>
+      <c r="X65" s="53"/>
+      <c r="Y65" s="53"/>
+      <c r="Z65" s="53"/>
+      <c r="AA65" s="53"/>
+      <c r="AB65" s="53"/>
+      <c r="AC65" s="53"/>
+    </row>
+    <row r="66" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="24"/>
       <c r="B66" s="25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C66" s="26"/>
       <c r="D66" s="27" t="n">
@@ -4427,7 +4565,7 @@
         <v>43.29</v>
       </c>
       <c r="J66" s="18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K66" s="18"/>
       <c r="L66" s="18"/>
@@ -4449,10 +4587,10 @@
       <c r="AB66" s="18"/>
       <c r="AC66" s="18"/>
     </row>
-    <row r="67" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="24"/>
       <c r="B67" s="25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C67" s="26"/>
       <c r="D67" s="27" t="n">
@@ -4476,7 +4614,7 @@
         <v>11.95</v>
       </c>
       <c r="J67" s="18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K67" s="18"/>
       <c r="L67" s="18"/>
@@ -4498,10 +4636,10 @@
       <c r="AB67" s="18"/>
       <c r="AC67" s="18"/>
     </row>
-    <row r="68" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="24"/>
       <c r="B68" s="31" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C68" s="26"/>
       <c r="D68" s="27" t="n">
@@ -4541,10 +4679,10 @@
       <c r="AB68" s="18"/>
       <c r="AC68" s="18"/>
     </row>
-    <row r="69" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="24"/>
       <c r="B69" s="25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C69" s="26"/>
       <c r="D69" s="27" t="n">
@@ -4568,7 +4706,7 @@
         <v>36</v>
       </c>
       <c r="J69" s="18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K69" s="18"/>
       <c r="L69" s="18"/>
@@ -4590,10 +4728,10 @@
       <c r="AB69" s="18"/>
       <c r="AC69" s="18"/>
     </row>
-    <row r="70" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="24"/>
       <c r="B70" s="33" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C70" s="26"/>
       <c r="D70" s="27" t="n">
@@ -4617,7 +4755,7 @@
         <v>17.38</v>
       </c>
       <c r="J70" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K70" s="18"/>
       <c r="L70" s="18"/>
@@ -4639,13 +4777,13 @@
       <c r="AB70" s="18"/>
       <c r="AC70" s="18"/>
     </row>
-    <row r="71" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="24"/>
       <c r="B71" s="25" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D71" s="27" t="n">
         <v>1</v>
@@ -4668,7 +4806,7 @@
         <v>89.9</v>
       </c>
       <c r="J71" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K71" s="18"/>
       <c r="L71" s="18"/>
@@ -4690,13 +4828,13 @@
       <c r="AB71" s="18"/>
       <c r="AC71" s="18"/>
     </row>
-    <row r="72" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="24"/>
       <c r="B72" s="25" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D72" s="27" t="n">
         <v>1</v>
@@ -4719,7 +4857,7 @@
         <v>89.9</v>
       </c>
       <c r="J72" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K72" s="18"/>
       <c r="L72" s="18"/>
@@ -4741,13 +4879,13 @@
       <c r="AB72" s="18"/>
       <c r="AC72" s="18"/>
     </row>
-    <row r="73" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="24"/>
       <c r="B73" s="25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D73" s="27" t="n">
         <v>50</v>
@@ -4771,7 +4909,7 @@
         <v>39.9</v>
       </c>
       <c r="J73" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K73" s="18"/>
       <c r="L73" s="18"/>
@@ -4793,13 +4931,13 @@
       <c r="AB73" s="18"/>
       <c r="AC73" s="18"/>
     </row>
-    <row r="74" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="24"/>
       <c r="B74" s="25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D74" s="27" t="n">
         <v>50</v>
@@ -4823,7 +4961,7 @@
         <v>39.9</v>
       </c>
       <c r="J74" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K74" s="18"/>
       <c r="L74" s="18"/>
@@ -4845,13 +4983,13 @@
       <c r="AB74" s="18"/>
       <c r="AC74" s="18"/>
     </row>
-    <row r="75" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="24"/>
       <c r="B75" s="31" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D75" s="27" t="n">
         <v>10</v>
@@ -4890,13 +5028,13 @@
       <c r="AB75" s="18"/>
       <c r="AC75" s="18"/>
     </row>
-    <row r="76" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="24"/>
       <c r="B76" s="25" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D76" s="27" t="n">
         <v>12</v>
@@ -4920,7 +5058,7 @@
         <v>64.9</v>
       </c>
       <c r="J76" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K76" s="18"/>
       <c r="L76" s="18"/>
@@ -4942,13 +5080,13 @@
       <c r="AB76" s="18"/>
       <c r="AC76" s="18"/>
     </row>
-    <row r="77" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="24"/>
       <c r="B77" s="25" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D77" s="27" t="n">
         <v>12</v>
@@ -4972,7 +5110,7 @@
         <v>64.9</v>
       </c>
       <c r="J77" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K77" s="18"/>
       <c r="L77" s="18"/>
@@ -4994,10 +5132,10 @@
       <c r="AB77" s="18"/>
       <c r="AC77" s="18"/>
     </row>
-    <row r="78" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="24"/>
       <c r="B78" s="33" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C78" s="26"/>
       <c r="D78" s="27" t="n">
@@ -5021,7 +5159,7 @@
         <v>45</v>
       </c>
       <c r="J78" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K78" s="18"/>
       <c r="L78" s="18"/>
@@ -5043,13 +5181,13 @@
       <c r="AB78" s="18"/>
       <c r="AC78" s="18"/>
     </row>
-    <row r="79" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="24"/>
       <c r="B79" s="25" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D79" s="27" t="n">
         <v>1</v>
@@ -5072,7 +5210,7 @@
         <v>22.9</v>
       </c>
       <c r="J79" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K79" s="18"/>
       <c r="L79" s="18"/>
@@ -5094,10 +5232,10 @@
       <c r="AB79" s="18"/>
       <c r="AC79" s="18"/>
     </row>
-    <row r="80" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="24"/>
       <c r="B80" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C80" s="26"/>
       <c r="D80" s="27" t="n">
@@ -5121,7 +5259,7 @@
         <v>27.3</v>
       </c>
       <c r="J80" s="18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K80" s="18"/>
       <c r="L80" s="18"/>
@@ -5143,10 +5281,10 @@
       <c r="AB80" s="18"/>
       <c r="AC80" s="18"/>
     </row>
-    <row r="81" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="24"/>
       <c r="B81" s="25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C81" s="26"/>
       <c r="D81" s="27" t="n">
@@ -5170,7 +5308,7 @@
         <v>29.7</v>
       </c>
       <c r="J81" s="18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K81" s="18"/>
       <c r="L81" s="18"/>
@@ -5192,10 +5330,10 @@
       <c r="AB81" s="18"/>
       <c r="AC81" s="18"/>
     </row>
-    <row r="82" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="24"/>
       <c r="B82" s="25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C82" s="26"/>
       <c r="D82" s="27" t="n">
@@ -5219,7 +5357,7 @@
         <v>32.38</v>
       </c>
       <c r="J82" s="18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K82" s="18"/>
       <c r="L82" s="18"/>
@@ -5241,10 +5379,10 @@
       <c r="AB82" s="18"/>
       <c r="AC82" s="18"/>
     </row>
-    <row r="83" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="24"/>
       <c r="B83" s="25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C83" s="26"/>
       <c r="D83" s="27" t="n">
@@ -5268,7 +5406,7 @@
         <v>39.54</v>
       </c>
       <c r="J83" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K83" s="18"/>
       <c r="L83" s="18"/>
@@ -5290,10 +5428,10 @@
       <c r="AB83" s="18"/>
       <c r="AC83" s="18"/>
     </row>
-    <row r="84" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="24"/>
       <c r="B84" s="25" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C84" s="26"/>
       <c r="D84" s="27" t="n">
@@ -5317,7 +5455,7 @@
         <v>23.7</v>
       </c>
       <c r="J84" s="18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K84" s="18"/>
       <c r="L84" s="18"/>
@@ -5339,10 +5477,10 @@
       <c r="AB84" s="18"/>
       <c r="AC84" s="18"/>
     </row>
-    <row r="85" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="24"/>
       <c r="B85" s="33" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C85" s="26"/>
       <c r="D85" s="27"/>
@@ -5362,7 +5500,7 @@
         <v>55.15</v>
       </c>
       <c r="J85" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K85" s="18"/>
       <c r="L85" s="18"/>
@@ -5384,10 +5522,10 @@
       <c r="AB85" s="18"/>
       <c r="AC85" s="18"/>
     </row>
-    <row r="86" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="24"/>
       <c r="B86" s="33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C86" s="26"/>
       <c r="D86" s="27"/>
@@ -5406,7 +5544,7 @@
         <v>7.05</v>
       </c>
       <c r="J86" s="18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K86" s="18"/>
       <c r="L86" s="18"/>
@@ -5428,13 +5566,13 @@
       <c r="AB86" s="18"/>
       <c r="AC86" s="18"/>
     </row>
-    <row r="87" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="24"/>
       <c r="B87" s="31" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D87" s="27" t="n">
         <v>2</v>
@@ -5473,16 +5611,16 @@
       <c r="AB87" s="18"/>
       <c r="AC87" s="18"/>
     </row>
-    <row r="88" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="44" t="n">
+    <row r="88" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="45" t="n">
         <f aca="false">SUM(F59:F88)</f>
         <v>1245.05</v>
       </c>
-      <c r="B88" s="35" t="n">
+      <c r="B88" s="36" t="n">
         <f aca="false">SUM(I59:I88)</f>
         <v>1045.9</v>
       </c>
-      <c r="C88" s="36" t="n">
+      <c r="C88" s="37" t="n">
         <f aca="false">B88/I145*100</f>
         <v>11.7433232234252</v>
       </c>
@@ -5513,12 +5651,12 @@
       <c r="AB88" s="18"/>
       <c r="AC88" s="18"/>
     </row>
-    <row r="89" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C89" s="26"/>
       <c r="D89" s="27" t="n">
@@ -5558,10 +5696,10 @@
       <c r="AB89" s="18"/>
       <c r="AC89" s="18"/>
     </row>
-    <row r="90" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="24"/>
-      <c r="B90" s="37" t="s">
-        <v>114</v>
+      <c r="B90" s="38" t="s">
+        <v>116</v>
       </c>
       <c r="C90" s="26"/>
       <c r="D90" s="27"/>
@@ -5577,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="J90" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K90" s="18"/>
       <c r="L90" s="18"/>
@@ -5599,10 +5737,10 @@
       <c r="AB90" s="18"/>
       <c r="AC90" s="18"/>
     </row>
-    <row r="91" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="24"/>
-      <c r="B91" s="37" t="s">
-        <v>115</v>
+      <c r="B91" s="38" t="s">
+        <v>117</v>
       </c>
       <c r="C91" s="26"/>
       <c r="D91" s="27"/>
@@ -5618,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K91" s="18"/>
       <c r="L91" s="18"/>
@@ -5640,10 +5778,10 @@
       <c r="AB91" s="18"/>
       <c r="AC91" s="18"/>
     </row>
-    <row r="92" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="24"/>
       <c r="B92" s="25" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C92" s="26"/>
       <c r="D92" s="27" t="n">
@@ -5667,7 +5805,7 @@
         <v>73.8</v>
       </c>
       <c r="J92" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K92" s="18"/>
       <c r="L92" s="18"/>
@@ -5689,10 +5827,10 @@
       <c r="AB92" s="18"/>
       <c r="AC92" s="18"/>
     </row>
-    <row r="93" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="24"/>
       <c r="B93" s="25" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C93" s="26"/>
       <c r="D93" s="27" t="n">
@@ -5716,7 +5854,7 @@
         <v>85.8</v>
       </c>
       <c r="J93" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K93" s="18"/>
       <c r="L93" s="18"/>
@@ -5738,10 +5876,10 @@
       <c r="AB93" s="18"/>
       <c r="AC93" s="18"/>
     </row>
-    <row r="94" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="24"/>
-      <c r="B94" s="37" t="s">
-        <v>118</v>
+      <c r="B94" s="38" t="s">
+        <v>120</v>
       </c>
       <c r="C94" s="26"/>
       <c r="D94" s="27"/>
@@ -5757,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K94" s="18"/>
       <c r="L94" s="18"/>
@@ -5779,13 +5917,13 @@
       <c r="AB94" s="18"/>
       <c r="AC94" s="18"/>
     </row>
-    <row r="95" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="24"/>
       <c r="B95" s="25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D95" s="27" t="n">
         <v>34</v>
@@ -5797,17 +5935,19 @@
         <f aca="false">D95*E95</f>
         <v>612</v>
       </c>
-      <c r="G95" s="49" t="n">
+      <c r="G95" s="50" t="n">
         <v>32.48</v>
       </c>
-      <c r="H95" s="50" t="n">
+      <c r="H95" s="51" t="n">
         <v>24.75</v>
       </c>
       <c r="I95" s="30" t="n">
         <f aca="false">G95*H95</f>
         <v>803.88</v>
       </c>
-      <c r="J95" s="18"/>
+      <c r="J95" s="18" t="s">
+        <v>123</v>
+      </c>
       <c r="K95" s="18"/>
       <c r="L95" s="18"/>
       <c r="M95" s="18"/>
@@ -5828,13 +5968,13 @@
       <c r="AB95" s="18"/>
       <c r="AC95" s="18"/>
     </row>
-    <row r="96" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="24"/>
       <c r="B96" s="25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D96" s="27" t="n">
         <v>26</v>
@@ -5846,17 +5986,19 @@
         <f aca="false">D96*E96</f>
         <v>468</v>
       </c>
-      <c r="G96" s="49" t="n">
+      <c r="G96" s="50" t="n">
         <v>26</v>
       </c>
-      <c r="H96" s="50" t="n">
+      <c r="H96" s="51" t="n">
         <v>16.2</v>
       </c>
       <c r="I96" s="30" t="n">
         <f aca="false">G96*H96</f>
         <v>421.2</v>
       </c>
-      <c r="J96" s="18"/>
+      <c r="J96" s="18" t="s">
+        <v>123</v>
+      </c>
       <c r="K96" s="18"/>
       <c r="L96" s="18"/>
       <c r="M96" s="18"/>
@@ -5877,13 +6019,13 @@
       <c r="AB96" s="18"/>
       <c r="AC96" s="18"/>
     </row>
-    <row r="97" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="24"/>
       <c r="B97" s="25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D97" s="27" t="n">
         <v>4</v>
@@ -5895,17 +6037,19 @@
         <f aca="false">D97*E97</f>
         <v>72</v>
       </c>
-      <c r="G97" s="49" t="n">
+      <c r="G97" s="50" t="n">
         <v>4.64</v>
       </c>
-      <c r="H97" s="50" t="n">
+      <c r="H97" s="51" t="n">
         <v>24.75</v>
       </c>
       <c r="I97" s="30" t="n">
         <f aca="false">G97*H97</f>
         <v>114.84</v>
       </c>
-      <c r="J97" s="18"/>
+      <c r="J97" s="18" t="s">
+        <v>123</v>
+      </c>
       <c r="K97" s="18"/>
       <c r="L97" s="18"/>
       <c r="M97" s="18"/>
@@ -5926,15 +6070,15 @@
       <c r="AB97" s="18"/>
       <c r="AC97" s="18"/>
     </row>
-    <row r="98" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="24"/>
       <c r="B98" s="25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="D98" s="53" t="n">
+        <v>126</v>
+      </c>
+      <c r="D98" s="54" t="n">
         <v>10</v>
       </c>
       <c r="E98" s="28" t="n">
@@ -5944,17 +6088,19 @@
         <f aca="false">D98*E98</f>
         <v>180</v>
       </c>
-      <c r="G98" s="49" t="n">
+      <c r="G98" s="50" t="n">
         <v>10.54</v>
       </c>
-      <c r="H98" s="50" t="n">
+      <c r="H98" s="51" t="n">
         <v>16.2</v>
       </c>
       <c r="I98" s="30" t="n">
         <f aca="false">G98*H98</f>
         <v>170.748</v>
       </c>
-      <c r="J98" s="18"/>
+      <c r="J98" s="18" t="s">
+        <v>123</v>
+      </c>
       <c r="K98" s="18"/>
       <c r="L98" s="18"/>
       <c r="M98" s="18"/>
@@ -5975,15 +6121,15 @@
       <c r="AB98" s="18"/>
       <c r="AC98" s="18"/>
     </row>
-    <row r="99" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="24"/>
       <c r="B99" s="25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C99" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="D99" s="53" t="n">
+        <v>126</v>
+      </c>
+      <c r="D99" s="54" t="n">
         <v>6</v>
       </c>
       <c r="E99" s="28" t="n">
@@ -5993,17 +6139,19 @@
         <f aca="false">D99*E99</f>
         <v>108</v>
       </c>
-      <c r="G99" s="49" t="n">
+      <c r="G99" s="50" t="n">
         <v>6.09</v>
       </c>
-      <c r="H99" s="50" t="n">
+      <c r="H99" s="51" t="n">
         <v>17.55</v>
       </c>
       <c r="I99" s="30" t="n">
         <f aca="false">G99*H99</f>
         <v>106.8795</v>
       </c>
-      <c r="J99" s="18"/>
+      <c r="J99" s="18" t="s">
+        <v>123</v>
+      </c>
       <c r="K99" s="18"/>
       <c r="L99" s="18"/>
       <c r="M99" s="18"/>
@@ -6024,13 +6172,13 @@
       <c r="AB99" s="18"/>
       <c r="AC99" s="18"/>
     </row>
-    <row r="100" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="24"/>
       <c r="B100" s="31" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C100" s="26" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D100" s="27" t="n">
         <v>6</v>
@@ -6069,13 +6217,13 @@
       <c r="AB100" s="18"/>
       <c r="AC100" s="18"/>
     </row>
-    <row r="101" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="24"/>
       <c r="B101" s="31" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C101" s="26" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D101" s="27" t="n">
         <v>10</v>
@@ -6114,13 +6262,13 @@
       <c r="AB101" s="18"/>
       <c r="AC101" s="18"/>
     </row>
-    <row r="102" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="24"/>
       <c r="B102" s="25" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C102" s="26" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D102" s="27" t="n">
         <v>18</v>
@@ -6142,7 +6290,9 @@
         <f aca="false">G102*H102</f>
         <v>325.76</v>
       </c>
-      <c r="J102" s="18"/>
+      <c r="J102" s="18" t="s">
+        <v>130</v>
+      </c>
       <c r="K102" s="18"/>
       <c r="L102" s="18"/>
       <c r="M102" s="18"/>
@@ -6163,13 +6313,13 @@
       <c r="AB102" s="18"/>
       <c r="AC102" s="18"/>
     </row>
-    <row r="103" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="24"/>
       <c r="B103" s="31" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C103" s="26" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D103" s="27" t="n">
         <v>8</v>
@@ -6187,9 +6337,7 @@
         <f aca="false">G103*H103</f>
         <v>0</v>
       </c>
-      <c r="J103" s="18" t="s">
-        <v>128</v>
-      </c>
+      <c r="J103" s="0"/>
       <c r="K103" s="18"/>
       <c r="L103" s="18"/>
       <c r="M103" s="18"/>
@@ -6210,13 +6358,13 @@
       <c r="AB103" s="18"/>
       <c r="AC103" s="18"/>
     </row>
-    <row r="104" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="24"/>
-      <c r="B104" s="45" t="s">
+      <c r="B104" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="C104" s="26" t="s">
         <v>129</v>
-      </c>
-      <c r="C104" s="26" t="s">
-        <v>126</v>
       </c>
       <c r="D104" s="27"/>
       <c r="E104" s="28"/>
@@ -6234,7 +6382,7 @@
         <v>119.25</v>
       </c>
       <c r="J104" s="18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K104" s="18"/>
       <c r="L104" s="18"/>
@@ -6256,13 +6404,13 @@
       <c r="AB104" s="18"/>
       <c r="AC104" s="18"/>
     </row>
-    <row r="105" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="24"/>
       <c r="B105" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C105" s="26" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D105" s="27" t="n">
         <v>15</v>
@@ -6301,13 +6449,13 @@
       <c r="AB105" s="18"/>
       <c r="AC105" s="18"/>
     </row>
-    <row r="106" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="24"/>
-      <c r="B106" s="37" t="s">
-        <v>132</v>
+      <c r="B106" s="38" t="s">
+        <v>135</v>
       </c>
       <c r="C106" s="26" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D106" s="27" t="n">
         <v>1</v>
@@ -6325,8 +6473,8 @@
         <f aca="false">G106*H106</f>
         <v>0</v>
       </c>
-      <c r="J106" s="38" t="s">
-        <v>56</v>
+      <c r="J106" s="39" t="s">
+        <v>57</v>
       </c>
       <c r="K106" s="18"/>
       <c r="L106" s="18"/>
@@ -6348,10 +6496,10 @@
       <c r="AB106" s="18"/>
       <c r="AC106" s="18"/>
     </row>
-    <row r="107" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="24"/>
       <c r="B107" s="33" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C107" s="26"/>
       <c r="D107" s="27"/>
@@ -6372,10 +6520,10 @@
         <v>19.5</v>
       </c>
       <c r="J107" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K107" s="18" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L107" s="18"/>
       <c r="M107" s="18"/>
@@ -6396,13 +6544,13 @@
       <c r="AB107" s="18"/>
       <c r="AC107" s="18"/>
     </row>
-    <row r="108" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="24"/>
       <c r="B108" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C108" s="26" t="s">
         <v>136</v>
-      </c>
-      <c r="C108" s="26" t="s">
-        <v>133</v>
       </c>
       <c r="D108" s="27" t="n">
         <v>2</v>
@@ -6425,7 +6573,7 @@
         <v>1.99</v>
       </c>
       <c r="J108" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K108" s="18"/>
       <c r="L108" s="18"/>
@@ -6447,13 +6595,13 @@
       <c r="AB108" s="18"/>
       <c r="AC108" s="18"/>
     </row>
-    <row r="109" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="24"/>
       <c r="B109" s="33" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C109" s="26" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D109" s="27" t="n">
         <v>1</v>
@@ -6476,7 +6624,7 @@
         <v>2.99</v>
       </c>
       <c r="J109" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K109" s="18"/>
       <c r="L109" s="18"/>
@@ -6498,13 +6646,13 @@
       <c r="AB109" s="18"/>
       <c r="AC109" s="18"/>
     </row>
-    <row r="110" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="24"/>
       <c r="B110" s="31" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C110" s="26" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D110" s="27" t="n">
         <v>1</v>
@@ -6543,16 +6691,16 @@
       <c r="AB110" s="18"/>
       <c r="AC110" s="18"/>
     </row>
-    <row r="111" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="54" t="n">
+    <row r="111" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="55" t="n">
         <f aca="false">SUM(F89:F111)</f>
         <v>2717.7</v>
       </c>
-      <c r="B111" s="55" t="n">
+      <c r="B111" s="56" t="n">
         <f aca="false">SUM(I89:I111)</f>
         <v>2246.6375</v>
       </c>
-      <c r="C111" s="56" t="n">
+      <c r="C111" s="57" t="n">
         <f aca="false">B111/I145*100</f>
         <v>25.2251556825394</v>
       </c>
@@ -6562,7 +6710,7 @@
       <c r="G111" s="0"/>
       <c r="H111" s="0"/>
       <c r="I111" s="0"/>
-      <c r="J111" s="57"/>
+      <c r="J111" s="34"/>
       <c r="K111" s="0"/>
       <c r="L111" s="0"/>
       <c r="M111" s="18"/>
@@ -6583,15 +6731,15 @@
       <c r="AB111" s="18"/>
       <c r="AC111" s="18"/>
     </row>
-    <row r="112" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="58" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C112" s="26" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D112" s="27" t="n">
         <v>1</v>
@@ -6614,7 +6762,7 @@
         <v>171.16</v>
       </c>
       <c r="J112" s="18" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K112" s="18"/>
       <c r="L112" s="18"/>
@@ -6636,13 +6784,13 @@
       <c r="AB112" s="18"/>
       <c r="AC112" s="18"/>
     </row>
-    <row r="113" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="58"/>
       <c r="B113" s="25" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C113" s="26" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D113" s="27" t="n">
         <v>12</v>
@@ -6665,7 +6813,7 @@
         <v>479.12</v>
       </c>
       <c r="J113" s="18" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K113" s="18"/>
       <c r="L113" s="18"/>
@@ -6687,10 +6835,10 @@
       <c r="AB113" s="18"/>
       <c r="AC113" s="18"/>
     </row>
-    <row r="114" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="58"/>
       <c r="B114" s="25" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C114" s="26"/>
       <c r="D114" s="27" t="n">
@@ -6714,7 +6862,7 @@
         <v>13.05</v>
       </c>
       <c r="J114" s="18" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K114" s="18"/>
       <c r="L114" s="18"/>
@@ -6736,13 +6884,13 @@
       <c r="AB114" s="18"/>
       <c r="AC114" s="18"/>
     </row>
-    <row r="115" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="58"/>
       <c r="B115" s="59" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C115" s="26" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D115" s="27" t="n">
         <v>10</v>
@@ -6764,8 +6912,8 @@
         <f aca="false">G115*H115</f>
         <v>40</v>
       </c>
-      <c r="J115" s="38" t="s">
-        <v>148</v>
+      <c r="J115" s="39" t="s">
+        <v>151</v>
       </c>
       <c r="K115" s="18"/>
       <c r="L115" s="18"/>
@@ -6787,13 +6935,13 @@
       <c r="AB115" s="18"/>
       <c r="AC115" s="18"/>
     </row>
-    <row r="116" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="58"/>
       <c r="B116" s="25" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C116" s="26" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D116" s="27" t="n">
         <v>1</v>
@@ -6816,7 +6964,7 @@
         <v>199.9</v>
       </c>
       <c r="J116" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K116" s="18"/>
       <c r="L116" s="18"/>
@@ -6838,13 +6986,13 @@
       <c r="AB116" s="18"/>
       <c r="AC116" s="18"/>
     </row>
-    <row r="117" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="58"/>
-      <c r="B117" s="37" t="s">
-        <v>150</v>
+      <c r="B117" s="38" t="s">
+        <v>153</v>
       </c>
       <c r="C117" s="26" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D117" s="27"/>
       <c r="E117" s="28"/>
@@ -6859,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="J117" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K117" s="18"/>
       <c r="L117" s="18"/>
@@ -6881,10 +7029,10 @@
       <c r="AB117" s="18"/>
       <c r="AC117" s="18"/>
     </row>
-    <row r="118" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="58"/>
       <c r="B118" s="25" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C118" s="26"/>
       <c r="D118" s="27"/>
@@ -6902,7 +7050,7 @@
         <v>11.04</v>
       </c>
       <c r="J118" s="18" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K118" s="18"/>
       <c r="L118" s="18"/>
@@ -6924,13 +7072,13 @@
       <c r="AB118" s="18"/>
       <c r="AC118" s="18"/>
     </row>
-    <row r="119" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="58"/>
       <c r="B119" s="25" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C119" s="26" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D119" s="27"/>
       <c r="E119" s="28"/>
@@ -6947,7 +7095,7 @@
         <v>35.67</v>
       </c>
       <c r="J119" s="18" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K119" s="18"/>
       <c r="L119" s="18"/>
@@ -6969,13 +7117,13 @@
       <c r="AB119" s="18"/>
       <c r="AC119" s="18"/>
     </row>
-    <row r="120" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="58"/>
       <c r="B120" s="25" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C120" s="26" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D120" s="27"/>
       <c r="E120" s="28"/>
@@ -6993,7 +7141,7 @@
         <v>66.9</v>
       </c>
       <c r="J120" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K120" s="18"/>
       <c r="L120" s="18"/>
@@ -7015,13 +7163,13 @@
       <c r="AB120" s="18"/>
       <c r="AC120" s="18"/>
     </row>
-    <row r="121" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="58"/>
       <c r="B121" s="25" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C121" s="26" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D121" s="27"/>
       <c r="E121" s="28"/>
@@ -7039,7 +7187,7 @@
         <v>46.9</v>
       </c>
       <c r="J121" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K121" s="18"/>
       <c r="L121" s="18"/>
@@ -7061,13 +7209,13 @@
       <c r="AB121" s="18"/>
       <c r="AC121" s="18"/>
     </row>
-    <row r="122" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="58"/>
       <c r="B122" s="31" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C122" s="26" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D122" s="27" t="n">
         <v>1</v>
@@ -7106,13 +7254,13 @@
       <c r="AB122" s="18"/>
       <c r="AC122" s="18"/>
     </row>
-    <row r="123" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="58"/>
       <c r="B123" s="31" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C123" s="60" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D123" s="27" t="n">
         <v>1</v>
@@ -7151,16 +7299,16 @@
       <c r="AB123" s="18"/>
       <c r="AC123" s="18"/>
     </row>
-    <row r="124" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="61" t="n">
         <f aca="false">SUM(F112:F124)</f>
         <v>1315.51</v>
       </c>
-      <c r="B124" s="55" t="n">
+      <c r="B124" s="56" t="n">
         <f aca="false">SUM(I112:I124)</f>
         <v>1063.74</v>
       </c>
-      <c r="C124" s="56" t="n">
+      <c r="C124" s="57" t="n">
         <f aca="false">B124/I145*100</f>
         <v>11.9436300274274</v>
       </c>
@@ -7191,15 +7339,15 @@
       <c r="AB124" s="18"/>
       <c r="AC124" s="18"/>
     </row>
-    <row r="125" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="62" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B125" s="63" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C125" s="64" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D125" s="27" t="n">
         <v>84</v>
@@ -7211,46 +7359,46 @@
         <f aca="false">D125*E125</f>
         <v>420</v>
       </c>
-      <c r="G125" s="49" t="n">
+      <c r="G125" s="50" t="n">
         <v>90</v>
       </c>
-      <c r="H125" s="50" t="n">
+      <c r="H125" s="51" t="n">
         <v>5.4</v>
       </c>
       <c r="I125" s="30" t="n">
         <f aca="false">G125*H125</f>
         <v>486</v>
       </c>
-      <c r="J125" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="K125" s="52"/>
-      <c r="L125" s="52"/>
-      <c r="M125" s="52"/>
-      <c r="N125" s="52"/>
-      <c r="O125" s="52"/>
-      <c r="P125" s="52"/>
-      <c r="Q125" s="52"/>
-      <c r="R125" s="52"/>
-      <c r="S125" s="52"/>
-      <c r="T125" s="52"/>
-      <c r="U125" s="52"/>
-      <c r="V125" s="52"/>
-      <c r="W125" s="52"/>
-      <c r="X125" s="52"/>
-      <c r="Y125" s="52"/>
-      <c r="Z125" s="52"/>
-      <c r="AA125" s="52"/>
-      <c r="AB125" s="52"/>
-      <c r="AC125" s="52"/>
-    </row>
-    <row r="126" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J125" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="K125" s="53"/>
+      <c r="L125" s="53"/>
+      <c r="M125" s="53"/>
+      <c r="N125" s="53"/>
+      <c r="O125" s="53"/>
+      <c r="P125" s="53"/>
+      <c r="Q125" s="53"/>
+      <c r="R125" s="53"/>
+      <c r="S125" s="53"/>
+      <c r="T125" s="53"/>
+      <c r="U125" s="53"/>
+      <c r="V125" s="53"/>
+      <c r="W125" s="53"/>
+      <c r="X125" s="53"/>
+      <c r="Y125" s="53"/>
+      <c r="Z125" s="53"/>
+      <c r="AA125" s="53"/>
+      <c r="AB125" s="53"/>
+      <c r="AC125" s="53"/>
+    </row>
+    <row r="126" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="62"/>
       <c r="B126" s="63" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C126" s="64" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D126" s="27" t="n">
         <v>2</v>
@@ -7262,43 +7410,43 @@
         <f aca="false">D126*E126</f>
         <v>60</v>
       </c>
-      <c r="G126" s="49" t="n">
+      <c r="G126" s="50" t="n">
         <v>2</v>
       </c>
-      <c r="H126" s="50" t="n">
+      <c r="H126" s="51" t="n">
         <v>35</v>
       </c>
       <c r="I126" s="30" t="n">
         <f aca="false">G126*H126</f>
         <v>70</v>
       </c>
-      <c r="J126" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="K126" s="52"/>
-      <c r="L126" s="52"/>
-      <c r="M126" s="52"/>
-      <c r="N126" s="52"/>
-      <c r="O126" s="52"/>
-      <c r="P126" s="52"/>
-      <c r="Q126" s="52"/>
-      <c r="R126" s="52"/>
-      <c r="S126" s="52"/>
-      <c r="T126" s="52"/>
-      <c r="U126" s="52"/>
-      <c r="V126" s="52"/>
-      <c r="W126" s="52"/>
-      <c r="X126" s="52"/>
-      <c r="Y126" s="52"/>
-      <c r="Z126" s="52"/>
-      <c r="AA126" s="52"/>
-      <c r="AB126" s="52"/>
-      <c r="AC126" s="52"/>
-    </row>
-    <row r="127" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J126" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="K126" s="53"/>
+      <c r="L126" s="53"/>
+      <c r="M126" s="53"/>
+      <c r="N126" s="53"/>
+      <c r="O126" s="53"/>
+      <c r="P126" s="53"/>
+      <c r="Q126" s="53"/>
+      <c r="R126" s="53"/>
+      <c r="S126" s="53"/>
+      <c r="T126" s="53"/>
+      <c r="U126" s="53"/>
+      <c r="V126" s="53"/>
+      <c r="W126" s="53"/>
+      <c r="X126" s="53"/>
+      <c r="Y126" s="53"/>
+      <c r="Z126" s="53"/>
+      <c r="AA126" s="53"/>
+      <c r="AB126" s="53"/>
+      <c r="AC126" s="53"/>
+    </row>
+    <row r="127" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="62"/>
-      <c r="B127" s="45" t="s">
-        <v>147</v>
+      <c r="B127" s="46" t="s">
+        <v>150</v>
       </c>
       <c r="C127" s="64"/>
       <c r="D127" s="27"/>
@@ -7306,46 +7454,46 @@
       <c r="F127" s="29" t="n">
         <v>40</v>
       </c>
-      <c r="G127" s="49" t="n">
+      <c r="G127" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="H127" s="50" t="n">
+      <c r="H127" s="51" t="n">
         <v>40</v>
       </c>
       <c r="I127" s="30" t="n">
         <f aca="false">G127*H127</f>
         <v>40</v>
       </c>
-      <c r="J127" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="K127" s="52"/>
-      <c r="L127" s="52"/>
-      <c r="M127" s="52"/>
-      <c r="N127" s="52"/>
-      <c r="O127" s="52"/>
-      <c r="P127" s="52"/>
-      <c r="Q127" s="52"/>
-      <c r="R127" s="52"/>
-      <c r="S127" s="52"/>
-      <c r="T127" s="52"/>
-      <c r="U127" s="52"/>
-      <c r="V127" s="52"/>
-      <c r="W127" s="52"/>
-      <c r="X127" s="52"/>
-      <c r="Y127" s="52"/>
-      <c r="Z127" s="52"/>
-      <c r="AA127" s="52"/>
-      <c r="AB127" s="52"/>
-      <c r="AC127" s="52"/>
-    </row>
-    <row r="128" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J127" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="K127" s="53"/>
+      <c r="L127" s="53"/>
+      <c r="M127" s="53"/>
+      <c r="N127" s="53"/>
+      <c r="O127" s="53"/>
+      <c r="P127" s="53"/>
+      <c r="Q127" s="53"/>
+      <c r="R127" s="53"/>
+      <c r="S127" s="53"/>
+      <c r="T127" s="53"/>
+      <c r="U127" s="53"/>
+      <c r="V127" s="53"/>
+      <c r="W127" s="53"/>
+      <c r="X127" s="53"/>
+      <c r="Y127" s="53"/>
+      <c r="Z127" s="53"/>
+      <c r="AA127" s="53"/>
+      <c r="AB127" s="53"/>
+      <c r="AC127" s="53"/>
+    </row>
+    <row r="128" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="62"/>
       <c r="B128" s="63" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C128" s="64" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D128" s="27" t="n">
         <v>4</v>
@@ -7357,46 +7505,46 @@
         <f aca="false">D128*E128</f>
         <v>12</v>
       </c>
-      <c r="G128" s="49" t="n">
+      <c r="G128" s="50" t="n">
         <v>2</v>
       </c>
-      <c r="H128" s="50" t="n">
+      <c r="H128" s="51" t="n">
         <v>22</v>
       </c>
       <c r="I128" s="30" t="n">
         <f aca="false">G128*H128</f>
         <v>44</v>
       </c>
-      <c r="J128" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="K128" s="52"/>
-      <c r="L128" s="52"/>
-      <c r="M128" s="52"/>
-      <c r="N128" s="52"/>
-      <c r="O128" s="52"/>
-      <c r="P128" s="52"/>
-      <c r="Q128" s="52"/>
-      <c r="R128" s="52"/>
-      <c r="S128" s="52"/>
-      <c r="T128" s="52"/>
-      <c r="U128" s="52"/>
-      <c r="V128" s="52"/>
-      <c r="W128" s="52"/>
-      <c r="X128" s="52"/>
-      <c r="Y128" s="52"/>
-      <c r="Z128" s="52"/>
-      <c r="AA128" s="52"/>
-      <c r="AB128" s="52"/>
-      <c r="AC128" s="52"/>
-    </row>
-    <row r="129" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J128" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="K128" s="53"/>
+      <c r="L128" s="53"/>
+      <c r="M128" s="53"/>
+      <c r="N128" s="53"/>
+      <c r="O128" s="53"/>
+      <c r="P128" s="53"/>
+      <c r="Q128" s="53"/>
+      <c r="R128" s="53"/>
+      <c r="S128" s="53"/>
+      <c r="T128" s="53"/>
+      <c r="U128" s="53"/>
+      <c r="V128" s="53"/>
+      <c r="W128" s="53"/>
+      <c r="X128" s="53"/>
+      <c r="Y128" s="53"/>
+      <c r="Z128" s="53"/>
+      <c r="AA128" s="53"/>
+      <c r="AB128" s="53"/>
+      <c r="AC128" s="53"/>
+    </row>
+    <row r="129" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="62"/>
       <c r="B129" s="63" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C129" s="64" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D129" s="27" t="n">
         <v>2</v>
@@ -7408,45 +7556,45 @@
         <f aca="false">D129*E129</f>
         <v>15</v>
       </c>
-      <c r="G129" s="49" t="n">
+      <c r="G129" s="50" t="n">
         <v>2</v>
       </c>
-      <c r="H129" s="50" t="n">
+      <c r="H129" s="51" t="n">
         <v>16</v>
       </c>
       <c r="I129" s="30" t="n">
         <f aca="false">G129*H129</f>
         <v>32</v>
       </c>
-      <c r="J129" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="K129" s="52"/>
-      <c r="L129" s="52"/>
-      <c r="M129" s="52"/>
-      <c r="N129" s="52"/>
-      <c r="O129" s="52"/>
-      <c r="P129" s="52"/>
-      <c r="Q129" s="52"/>
-      <c r="R129" s="52"/>
-      <c r="S129" s="52"/>
-      <c r="T129" s="52"/>
-      <c r="U129" s="52"/>
-      <c r="V129" s="52"/>
-      <c r="W129" s="52"/>
-      <c r="X129" s="52"/>
-      <c r="Y129" s="52"/>
-      <c r="Z129" s="52"/>
-      <c r="AA129" s="52"/>
-      <c r="AB129" s="52"/>
-      <c r="AC129" s="52"/>
-    </row>
-    <row r="130" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J129" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="K129" s="53"/>
+      <c r="L129" s="53"/>
+      <c r="M129" s="53"/>
+      <c r="N129" s="53"/>
+      <c r="O129" s="53"/>
+      <c r="P129" s="53"/>
+      <c r="Q129" s="53"/>
+      <c r="R129" s="53"/>
+      <c r="S129" s="53"/>
+      <c r="T129" s="53"/>
+      <c r="U129" s="53"/>
+      <c r="V129" s="53"/>
+      <c r="W129" s="53"/>
+      <c r="X129" s="53"/>
+      <c r="Y129" s="53"/>
+      <c r="Z129" s="53"/>
+      <c r="AA129" s="53"/>
+      <c r="AB129" s="53"/>
+      <c r="AC129" s="53"/>
+    </row>
+    <row r="130" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="62"/>
       <c r="B130" s="65" t="s">
-        <v>171</v>
-      </c>
-      <c r="C130" s="47" t="n">
+        <v>174</v>
+      </c>
+      <c r="C130" s="48" t="n">
         <v>60</v>
       </c>
       <c r="D130" s="27" t="n">
@@ -7459,45 +7607,45 @@
         <f aca="false">D130*E130</f>
         <v>60</v>
       </c>
-      <c r="G130" s="49" t="n">
+      <c r="G130" s="50" t="n">
         <v>60</v>
       </c>
-      <c r="H130" s="50" t="n">
+      <c r="H130" s="51" t="n">
         <v>1</v>
       </c>
       <c r="I130" s="30" t="n">
         <f aca="false">G130*H130</f>
         <v>60</v>
       </c>
-      <c r="J130" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="K130" s="52"/>
-      <c r="L130" s="52"/>
-      <c r="M130" s="52"/>
-      <c r="N130" s="52"/>
-      <c r="O130" s="52"/>
-      <c r="P130" s="52"/>
-      <c r="Q130" s="52"/>
-      <c r="R130" s="52"/>
-      <c r="S130" s="52"/>
-      <c r="T130" s="52"/>
-      <c r="U130" s="52"/>
-      <c r="V130" s="52"/>
-      <c r="W130" s="52"/>
-      <c r="X130" s="52"/>
-      <c r="Y130" s="52"/>
-      <c r="Z130" s="52"/>
-      <c r="AA130" s="52"/>
-      <c r="AB130" s="52"/>
-      <c r="AC130" s="52"/>
-    </row>
-    <row r="131" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J130" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="K130" s="53"/>
+      <c r="L130" s="53"/>
+      <c r="M130" s="53"/>
+      <c r="N130" s="53"/>
+      <c r="O130" s="53"/>
+      <c r="P130" s="53"/>
+      <c r="Q130" s="53"/>
+      <c r="R130" s="53"/>
+      <c r="S130" s="53"/>
+      <c r="T130" s="53"/>
+      <c r="U130" s="53"/>
+      <c r="V130" s="53"/>
+      <c r="W130" s="53"/>
+      <c r="X130" s="53"/>
+      <c r="Y130" s="53"/>
+      <c r="Z130" s="53"/>
+      <c r="AA130" s="53"/>
+      <c r="AB130" s="53"/>
+      <c r="AC130" s="53"/>
+    </row>
+    <row r="131" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="62"/>
       <c r="B131" s="65" t="s">
-        <v>172</v>
-      </c>
-      <c r="C131" s="47" t="n">
+        <v>175</v>
+      </c>
+      <c r="C131" s="48" t="n">
         <v>60</v>
       </c>
       <c r="D131" s="27" t="n">
@@ -7510,245 +7658,245 @@
         <f aca="false">D131*E131</f>
         <v>60</v>
       </c>
-      <c r="G131" s="49" t="n">
+      <c r="G131" s="50" t="n">
         <v>60</v>
       </c>
-      <c r="H131" s="50" t="n">
+      <c r="H131" s="51" t="n">
         <v>0.25</v>
       </c>
       <c r="I131" s="30" t="n">
         <f aca="false">G131*H131</f>
         <v>15</v>
       </c>
-      <c r="J131" s="51" t="s">
-        <v>173</v>
-      </c>
-      <c r="K131" s="52"/>
-      <c r="L131" s="52"/>
-      <c r="M131" s="52"/>
-      <c r="N131" s="52"/>
-      <c r="O131" s="52"/>
-      <c r="P131" s="52"/>
-      <c r="Q131" s="52"/>
-      <c r="R131" s="52"/>
-      <c r="S131" s="52"/>
-      <c r="T131" s="52"/>
-      <c r="U131" s="52"/>
-      <c r="V131" s="52"/>
-      <c r="W131" s="52"/>
-      <c r="X131" s="52"/>
-      <c r="Y131" s="52"/>
-      <c r="Z131" s="52"/>
-      <c r="AA131" s="52"/>
-      <c r="AB131" s="52"/>
-      <c r="AC131" s="52"/>
-    </row>
-    <row r="132" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J131" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="K131" s="53"/>
+      <c r="L131" s="53"/>
+      <c r="M131" s="53"/>
+      <c r="N131" s="53"/>
+      <c r="O131" s="53"/>
+      <c r="P131" s="53"/>
+      <c r="Q131" s="53"/>
+      <c r="R131" s="53"/>
+      <c r="S131" s="53"/>
+      <c r="T131" s="53"/>
+      <c r="U131" s="53"/>
+      <c r="V131" s="53"/>
+      <c r="W131" s="53"/>
+      <c r="X131" s="53"/>
+      <c r="Y131" s="53"/>
+      <c r="Z131" s="53"/>
+      <c r="AA131" s="53"/>
+      <c r="AB131" s="53"/>
+      <c r="AC131" s="53"/>
+    </row>
+    <row r="132" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="62"/>
       <c r="B132" s="65" t="s">
-        <v>174</v>
-      </c>
-      <c r="C132" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="D132" s="48" t="n">
+        <v>177</v>
+      </c>
+      <c r="C132" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="D132" s="49" t="n">
         <v>2</v>
       </c>
-      <c r="E132" s="49" t="n">
+      <c r="E132" s="50" t="n">
         <v>5</v>
       </c>
       <c r="F132" s="29" t="n">
         <f aca="false">D132*E132</f>
         <v>10</v>
       </c>
-      <c r="G132" s="49" t="n">
+      <c r="G132" s="50" t="n">
         <v>2</v>
       </c>
-      <c r="H132" s="50" t="n">
+      <c r="H132" s="51" t="n">
         <v>5</v>
       </c>
       <c r="I132" s="30" t="n">
         <f aca="false">G132*H132</f>
         <v>10</v>
       </c>
-      <c r="J132" s="51" t="s">
-        <v>173</v>
-      </c>
-      <c r="K132" s="52"/>
-      <c r="L132" s="52"/>
-      <c r="M132" s="52"/>
-      <c r="N132" s="52"/>
-      <c r="O132" s="52"/>
-      <c r="P132" s="52"/>
-      <c r="Q132" s="52"/>
-      <c r="R132" s="52"/>
-      <c r="S132" s="52"/>
-      <c r="T132" s="52"/>
-      <c r="U132" s="52"/>
-      <c r="V132" s="52"/>
-      <c r="W132" s="52"/>
-      <c r="X132" s="52"/>
-      <c r="Y132" s="52"/>
-      <c r="Z132" s="52"/>
-      <c r="AA132" s="52"/>
-      <c r="AB132" s="52"/>
-      <c r="AC132" s="52"/>
-    </row>
-    <row r="133" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J132" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="K132" s="53"/>
+      <c r="L132" s="53"/>
+      <c r="M132" s="53"/>
+      <c r="N132" s="53"/>
+      <c r="O132" s="53"/>
+      <c r="P132" s="53"/>
+      <c r="Q132" s="53"/>
+      <c r="R132" s="53"/>
+      <c r="S132" s="53"/>
+      <c r="T132" s="53"/>
+      <c r="U132" s="53"/>
+      <c r="V132" s="53"/>
+      <c r="W132" s="53"/>
+      <c r="X132" s="53"/>
+      <c r="Y132" s="53"/>
+      <c r="Z132" s="53"/>
+      <c r="AA132" s="53"/>
+      <c r="AB132" s="53"/>
+      <c r="AC132" s="53"/>
+    </row>
+    <row r="133" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="62"/>
       <c r="B133" s="65" t="s">
-        <v>176</v>
-      </c>
-      <c r="C133" s="47"/>
-      <c r="D133" s="48"/>
-      <c r="E133" s="49"/>
-      <c r="F133" s="50" t="n">
+        <v>179</v>
+      </c>
+      <c r="C133" s="48"/>
+      <c r="D133" s="49"/>
+      <c r="E133" s="50"/>
+      <c r="F133" s="51" t="n">
         <v>33.8</v>
       </c>
-      <c r="G133" s="49" t="n">
+      <c r="G133" s="50" t="n">
         <v>280</v>
       </c>
-      <c r="H133" s="50" t="n">
+      <c r="H133" s="51" t="n">
         <v>0.12</v>
       </c>
       <c r="I133" s="66" t="n">
         <v>33.8</v>
       </c>
-      <c r="J133" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="K133" s="52"/>
-      <c r="L133" s="52"/>
-      <c r="M133" s="52"/>
-      <c r="N133" s="52"/>
-      <c r="O133" s="52"/>
-      <c r="P133" s="52"/>
-      <c r="Q133" s="52"/>
-      <c r="R133" s="52"/>
-      <c r="S133" s="52"/>
-      <c r="T133" s="52"/>
-      <c r="U133" s="52"/>
-      <c r="V133" s="52"/>
-      <c r="W133" s="52"/>
-      <c r="X133" s="52"/>
-      <c r="Y133" s="52"/>
-      <c r="Z133" s="52"/>
-      <c r="AA133" s="52"/>
-      <c r="AB133" s="52"/>
-      <c r="AC133" s="52"/>
-    </row>
-    <row r="134" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J133" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="K133" s="53"/>
+      <c r="L133" s="53"/>
+      <c r="M133" s="53"/>
+      <c r="N133" s="53"/>
+      <c r="O133" s="53"/>
+      <c r="P133" s="53"/>
+      <c r="Q133" s="53"/>
+      <c r="R133" s="53"/>
+      <c r="S133" s="53"/>
+      <c r="T133" s="53"/>
+      <c r="U133" s="53"/>
+      <c r="V133" s="53"/>
+      <c r="W133" s="53"/>
+      <c r="X133" s="53"/>
+      <c r="Y133" s="53"/>
+      <c r="Z133" s="53"/>
+      <c r="AA133" s="53"/>
+      <c r="AB133" s="53"/>
+      <c r="AC133" s="53"/>
+    </row>
+    <row r="134" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="62"/>
       <c r="B134" s="65" t="s">
-        <v>177</v>
-      </c>
-      <c r="C134" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="D134" s="48" t="n">
+        <v>180</v>
+      </c>
+      <c r="C134" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="D134" s="49" t="n">
         <v>20</v>
       </c>
-      <c r="E134" s="49" t="n">
+      <c r="E134" s="50" t="n">
         <v>0.4</v>
       </c>
       <c r="F134" s="29" t="n">
         <f aca="false">D134*E134</f>
         <v>8</v>
       </c>
-      <c r="G134" s="49" t="n">
+      <c r="G134" s="50" t="n">
         <v>20</v>
       </c>
-      <c r="H134" s="50" t="n">
+      <c r="H134" s="51" t="n">
         <v>0.4</v>
       </c>
       <c r="I134" s="30" t="n">
         <f aca="false">G134*H134</f>
         <v>8</v>
       </c>
-      <c r="J134" s="51" t="s">
-        <v>173</v>
-      </c>
-      <c r="K134" s="52"/>
-      <c r="L134" s="52"/>
-      <c r="M134" s="52"/>
-      <c r="N134" s="52"/>
-      <c r="O134" s="52"/>
-      <c r="P134" s="52"/>
-      <c r="Q134" s="52"/>
-      <c r="R134" s="52"/>
-      <c r="S134" s="52"/>
-      <c r="T134" s="52"/>
-      <c r="U134" s="52"/>
-      <c r="V134" s="52"/>
-      <c r="W134" s="52"/>
-      <c r="X134" s="52"/>
-      <c r="Y134" s="52"/>
-      <c r="Z134" s="52"/>
-      <c r="AA134" s="52"/>
-      <c r="AB134" s="52"/>
-      <c r="AC134" s="52"/>
-    </row>
-    <row r="135" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J134" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="K134" s="53"/>
+      <c r="L134" s="53"/>
+      <c r="M134" s="53"/>
+      <c r="N134" s="53"/>
+      <c r="O134" s="53"/>
+      <c r="P134" s="53"/>
+      <c r="Q134" s="53"/>
+      <c r="R134" s="53"/>
+      <c r="S134" s="53"/>
+      <c r="T134" s="53"/>
+      <c r="U134" s="53"/>
+      <c r="V134" s="53"/>
+      <c r="W134" s="53"/>
+      <c r="X134" s="53"/>
+      <c r="Y134" s="53"/>
+      <c r="Z134" s="53"/>
+      <c r="AA134" s="53"/>
+      <c r="AB134" s="53"/>
+      <c r="AC134" s="53"/>
+    </row>
+    <row r="135" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="62"/>
       <c r="B135" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="C135" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C135" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="D135" s="48" t="n">
+      <c r="D135" s="49" t="n">
         <v>4</v>
       </c>
-      <c r="E135" s="49" t="n">
+      <c r="E135" s="50" t="n">
         <v>1.45</v>
       </c>
       <c r="F135" s="29" t="n">
         <f aca="false">D135*E135</f>
         <v>5.8</v>
       </c>
-      <c r="G135" s="49" t="n">
+      <c r="G135" s="50" t="n">
         <v>4</v>
       </c>
-      <c r="H135" s="50" t="n">
+      <c r="H135" s="51" t="n">
         <v>1.45</v>
       </c>
       <c r="I135" s="30" t="n">
         <f aca="false">G135*H135</f>
         <v>5.8</v>
       </c>
-      <c r="J135" s="51" t="s">
-        <v>173</v>
-      </c>
-      <c r="K135" s="52"/>
-      <c r="L135" s="52"/>
-      <c r="M135" s="52"/>
-      <c r="N135" s="52"/>
-      <c r="O135" s="52"/>
-      <c r="P135" s="52"/>
-      <c r="Q135" s="52"/>
-      <c r="R135" s="52"/>
-      <c r="S135" s="52"/>
-      <c r="T135" s="52"/>
-      <c r="U135" s="52"/>
-      <c r="V135" s="52"/>
-      <c r="W135" s="52"/>
-      <c r="X135" s="52"/>
-      <c r="Y135" s="52"/>
-      <c r="Z135" s="52"/>
-      <c r="AA135" s="52"/>
-      <c r="AB135" s="52"/>
-      <c r="AC135" s="52"/>
-    </row>
-    <row r="136" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J135" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="K135" s="53"/>
+      <c r="L135" s="53"/>
+      <c r="M135" s="53"/>
+      <c r="N135" s="53"/>
+      <c r="O135" s="53"/>
+      <c r="P135" s="53"/>
+      <c r="Q135" s="53"/>
+      <c r="R135" s="53"/>
+      <c r="S135" s="53"/>
+      <c r="T135" s="53"/>
+      <c r="U135" s="53"/>
+      <c r="V135" s="53"/>
+      <c r="W135" s="53"/>
+      <c r="X135" s="53"/>
+      <c r="Y135" s="53"/>
+      <c r="Z135" s="53"/>
+      <c r="AA135" s="53"/>
+      <c r="AB135" s="53"/>
+      <c r="AC135" s="53"/>
+    </row>
+    <row r="136" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="61" t="n">
         <f aca="false">SUM(F125:F136)</f>
         <v>724.6</v>
       </c>
-      <c r="B136" s="55" t="n">
+      <c r="B136" s="56" t="n">
         <f aca="false">SUM(I125:I136)</f>
         <v>804.6</v>
       </c>
-      <c r="C136" s="56" t="n">
+      <c r="C136" s="57" t="n">
         <f aca="false">B136/I145*100</f>
         <v>9.03401650785728</v>
       </c>
@@ -7761,30 +7909,30 @@
       <c r="J136" s="0"/>
       <c r="K136" s="0"/>
       <c r="L136" s="0"/>
-      <c r="M136" s="52"/>
-      <c r="N136" s="52"/>
-      <c r="O136" s="52"/>
-      <c r="P136" s="52"/>
-      <c r="Q136" s="52"/>
-      <c r="R136" s="52"/>
-      <c r="S136" s="52"/>
-      <c r="T136" s="52"/>
-      <c r="U136" s="52"/>
-      <c r="V136" s="52"/>
-      <c r="W136" s="52"/>
-      <c r="X136" s="52"/>
-      <c r="Y136" s="52"/>
-      <c r="Z136" s="52"/>
-      <c r="AA136" s="52"/>
-      <c r="AB136" s="52"/>
-      <c r="AC136" s="52"/>
-    </row>
-    <row r="137" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M136" s="53"/>
+      <c r="N136" s="53"/>
+      <c r="O136" s="53"/>
+      <c r="P136" s="53"/>
+      <c r="Q136" s="53"/>
+      <c r="R136" s="53"/>
+      <c r="S136" s="53"/>
+      <c r="T136" s="53"/>
+      <c r="U136" s="53"/>
+      <c r="V136" s="53"/>
+      <c r="W136" s="53"/>
+      <c r="X136" s="53"/>
+      <c r="Y136" s="53"/>
+      <c r="Z136" s="53"/>
+      <c r="AA136" s="53"/>
+      <c r="AB136" s="53"/>
+      <c r="AC136" s="53"/>
+    </row>
+    <row r="137" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="62" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B137" s="33" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C137" s="26"/>
       <c r="D137" s="27"/>
@@ -7803,7 +7951,7 @@
         <v>26.97</v>
       </c>
       <c r="J137" s="18" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K137" s="18"/>
       <c r="L137" s="18"/>
@@ -7825,13 +7973,13 @@
       <c r="AB137" s="18"/>
       <c r="AC137" s="18"/>
     </row>
-    <row r="138" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="62"/>
       <c r="B138" s="33" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C138" s="67" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D138" s="67"/>
       <c r="E138" s="28"/>
@@ -7849,7 +7997,7 @@
         <v>11.6</v>
       </c>
       <c r="J138" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K138" s="18"/>
       <c r="L138" s="18"/>
@@ -7871,10 +8019,10 @@
       <c r="AB138" s="18"/>
       <c r="AC138" s="18"/>
     </row>
-    <row r="139" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="62"/>
       <c r="B139" s="33" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C139" s="26"/>
       <c r="D139" s="27"/>
@@ -7894,7 +8042,7 @@
         <v>108</v>
       </c>
       <c r="J139" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K139" s="18"/>
       <c r="L139" s="18"/>
@@ -7916,13 +8064,13 @@
       <c r="AB139" s="18"/>
       <c r="AC139" s="18"/>
     </row>
-    <row r="140" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="62"/>
       <c r="B140" s="33" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C140" s="26" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D140" s="27"/>
       <c r="E140" s="28"/>
@@ -7940,7 +8088,7 @@
         <v>50</v>
       </c>
       <c r="J140" s="18" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K140" s="18"/>
       <c r="L140" s="18"/>
@@ -7962,10 +8110,10 @@
       <c r="AB140" s="18"/>
       <c r="AC140" s="18"/>
     </row>
-    <row r="141" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="62"/>
       <c r="B141" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C141" s="26"/>
       <c r="D141" s="27"/>
@@ -7985,7 +8133,7 @@
         <v>250</v>
       </c>
       <c r="J141" s="18" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K141" s="18"/>
       <c r="L141" s="18"/>
@@ -8078,7 +8226,7 @@
         <f aca="false">SUM(I137:I144)</f>
         <v>446.57</v>
       </c>
-      <c r="C144" s="56" t="n">
+      <c r="C144" s="57" t="n">
         <f aca="false">B144/I145*100</f>
         <v>5.0140700371785</v>
       </c>
@@ -8111,7 +8259,7 @@
     </row>
     <row r="145" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B145" s="71" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C145" s="71"/>
       <c r="D145" s="71"/>
@@ -8149,7 +8297,7 @@
     </row>
     <row r="146" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B146" s="74" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C146" s="74"/>
       <c r="D146" s="74"/>
@@ -8245,7 +8393,7 @@
     <row r="149" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="6"/>
       <c r="B149" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C149" s="8"/>
       <c r="D149" s="76"/>
@@ -8279,7 +8427,7 @@
         <v>1000</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C150" s="8"/>
       <c r="D150" s="76"/>
@@ -8313,7 +8461,7 @@
         <v>300</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C151" s="8"/>
       <c r="D151" s="76"/>
@@ -8347,7 +8495,7 @@
         <v>220</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C152" s="8"/>
       <c r="D152" s="76"/>
@@ -20344,6 +20492,13 @@
       <c r="I1029" s="81"/>
     </row>
   </sheetData>
+  <autoFilter ref="A3:J141">
+    <filterColumn colId="9">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Janela"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="13">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="D3:F3"/>
@@ -20366,6 +20521,7 @@
     <oddHeader>&amp;COrçamento - Obra</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20374,20 +20530,389 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="82" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="82" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="82" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="82" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="82" width="9.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="82" width="9.59"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="82" width="11.61"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="83"/>
+    </row>
+    <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="83" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="83"/>
+    </row>
+    <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="85" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+    </row>
+    <row r="5" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" s="88" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="86" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="86" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="86"/>
+      <c r="F6" s="87"/>
+    </row>
+    <row r="7" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="89" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+    </row>
+    <row r="8" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="89" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+    </row>
+    <row r="9" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="89" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+    </row>
+    <row r="10" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="89" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+    </row>
+    <row r="11" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="89" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+    </row>
+    <row r="12" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="89" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+    </row>
+    <row r="13" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="89" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+    </row>
+    <row r="14" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="89" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+    </row>
+    <row r="15" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="89" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+    </row>
+    <row r="16" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="89" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+    </row>
+    <row r="17" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="89" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+    </row>
+    <row r="18" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="89" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+    </row>
+    <row r="19" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="89" t="n">
+        <v>13</v>
+      </c>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+    </row>
+    <row r="20" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="89" t="n">
+        <v>14</v>
+      </c>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+    </row>
+    <row r="21" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="89" t="n">
+        <v>15</v>
+      </c>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+    </row>
+    <row r="22" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="89" t="n">
+        <v>16</v>
+      </c>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+    </row>
+    <row r="23" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="89" t="n">
+        <v>17</v>
+      </c>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+    </row>
+    <row r="24" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="89" t="n">
+        <v>18</v>
+      </c>
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+    </row>
+    <row r="25" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="89" t="n">
+        <v>19</v>
+      </c>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+    </row>
+    <row r="26" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="89" t="n">
+        <v>20</v>
+      </c>
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+    </row>
+    <row r="27" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="89" t="n">
+        <v>21</v>
+      </c>
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+    </row>
+    <row r="28" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="89" t="n">
+        <v>22</v>
+      </c>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+    </row>
+    <row r="29" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="89" t="n">
+        <v>23</v>
+      </c>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+    </row>
+    <row r="30" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="89" t="n">
+        <v>24</v>
+      </c>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+    </row>
+    <row r="31" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="89" t="n">
+        <v>25</v>
+      </c>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+    </row>
+    <row r="32" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="89" t="n">
+        <v>26</v>
+      </c>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+    </row>
+    <row r="33" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="89" t="n">
+        <v>27</v>
+      </c>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+    </row>
+    <row r="34" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="89" t="n">
+        <v>28</v>
+      </c>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+    </row>
+    <row r="35" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="89" t="n">
+        <v>29</v>
+      </c>
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+    </row>
+    <row r="36" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="89" t="n">
+        <v>30</v>
+      </c>
+      <c r="B36" s="90"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+    </row>
+    <row r="37" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="89" t="n">
+        <v>31</v>
+      </c>
+      <c r="B37" s="90"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+    </row>
+    <row r="38" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="89"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:D4"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.196527777777778" bottom="0.196527777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -20403,7 +20928,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Orcamento_Controle.xlsx
+++ b/Orcamento_Controle.xlsx
@@ -650,13 +650,12 @@
     <numFmt numFmtId="167" formatCode="DD/MM/YY"/>
     <numFmt numFmtId="168" formatCode="General"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="48">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -674,18 +673,68 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="20"/>
+      <b val="true"/>
+      <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -693,7 +742,24 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -702,7 +768,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -710,7 +775,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -719,14 +783,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -734,7 +796,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -743,7 +804,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -752,7 +812,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -760,7 +819,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -768,7 +826,6 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -776,7 +833,6 @@
       <color rgb="FFC9211E"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -784,7 +840,6 @@
       <color rgb="FF4472C4"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -792,35 +847,30 @@
       <color rgb="FF2A6099"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF4A86E8"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF082125"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -828,7 +878,6 @@
       <color rgb="FF082125"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -836,7 +885,6 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -844,7 +892,6 @@
       <color rgb="FF2A6099"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -852,14 +899,12 @@
       <color rgb="FFC9211E"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -867,34 +912,29 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF2A6099"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF2A6099"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -902,7 +942,6 @@
       <color rgb="FF2A6099"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -910,24 +949,21 @@
       <color rgb="FF2A6099"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2A6099"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF2A6099"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -936,26 +972,68 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFE8F2A1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFFFD7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFC9211E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF082125"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFDEE6EF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE8F2A1"/>
-        <bgColor rgb="FFFFFF6D"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD7D7"/>
-        <bgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFFFCCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF6D"/>
       </patternFill>
     </fill>
     <fill>
@@ -973,16 +1051,31 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDEE6EF"/>
-        <bgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1029,7 +1122,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1053,380 +1146,448 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="91">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="23" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="24" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="25" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="24" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="21" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="21" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="22" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="12" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="27" fillId="13" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="14" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="27" fillId="13" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="21" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="21" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="32" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="27" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="33" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="21" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="27" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="34" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="31" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="34" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="22" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="35" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="36" fillId="15" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="37" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="38" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="39" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="40" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="40" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="41" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Heading" xfId="20"/>
+    <cellStyle name="Heading 1" xfId="21"/>
+    <cellStyle name="Heading 2" xfId="22"/>
+    <cellStyle name="Text" xfId="23"/>
+    <cellStyle name="Note" xfId="24"/>
+    <cellStyle name="Footnote" xfId="25"/>
+    <cellStyle name="Hyperlink" xfId="26"/>
+    <cellStyle name="Status" xfId="27"/>
+    <cellStyle name="Good" xfId="28"/>
+    <cellStyle name="Neutral" xfId="29"/>
+    <cellStyle name="Bad" xfId="30"/>
+    <cellStyle name="Warning" xfId="31"/>
+    <cellStyle name="Error" xfId="32"/>
+    <cellStyle name="Accent" xfId="33"/>
+    <cellStyle name="Accent 1" xfId="34"/>
+    <cellStyle name="Accent 2" xfId="35"/>
+    <cellStyle name="Accent 3" xfId="36"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1438,38 +1599,38 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFFFD7D7"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFEEEEEE"/>
+      <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFDEE6EF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF2A6099"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFE8F2A1"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF0000EE"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFE8F2A1"/>
+      <rgbColor rgb="FFEEEEEE"/>
+      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF6D"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFD7D7"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF4472C4"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1497,13 +1658,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC1029"/>
+  <dimension ref="A1:BL1029"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B155" activeCellId="0" sqref="B155"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1518,7 +1679,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="10.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="15.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="10" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="30" style="1" width="14.48"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="64" min="30" style="1" width="14.48"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1585,7 +1746,8 @@
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
     </row>
-    <row r="3" s="13" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="15"/>
       <c r="D3" s="16" t="s">
@@ -1620,8 +1782,43 @@
       <c r="AA3" s="18"/>
       <c r="AB3" s="18"/>
       <c r="AC3" s="18"/>
-    </row>
-    <row r="4" s="23" customFormat="true" ht="16.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="13"/>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="13"/>
+      <c r="AV3" s="13"/>
+      <c r="AW3" s="13"/>
+      <c r="AX3" s="13"/>
+      <c r="AY3" s="13"/>
+      <c r="AZ3" s="13"/>
+      <c r="BA3" s="13"/>
+      <c r="BB3" s="13"/>
+      <c r="BC3" s="13"/>
+      <c r="BD3" s="13"/>
+      <c r="BE3" s="13"/>
+      <c r="BF3" s="13"/>
+      <c r="BG3" s="13"/>
+      <c r="BH3" s="13"/>
+      <c r="BI3" s="13"/>
+      <c r="BJ3" s="13"/>
+      <c r="BK3" s="13"/>
+      <c r="BL3" s="13"/>
+    </row>
+    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
         <v>4</v>
       </c>
@@ -1669,8 +1866,43 @@
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
-    </row>
-    <row r="5" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="23"/>
+      <c r="AP4" s="23"/>
+      <c r="AQ4" s="23"/>
+      <c r="AR4" s="23"/>
+      <c r="AS4" s="23"/>
+      <c r="AT4" s="23"/>
+      <c r="AU4" s="23"/>
+      <c r="AV4" s="23"/>
+      <c r="AW4" s="23"/>
+      <c r="AX4" s="23"/>
+      <c r="AY4" s="23"/>
+      <c r="AZ4" s="23"/>
+      <c r="BA4" s="23"/>
+      <c r="BB4" s="23"/>
+      <c r="BC4" s="23"/>
+      <c r="BD4" s="23"/>
+      <c r="BE4" s="23"/>
+      <c r="BF4" s="23"/>
+      <c r="BG4" s="23"/>
+      <c r="BH4" s="23"/>
+      <c r="BI4" s="23"/>
+      <c r="BJ4" s="23"/>
+      <c r="BK4" s="23"/>
+      <c r="BL4" s="23"/>
+    </row>
+    <row r="5" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
         <v>10</v>
       </c>
@@ -1722,8 +1954,43 @@
       <c r="AA5" s="18"/>
       <c r="AB5" s="18"/>
       <c r="AC5" s="18"/>
-    </row>
-    <row r="6" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="13"/>
+      <c r="AY5" s="13"/>
+      <c r="AZ5" s="13"/>
+      <c r="BA5" s="13"/>
+      <c r="BB5" s="13"/>
+      <c r="BC5" s="13"/>
+      <c r="BD5" s="13"/>
+      <c r="BE5" s="13"/>
+      <c r="BF5" s="13"/>
+      <c r="BG5" s="13"/>
+      <c r="BH5" s="13"/>
+      <c r="BI5" s="13"/>
+      <c r="BJ5" s="13"/>
+      <c r="BK5" s="13"/>
+      <c r="BL5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="24"/>
       <c r="B6" s="31" t="s">
         <v>14</v>
@@ -1765,8 +2032,43 @@
       <c r="AA6" s="18"/>
       <c r="AB6" s="18"/>
       <c r="AC6" s="18"/>
-    </row>
-    <row r="7" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="13"/>
+      <c r="BA6" s="13"/>
+      <c r="BB6" s="13"/>
+      <c r="BC6" s="13"/>
+      <c r="BD6" s="13"/>
+      <c r="BE6" s="13"/>
+      <c r="BF6" s="13"/>
+      <c r="BG6" s="13"/>
+      <c r="BH6" s="13"/>
+      <c r="BI6" s="13"/>
+      <c r="BJ6" s="13"/>
+      <c r="BK6" s="13"/>
+      <c r="BL6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="24"/>
       <c r="B7" s="25" t="s">
         <v>15</v>
@@ -1814,8 +2116,43 @@
       <c r="AA7" s="18"/>
       <c r="AB7" s="18"/>
       <c r="AC7" s="18"/>
-    </row>
-    <row r="8" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13"/>
+      <c r="AV7" s="13"/>
+      <c r="AW7" s="13"/>
+      <c r="AX7" s="13"/>
+      <c r="AY7" s="13"/>
+      <c r="AZ7" s="13"/>
+      <c r="BA7" s="13"/>
+      <c r="BB7" s="13"/>
+      <c r="BC7" s="13"/>
+      <c r="BD7" s="13"/>
+      <c r="BE7" s="13"/>
+      <c r="BF7" s="13"/>
+      <c r="BG7" s="13"/>
+      <c r="BH7" s="13"/>
+      <c r="BI7" s="13"/>
+      <c r="BJ7" s="13"/>
+      <c r="BK7" s="13"/>
+      <c r="BL7" s="13"/>
+    </row>
+    <row r="8" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="24"/>
       <c r="B8" s="25" t="s">
         <v>16</v>
@@ -1863,8 +2200,43 @@
       <c r="AA8" s="18"/>
       <c r="AB8" s="18"/>
       <c r="AC8" s="18"/>
-    </row>
-    <row r="9" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="13"/>
+      <c r="AW8" s="13"/>
+      <c r="AX8" s="13"/>
+      <c r="AY8" s="13"/>
+      <c r="AZ8" s="13"/>
+      <c r="BA8" s="13"/>
+      <c r="BB8" s="13"/>
+      <c r="BC8" s="13"/>
+      <c r="BD8" s="13"/>
+      <c r="BE8" s="13"/>
+      <c r="BF8" s="13"/>
+      <c r="BG8" s="13"/>
+      <c r="BH8" s="13"/>
+      <c r="BI8" s="13"/>
+      <c r="BJ8" s="13"/>
+      <c r="BK8" s="13"/>
+      <c r="BL8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>18</v>
@@ -1912,8 +2284,43 @@
       <c r="AA9" s="18"/>
       <c r="AB9" s="18"/>
       <c r="AC9" s="18"/>
-    </row>
-    <row r="10" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="13"/>
+      <c r="AV9" s="13"/>
+      <c r="AW9" s="13"/>
+      <c r="AX9" s="13"/>
+      <c r="AY9" s="13"/>
+      <c r="AZ9" s="13"/>
+      <c r="BA9" s="13"/>
+      <c r="BB9" s="13"/>
+      <c r="BC9" s="13"/>
+      <c r="BD9" s="13"/>
+      <c r="BE9" s="13"/>
+      <c r="BF9" s="13"/>
+      <c r="BG9" s="13"/>
+      <c r="BH9" s="13"/>
+      <c r="BI9" s="13"/>
+      <c r="BJ9" s="13"/>
+      <c r="BK9" s="13"/>
+      <c r="BL9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="24"/>
       <c r="B10" s="32" t="s">
         <v>19</v>
@@ -1961,8 +2368,43 @@
       <c r="AA10" s="18"/>
       <c r="AB10" s="18"/>
       <c r="AC10" s="18"/>
-    </row>
-    <row r="11" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="13"/>
+      <c r="AX10" s="13"/>
+      <c r="AY10" s="13"/>
+      <c r="AZ10" s="13"/>
+      <c r="BA10" s="13"/>
+      <c r="BB10" s="13"/>
+      <c r="BC10" s="13"/>
+      <c r="BD10" s="13"/>
+      <c r="BE10" s="13"/>
+      <c r="BF10" s="13"/>
+      <c r="BG10" s="13"/>
+      <c r="BH10" s="13"/>
+      <c r="BI10" s="13"/>
+      <c r="BJ10" s="13"/>
+      <c r="BK10" s="13"/>
+      <c r="BL10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="24"/>
       <c r="B11" s="32" t="s">
         <v>20</v>
@@ -2010,8 +2452,43 @@
       <c r="AA11" s="18"/>
       <c r="AB11" s="18"/>
       <c r="AC11" s="18"/>
-    </row>
-    <row r="12" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="13"/>
+      <c r="AW11" s="13"/>
+      <c r="AX11" s="13"/>
+      <c r="AY11" s="13"/>
+      <c r="AZ11" s="13"/>
+      <c r="BA11" s="13"/>
+      <c r="BB11" s="13"/>
+      <c r="BC11" s="13"/>
+      <c r="BD11" s="13"/>
+      <c r="BE11" s="13"/>
+      <c r="BF11" s="13"/>
+      <c r="BG11" s="13"/>
+      <c r="BH11" s="13"/>
+      <c r="BI11" s="13"/>
+      <c r="BJ11" s="13"/>
+      <c r="BK11" s="13"/>
+      <c r="BL11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="24"/>
       <c r="B12" s="25" t="s">
         <v>21</v>
@@ -2059,8 +2536,43 @@
       <c r="AA12" s="18"/>
       <c r="AB12" s="18"/>
       <c r="AC12" s="18"/>
-    </row>
-    <row r="13" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
+      <c r="AV12" s="13"/>
+      <c r="AW12" s="13"/>
+      <c r="AX12" s="13"/>
+      <c r="AY12" s="13"/>
+      <c r="AZ12" s="13"/>
+      <c r="BA12" s="13"/>
+      <c r="BB12" s="13"/>
+      <c r="BC12" s="13"/>
+      <c r="BD12" s="13"/>
+      <c r="BE12" s="13"/>
+      <c r="BF12" s="13"/>
+      <c r="BG12" s="13"/>
+      <c r="BH12" s="13"/>
+      <c r="BI12" s="13"/>
+      <c r="BJ12" s="13"/>
+      <c r="BK12" s="13"/>
+      <c r="BL12" s="13"/>
+    </row>
+    <row r="13" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="24"/>
       <c r="B13" s="32" t="s">
         <v>22</v>
@@ -2110,8 +2622,43 @@
       <c r="AA13" s="18"/>
       <c r="AB13" s="18"/>
       <c r="AC13" s="18"/>
-    </row>
-    <row r="14" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="13"/>
+      <c r="AV13" s="13"/>
+      <c r="AW13" s="13"/>
+      <c r="AX13" s="13"/>
+      <c r="AY13" s="13"/>
+      <c r="AZ13" s="13"/>
+      <c r="BA13" s="13"/>
+      <c r="BB13" s="13"/>
+      <c r="BC13" s="13"/>
+      <c r="BD13" s="13"/>
+      <c r="BE13" s="13"/>
+      <c r="BF13" s="13"/>
+      <c r="BG13" s="13"/>
+      <c r="BH13" s="13"/>
+      <c r="BI13" s="13"/>
+      <c r="BJ13" s="13"/>
+      <c r="BK13" s="13"/>
+      <c r="BL13" s="13"/>
+    </row>
+    <row r="14" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="24"/>
       <c r="B14" s="25" t="s">
         <v>24</v>
@@ -2161,8 +2708,43 @@
       <c r="AA14" s="18"/>
       <c r="AB14" s="18"/>
       <c r="AC14" s="18"/>
-    </row>
-    <row r="15" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="13"/>
+      <c r="AU14" s="13"/>
+      <c r="AV14" s="13"/>
+      <c r="AW14" s="13"/>
+      <c r="AX14" s="13"/>
+      <c r="AY14" s="13"/>
+      <c r="AZ14" s="13"/>
+      <c r="BA14" s="13"/>
+      <c r="BB14" s="13"/>
+      <c r="BC14" s="13"/>
+      <c r="BD14" s="13"/>
+      <c r="BE14" s="13"/>
+      <c r="BF14" s="13"/>
+      <c r="BG14" s="13"/>
+      <c r="BH14" s="13"/>
+      <c r="BI14" s="13"/>
+      <c r="BJ14" s="13"/>
+      <c r="BK14" s="13"/>
+      <c r="BL14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="24"/>
       <c r="B15" s="25" t="s">
         <v>26</v>
@@ -2212,8 +2794,43 @@
       <c r="AA15" s="18"/>
       <c r="AB15" s="18"/>
       <c r="AC15" s="18"/>
-    </row>
-    <row r="16" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="13"/>
+      <c r="AU15" s="13"/>
+      <c r="AV15" s="13"/>
+      <c r="AW15" s="13"/>
+      <c r="AX15" s="13"/>
+      <c r="AY15" s="13"/>
+      <c r="AZ15" s="13"/>
+      <c r="BA15" s="13"/>
+      <c r="BB15" s="13"/>
+      <c r="BC15" s="13"/>
+      <c r="BD15" s="13"/>
+      <c r="BE15" s="13"/>
+      <c r="BF15" s="13"/>
+      <c r="BG15" s="13"/>
+      <c r="BH15" s="13"/>
+      <c r="BI15" s="13"/>
+      <c r="BJ15" s="13"/>
+      <c r="BK15" s="13"/>
+      <c r="BL15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="24"/>
       <c r="B16" s="32" t="s">
         <v>27</v>
@@ -2263,8 +2880,43 @@
       <c r="AA16" s="18"/>
       <c r="AB16" s="18"/>
       <c r="AC16" s="18"/>
-    </row>
-    <row r="17" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="13"/>
+      <c r="AU16" s="13"/>
+      <c r="AV16" s="13"/>
+      <c r="AW16" s="13"/>
+      <c r="AX16" s="13"/>
+      <c r="AY16" s="13"/>
+      <c r="AZ16" s="13"/>
+      <c r="BA16" s="13"/>
+      <c r="BB16" s="13"/>
+      <c r="BC16" s="13"/>
+      <c r="BD16" s="13"/>
+      <c r="BE16" s="13"/>
+      <c r="BF16" s="13"/>
+      <c r="BG16" s="13"/>
+      <c r="BH16" s="13"/>
+      <c r="BI16" s="13"/>
+      <c r="BJ16" s="13"/>
+      <c r="BK16" s="13"/>
+      <c r="BL16" s="13"/>
+    </row>
+    <row r="17" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="24"/>
       <c r="B17" s="32" t="s">
         <v>30</v>
@@ -2312,8 +2964,43 @@
       <c r="AA17" s="18"/>
       <c r="AB17" s="18"/>
       <c r="AC17" s="18"/>
-    </row>
-    <row r="18" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="13"/>
+      <c r="AL17" s="13"/>
+      <c r="AM17" s="13"/>
+      <c r="AN17" s="13"/>
+      <c r="AO17" s="13"/>
+      <c r="AP17" s="13"/>
+      <c r="AQ17" s="13"/>
+      <c r="AR17" s="13"/>
+      <c r="AS17" s="13"/>
+      <c r="AT17" s="13"/>
+      <c r="AU17" s="13"/>
+      <c r="AV17" s="13"/>
+      <c r="AW17" s="13"/>
+      <c r="AX17" s="13"/>
+      <c r="AY17" s="13"/>
+      <c r="AZ17" s="13"/>
+      <c r="BA17" s="13"/>
+      <c r="BB17" s="13"/>
+      <c r="BC17" s="13"/>
+      <c r="BD17" s="13"/>
+      <c r="BE17" s="13"/>
+      <c r="BF17" s="13"/>
+      <c r="BG17" s="13"/>
+      <c r="BH17" s="13"/>
+      <c r="BI17" s="13"/>
+      <c r="BJ17" s="13"/>
+      <c r="BK17" s="13"/>
+      <c r="BL17" s="13"/>
+    </row>
+    <row r="18" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="24"/>
       <c r="B18" s="25" t="s">
         <v>31</v>
@@ -2361,8 +3048,43 @@
       <c r="AA18" s="18"/>
       <c r="AB18" s="18"/>
       <c r="AC18" s="18"/>
-    </row>
-    <row r="19" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="13"/>
+      <c r="AL18" s="13"/>
+      <c r="AM18" s="13"/>
+      <c r="AN18" s="13"/>
+      <c r="AO18" s="13"/>
+      <c r="AP18" s="13"/>
+      <c r="AQ18" s="13"/>
+      <c r="AR18" s="13"/>
+      <c r="AS18" s="13"/>
+      <c r="AT18" s="13"/>
+      <c r="AU18" s="13"/>
+      <c r="AV18" s="13"/>
+      <c r="AW18" s="13"/>
+      <c r="AX18" s="13"/>
+      <c r="AY18" s="13"/>
+      <c r="AZ18" s="13"/>
+      <c r="BA18" s="13"/>
+      <c r="BB18" s="13"/>
+      <c r="BC18" s="13"/>
+      <c r="BD18" s="13"/>
+      <c r="BE18" s="13"/>
+      <c r="BF18" s="13"/>
+      <c r="BG18" s="13"/>
+      <c r="BH18" s="13"/>
+      <c r="BI18" s="13"/>
+      <c r="BJ18" s="13"/>
+      <c r="BK18" s="13"/>
+      <c r="BL18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="24"/>
       <c r="B19" s="32" t="s">
         <v>32</v>
@@ -2410,8 +3132,43 @@
       <c r="AA19" s="18"/>
       <c r="AB19" s="18"/>
       <c r="AC19" s="18"/>
-    </row>
-    <row r="20" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="13"/>
+      <c r="AL19" s="13"/>
+      <c r="AM19" s="13"/>
+      <c r="AN19" s="13"/>
+      <c r="AO19" s="13"/>
+      <c r="AP19" s="13"/>
+      <c r="AQ19" s="13"/>
+      <c r="AR19" s="13"/>
+      <c r="AS19" s="13"/>
+      <c r="AT19" s="13"/>
+      <c r="AU19" s="13"/>
+      <c r="AV19" s="13"/>
+      <c r="AW19" s="13"/>
+      <c r="AX19" s="13"/>
+      <c r="AY19" s="13"/>
+      <c r="AZ19" s="13"/>
+      <c r="BA19" s="13"/>
+      <c r="BB19" s="13"/>
+      <c r="BC19" s="13"/>
+      <c r="BD19" s="13"/>
+      <c r="BE19" s="13"/>
+      <c r="BF19" s="13"/>
+      <c r="BG19" s="13"/>
+      <c r="BH19" s="13"/>
+      <c r="BI19" s="13"/>
+      <c r="BJ19" s="13"/>
+      <c r="BK19" s="13"/>
+      <c r="BL19" s="13"/>
+    </row>
+    <row r="20" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="24"/>
       <c r="B20" s="32" t="s">
         <v>33</v>
@@ -2459,8 +3216,43 @@
       <c r="AA20" s="18"/>
       <c r="AB20" s="18"/>
       <c r="AC20" s="18"/>
-    </row>
-    <row r="21" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="13"/>
+      <c r="AL20" s="13"/>
+      <c r="AM20" s="13"/>
+      <c r="AN20" s="13"/>
+      <c r="AO20" s="13"/>
+      <c r="AP20" s="13"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="13"/>
+      <c r="AS20" s="13"/>
+      <c r="AT20" s="13"/>
+      <c r="AU20" s="13"/>
+      <c r="AV20" s="13"/>
+      <c r="AW20" s="13"/>
+      <c r="AX20" s="13"/>
+      <c r="AY20" s="13"/>
+      <c r="AZ20" s="13"/>
+      <c r="BA20" s="13"/>
+      <c r="BB20" s="13"/>
+      <c r="BC20" s="13"/>
+      <c r="BD20" s="13"/>
+      <c r="BE20" s="13"/>
+      <c r="BF20" s="13"/>
+      <c r="BG20" s="13"/>
+      <c r="BH20" s="13"/>
+      <c r="BI20" s="13"/>
+      <c r="BJ20" s="13"/>
+      <c r="BK20" s="13"/>
+      <c r="BL20" s="13"/>
+    </row>
+    <row r="21" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="24"/>
       <c r="B21" s="32" t="s">
         <v>34</v>
@@ -2508,8 +3300,43 @@
       <c r="AA21" s="18"/>
       <c r="AB21" s="18"/>
       <c r="AC21" s="18"/>
-    </row>
-    <row r="22" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="13"/>
+      <c r="AM21" s="13"/>
+      <c r="AN21" s="13"/>
+      <c r="AO21" s="13"/>
+      <c r="AP21" s="13"/>
+      <c r="AQ21" s="13"/>
+      <c r="AR21" s="13"/>
+      <c r="AS21" s="13"/>
+      <c r="AT21" s="13"/>
+      <c r="AU21" s="13"/>
+      <c r="AV21" s="13"/>
+      <c r="AW21" s="13"/>
+      <c r="AX21" s="13"/>
+      <c r="AY21" s="13"/>
+      <c r="AZ21" s="13"/>
+      <c r="BA21" s="13"/>
+      <c r="BB21" s="13"/>
+      <c r="BC21" s="13"/>
+      <c r="BD21" s="13"/>
+      <c r="BE21" s="13"/>
+      <c r="BF21" s="13"/>
+      <c r="BG21" s="13"/>
+      <c r="BH21" s="13"/>
+      <c r="BI21" s="13"/>
+      <c r="BJ21" s="13"/>
+      <c r="BK21" s="13"/>
+      <c r="BL21" s="13"/>
+    </row>
+    <row r="22" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="24"/>
       <c r="B22" s="25" t="s">
         <v>35</v>
@@ -2559,8 +3386,43 @@
       <c r="AA22" s="18"/>
       <c r="AB22" s="18"/>
       <c r="AC22" s="18"/>
-    </row>
-    <row r="23" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="13"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="13"/>
+      <c r="AS22" s="13"/>
+      <c r="AT22" s="13"/>
+      <c r="AU22" s="13"/>
+      <c r="AV22" s="13"/>
+      <c r="AW22" s="13"/>
+      <c r="AX22" s="13"/>
+      <c r="AY22" s="13"/>
+      <c r="AZ22" s="13"/>
+      <c r="BA22" s="13"/>
+      <c r="BB22" s="13"/>
+      <c r="BC22" s="13"/>
+      <c r="BD22" s="13"/>
+      <c r="BE22" s="13"/>
+      <c r="BF22" s="13"/>
+      <c r="BG22" s="13"/>
+      <c r="BH22" s="13"/>
+      <c r="BI22" s="13"/>
+      <c r="BJ22" s="13"/>
+      <c r="BK22" s="13"/>
+      <c r="BL22" s="13"/>
+    </row>
+    <row r="23" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="24"/>
       <c r="B23" s="25" t="s">
         <v>37</v>
@@ -2610,8 +3472,43 @@
       <c r="AA23" s="18"/>
       <c r="AB23" s="18"/>
       <c r="AC23" s="18"/>
-    </row>
-    <row r="24" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="13"/>
+      <c r="AK23" s="13"/>
+      <c r="AL23" s="13"/>
+      <c r="AM23" s="13"/>
+      <c r="AN23" s="13"/>
+      <c r="AO23" s="13"/>
+      <c r="AP23" s="13"/>
+      <c r="AQ23" s="13"/>
+      <c r="AR23" s="13"/>
+      <c r="AS23" s="13"/>
+      <c r="AT23" s="13"/>
+      <c r="AU23" s="13"/>
+      <c r="AV23" s="13"/>
+      <c r="AW23" s="13"/>
+      <c r="AX23" s="13"/>
+      <c r="AY23" s="13"/>
+      <c r="AZ23" s="13"/>
+      <c r="BA23" s="13"/>
+      <c r="BB23" s="13"/>
+      <c r="BC23" s="13"/>
+      <c r="BD23" s="13"/>
+      <c r="BE23" s="13"/>
+      <c r="BF23" s="13"/>
+      <c r="BG23" s="13"/>
+      <c r="BH23" s="13"/>
+      <c r="BI23" s="13"/>
+      <c r="BJ23" s="13"/>
+      <c r="BK23" s="13"/>
+      <c r="BL23" s="13"/>
+    </row>
+    <row r="24" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="24"/>
       <c r="B24" s="32" t="s">
         <v>39</v>
@@ -2659,8 +3556,43 @@
       <c r="AA24" s="18"/>
       <c r="AB24" s="18"/>
       <c r="AC24" s="18"/>
-    </row>
-    <row r="25" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="13"/>
+      <c r="AJ24" s="13"/>
+      <c r="AK24" s="13"/>
+      <c r="AL24" s="13"/>
+      <c r="AM24" s="13"/>
+      <c r="AN24" s="13"/>
+      <c r="AO24" s="13"/>
+      <c r="AP24" s="13"/>
+      <c r="AQ24" s="13"/>
+      <c r="AR24" s="13"/>
+      <c r="AS24" s="13"/>
+      <c r="AT24" s="13"/>
+      <c r="AU24" s="13"/>
+      <c r="AV24" s="13"/>
+      <c r="AW24" s="13"/>
+      <c r="AX24" s="13"/>
+      <c r="AY24" s="13"/>
+      <c r="AZ24" s="13"/>
+      <c r="BA24" s="13"/>
+      <c r="BB24" s="13"/>
+      <c r="BC24" s="13"/>
+      <c r="BD24" s="13"/>
+      <c r="BE24" s="13"/>
+      <c r="BF24" s="13"/>
+      <c r="BG24" s="13"/>
+      <c r="BH24" s="13"/>
+      <c r="BI24" s="13"/>
+      <c r="BJ24" s="13"/>
+      <c r="BK24" s="13"/>
+      <c r="BL24" s="13"/>
+    </row>
+    <row r="25" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="24"/>
       <c r="B25" s="33" t="s">
         <v>40</v>
@@ -2703,8 +3635,43 @@
       <c r="AA25" s="18"/>
       <c r="AB25" s="18"/>
       <c r="AC25" s="18"/>
-    </row>
-    <row r="26" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13"/>
+      <c r="AI25" s="13"/>
+      <c r="AJ25" s="13"/>
+      <c r="AK25" s="13"/>
+      <c r="AL25" s="13"/>
+      <c r="AM25" s="13"/>
+      <c r="AN25" s="13"/>
+      <c r="AO25" s="13"/>
+      <c r="AP25" s="13"/>
+      <c r="AQ25" s="13"/>
+      <c r="AR25" s="13"/>
+      <c r="AS25" s="13"/>
+      <c r="AT25" s="13"/>
+      <c r="AU25" s="13"/>
+      <c r="AV25" s="13"/>
+      <c r="AW25" s="13"/>
+      <c r="AX25" s="13"/>
+      <c r="AY25" s="13"/>
+      <c r="AZ25" s="13"/>
+      <c r="BA25" s="13"/>
+      <c r="BB25" s="13"/>
+      <c r="BC25" s="13"/>
+      <c r="BD25" s="13"/>
+      <c r="BE25" s="13"/>
+      <c r="BF25" s="13"/>
+      <c r="BG25" s="13"/>
+      <c r="BH25" s="13"/>
+      <c r="BI25" s="13"/>
+      <c r="BJ25" s="13"/>
+      <c r="BK25" s="13"/>
+      <c r="BL25" s="13"/>
+    </row>
+    <row r="26" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="24"/>
       <c r="B26" s="33" t="s">
         <v>41</v>
@@ -2747,8 +3714,43 @@
       <c r="AA26" s="18"/>
       <c r="AB26" s="18"/>
       <c r="AC26" s="18"/>
-    </row>
-    <row r="27" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="13"/>
+      <c r="AI26" s="13"/>
+      <c r="AJ26" s="13"/>
+      <c r="AK26" s="13"/>
+      <c r="AL26" s="13"/>
+      <c r="AM26" s="13"/>
+      <c r="AN26" s="13"/>
+      <c r="AO26" s="13"/>
+      <c r="AP26" s="13"/>
+      <c r="AQ26" s="13"/>
+      <c r="AR26" s="13"/>
+      <c r="AS26" s="13"/>
+      <c r="AT26" s="13"/>
+      <c r="AU26" s="13"/>
+      <c r="AV26" s="13"/>
+      <c r="AW26" s="13"/>
+      <c r="AX26" s="13"/>
+      <c r="AY26" s="13"/>
+      <c r="AZ26" s="13"/>
+      <c r="BA26" s="13"/>
+      <c r="BB26" s="13"/>
+      <c r="BC26" s="13"/>
+      <c r="BD26" s="13"/>
+      <c r="BE26" s="13"/>
+      <c r="BF26" s="13"/>
+      <c r="BG26" s="13"/>
+      <c r="BH26" s="13"/>
+      <c r="BI26" s="13"/>
+      <c r="BJ26" s="13"/>
+      <c r="BK26" s="13"/>
+      <c r="BL26" s="13"/>
+    </row>
+    <row r="27" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="24"/>
       <c r="B27" s="33" t="s">
         <v>42</v>
@@ -2792,8 +3794,43 @@
       <c r="AA27" s="18"/>
       <c r="AB27" s="18"/>
       <c r="AC27" s="18"/>
-    </row>
-    <row r="28" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="13"/>
+      <c r="AI27" s="13"/>
+      <c r="AJ27" s="13"/>
+      <c r="AK27" s="13"/>
+      <c r="AL27" s="13"/>
+      <c r="AM27" s="13"/>
+      <c r="AN27" s="13"/>
+      <c r="AO27" s="13"/>
+      <c r="AP27" s="13"/>
+      <c r="AQ27" s="13"/>
+      <c r="AR27" s="13"/>
+      <c r="AS27" s="13"/>
+      <c r="AT27" s="13"/>
+      <c r="AU27" s="13"/>
+      <c r="AV27" s="13"/>
+      <c r="AW27" s="13"/>
+      <c r="AX27" s="13"/>
+      <c r="AY27" s="13"/>
+      <c r="AZ27" s="13"/>
+      <c r="BA27" s="13"/>
+      <c r="BB27" s="13"/>
+      <c r="BC27" s="13"/>
+      <c r="BD27" s="13"/>
+      <c r="BE27" s="13"/>
+      <c r="BF27" s="13"/>
+      <c r="BG27" s="13"/>
+      <c r="BH27" s="13"/>
+      <c r="BI27" s="13"/>
+      <c r="BJ27" s="13"/>
+      <c r="BK27" s="13"/>
+      <c r="BL27" s="13"/>
+    </row>
+    <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="24"/>
       <c r="B28" s="31" t="s">
         <v>44</v>
@@ -2835,8 +3872,43 @@
       <c r="AA28" s="18"/>
       <c r="AB28" s="18"/>
       <c r="AC28" s="18"/>
-    </row>
-    <row r="29" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="13"/>
+      <c r="AI28" s="13"/>
+      <c r="AJ28" s="13"/>
+      <c r="AK28" s="13"/>
+      <c r="AL28" s="13"/>
+      <c r="AM28" s="13"/>
+      <c r="AN28" s="13"/>
+      <c r="AO28" s="13"/>
+      <c r="AP28" s="13"/>
+      <c r="AQ28" s="13"/>
+      <c r="AR28" s="13"/>
+      <c r="AS28" s="13"/>
+      <c r="AT28" s="13"/>
+      <c r="AU28" s="13"/>
+      <c r="AV28" s="13"/>
+      <c r="AW28" s="13"/>
+      <c r="AX28" s="13"/>
+      <c r="AY28" s="13"/>
+      <c r="AZ28" s="13"/>
+      <c r="BA28" s="13"/>
+      <c r="BB28" s="13"/>
+      <c r="BC28" s="13"/>
+      <c r="BD28" s="13"/>
+      <c r="BE28" s="13"/>
+      <c r="BF28" s="13"/>
+      <c r="BG28" s="13"/>
+      <c r="BH28" s="13"/>
+      <c r="BI28" s="13"/>
+      <c r="BJ28" s="13"/>
+      <c r="BK28" s="13"/>
+      <c r="BL28" s="13"/>
+    </row>
+    <row r="29" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="35" t="n">
         <f aca="false">SUM(F5:F29)</f>
         <v>416.46</v>
@@ -2875,8 +3947,43 @@
       <c r="AA29" s="18"/>
       <c r="AB29" s="18"/>
       <c r="AC29" s="18"/>
-    </row>
-    <row r="30" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="13"/>
+      <c r="AI29" s="13"/>
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="13"/>
+      <c r="AL29" s="13"/>
+      <c r="AM29" s="13"/>
+      <c r="AN29" s="13"/>
+      <c r="AO29" s="13"/>
+      <c r="AP29" s="13"/>
+      <c r="AQ29" s="13"/>
+      <c r="AR29" s="13"/>
+      <c r="AS29" s="13"/>
+      <c r="AT29" s="13"/>
+      <c r="AU29" s="13"/>
+      <c r="AV29" s="13"/>
+      <c r="AW29" s="13"/>
+      <c r="AX29" s="13"/>
+      <c r="AY29" s="13"/>
+      <c r="AZ29" s="13"/>
+      <c r="BA29" s="13"/>
+      <c r="BB29" s="13"/>
+      <c r="BC29" s="13"/>
+      <c r="BD29" s="13"/>
+      <c r="BE29" s="13"/>
+      <c r="BF29" s="13"/>
+      <c r="BG29" s="13"/>
+      <c r="BH29" s="13"/>
+      <c r="BI29" s="13"/>
+      <c r="BJ29" s="13"/>
+      <c r="BK29" s="13"/>
+      <c r="BL29" s="13"/>
+    </row>
+    <row r="30" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
         <v>45</v>
       </c>
@@ -2928,8 +4035,43 @@
       <c r="AA30" s="18"/>
       <c r="AB30" s="18"/>
       <c r="AC30" s="18"/>
-    </row>
-    <row r="31" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="13"/>
+      <c r="AI30" s="13"/>
+      <c r="AJ30" s="13"/>
+      <c r="AK30" s="13"/>
+      <c r="AL30" s="13"/>
+      <c r="AM30" s="13"/>
+      <c r="AN30" s="13"/>
+      <c r="AO30" s="13"/>
+      <c r="AP30" s="13"/>
+      <c r="AQ30" s="13"/>
+      <c r="AR30" s="13"/>
+      <c r="AS30" s="13"/>
+      <c r="AT30" s="13"/>
+      <c r="AU30" s="13"/>
+      <c r="AV30" s="13"/>
+      <c r="AW30" s="13"/>
+      <c r="AX30" s="13"/>
+      <c r="AY30" s="13"/>
+      <c r="AZ30" s="13"/>
+      <c r="BA30" s="13"/>
+      <c r="BB30" s="13"/>
+      <c r="BC30" s="13"/>
+      <c r="BD30" s="13"/>
+      <c r="BE30" s="13"/>
+      <c r="BF30" s="13"/>
+      <c r="BG30" s="13"/>
+      <c r="BH30" s="13"/>
+      <c r="BI30" s="13"/>
+      <c r="BJ30" s="13"/>
+      <c r="BK30" s="13"/>
+      <c r="BL30" s="13"/>
+    </row>
+    <row r="31" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="24"/>
       <c r="B31" s="33" t="s">
         <v>49</v>
@@ -2972,8 +4114,43 @@
       <c r="AA31" s="18"/>
       <c r="AB31" s="18"/>
       <c r="AC31" s="18"/>
-    </row>
-    <row r="32" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="13"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="13"/>
+      <c r="AI31" s="13"/>
+      <c r="AJ31" s="13"/>
+      <c r="AK31" s="13"/>
+      <c r="AL31" s="13"/>
+      <c r="AM31" s="13"/>
+      <c r="AN31" s="13"/>
+      <c r="AO31" s="13"/>
+      <c r="AP31" s="13"/>
+      <c r="AQ31" s="13"/>
+      <c r="AR31" s="13"/>
+      <c r="AS31" s="13"/>
+      <c r="AT31" s="13"/>
+      <c r="AU31" s="13"/>
+      <c r="AV31" s="13"/>
+      <c r="AW31" s="13"/>
+      <c r="AX31" s="13"/>
+      <c r="AY31" s="13"/>
+      <c r="AZ31" s="13"/>
+      <c r="BA31" s="13"/>
+      <c r="BB31" s="13"/>
+      <c r="BC31" s="13"/>
+      <c r="BD31" s="13"/>
+      <c r="BE31" s="13"/>
+      <c r="BF31" s="13"/>
+      <c r="BG31" s="13"/>
+      <c r="BH31" s="13"/>
+      <c r="BI31" s="13"/>
+      <c r="BJ31" s="13"/>
+      <c r="BK31" s="13"/>
+      <c r="BL31" s="13"/>
+    </row>
+    <row r="32" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="24"/>
       <c r="B32" s="33" t="s">
         <v>49</v>
@@ -3016,8 +4193,43 @@
       <c r="AA32" s="18"/>
       <c r="AB32" s="18"/>
       <c r="AC32" s="18"/>
-    </row>
-    <row r="33" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="13"/>
+      <c r="AI32" s="13"/>
+      <c r="AJ32" s="13"/>
+      <c r="AK32" s="13"/>
+      <c r="AL32" s="13"/>
+      <c r="AM32" s="13"/>
+      <c r="AN32" s="13"/>
+      <c r="AO32" s="13"/>
+      <c r="AP32" s="13"/>
+      <c r="AQ32" s="13"/>
+      <c r="AR32" s="13"/>
+      <c r="AS32" s="13"/>
+      <c r="AT32" s="13"/>
+      <c r="AU32" s="13"/>
+      <c r="AV32" s="13"/>
+      <c r="AW32" s="13"/>
+      <c r="AX32" s="13"/>
+      <c r="AY32" s="13"/>
+      <c r="AZ32" s="13"/>
+      <c r="BA32" s="13"/>
+      <c r="BB32" s="13"/>
+      <c r="BC32" s="13"/>
+      <c r="BD32" s="13"/>
+      <c r="BE32" s="13"/>
+      <c r="BF32" s="13"/>
+      <c r="BG32" s="13"/>
+      <c r="BH32" s="13"/>
+      <c r="BI32" s="13"/>
+      <c r="BJ32" s="13"/>
+      <c r="BK32" s="13"/>
+      <c r="BL32" s="13"/>
+    </row>
+    <row r="33" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="24"/>
       <c r="B33" s="25" t="s">
         <v>50</v>
@@ -3067,8 +4279,43 @@
       <c r="AA33" s="18"/>
       <c r="AB33" s="18"/>
       <c r="AC33" s="18"/>
-    </row>
-    <row r="34" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="13"/>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="13"/>
+      <c r="AI33" s="13"/>
+      <c r="AJ33" s="13"/>
+      <c r="AK33" s="13"/>
+      <c r="AL33" s="13"/>
+      <c r="AM33" s="13"/>
+      <c r="AN33" s="13"/>
+      <c r="AO33" s="13"/>
+      <c r="AP33" s="13"/>
+      <c r="AQ33" s="13"/>
+      <c r="AR33" s="13"/>
+      <c r="AS33" s="13"/>
+      <c r="AT33" s="13"/>
+      <c r="AU33" s="13"/>
+      <c r="AV33" s="13"/>
+      <c r="AW33" s="13"/>
+      <c r="AX33" s="13"/>
+      <c r="AY33" s="13"/>
+      <c r="AZ33" s="13"/>
+      <c r="BA33" s="13"/>
+      <c r="BB33" s="13"/>
+      <c r="BC33" s="13"/>
+      <c r="BD33" s="13"/>
+      <c r="BE33" s="13"/>
+      <c r="BF33" s="13"/>
+      <c r="BG33" s="13"/>
+      <c r="BH33" s="13"/>
+      <c r="BI33" s="13"/>
+      <c r="BJ33" s="13"/>
+      <c r="BK33" s="13"/>
+      <c r="BL33" s="13"/>
+    </row>
+    <row r="34" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="24"/>
       <c r="B34" s="33" t="s">
         <v>50</v>
@@ -3111,8 +4358,43 @@
       <c r="AA34" s="18"/>
       <c r="AB34" s="18"/>
       <c r="AC34" s="18"/>
-    </row>
-    <row r="35" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD34" s="13"/>
+      <c r="AE34" s="13"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="13"/>
+      <c r="AI34" s="13"/>
+      <c r="AJ34" s="13"/>
+      <c r="AK34" s="13"/>
+      <c r="AL34" s="13"/>
+      <c r="AM34" s="13"/>
+      <c r="AN34" s="13"/>
+      <c r="AO34" s="13"/>
+      <c r="AP34" s="13"/>
+      <c r="AQ34" s="13"/>
+      <c r="AR34" s="13"/>
+      <c r="AS34" s="13"/>
+      <c r="AT34" s="13"/>
+      <c r="AU34" s="13"/>
+      <c r="AV34" s="13"/>
+      <c r="AW34" s="13"/>
+      <c r="AX34" s="13"/>
+      <c r="AY34" s="13"/>
+      <c r="AZ34" s="13"/>
+      <c r="BA34" s="13"/>
+      <c r="BB34" s="13"/>
+      <c r="BC34" s="13"/>
+      <c r="BD34" s="13"/>
+      <c r="BE34" s="13"/>
+      <c r="BF34" s="13"/>
+      <c r="BG34" s="13"/>
+      <c r="BH34" s="13"/>
+      <c r="BI34" s="13"/>
+      <c r="BJ34" s="13"/>
+      <c r="BK34" s="13"/>
+      <c r="BL34" s="13"/>
+    </row>
+    <row r="35" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="24"/>
       <c r="B35" s="33" t="s">
         <v>50</v>
@@ -3155,8 +4437,43 @@
       <c r="AA35" s="18"/>
       <c r="AB35" s="18"/>
       <c r="AC35" s="18"/>
-    </row>
-    <row r="36" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD35" s="13"/>
+      <c r="AE35" s="13"/>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="13"/>
+      <c r="AI35" s="13"/>
+      <c r="AJ35" s="13"/>
+      <c r="AK35" s="13"/>
+      <c r="AL35" s="13"/>
+      <c r="AM35" s="13"/>
+      <c r="AN35" s="13"/>
+      <c r="AO35" s="13"/>
+      <c r="AP35" s="13"/>
+      <c r="AQ35" s="13"/>
+      <c r="AR35" s="13"/>
+      <c r="AS35" s="13"/>
+      <c r="AT35" s="13"/>
+      <c r="AU35" s="13"/>
+      <c r="AV35" s="13"/>
+      <c r="AW35" s="13"/>
+      <c r="AX35" s="13"/>
+      <c r="AY35" s="13"/>
+      <c r="AZ35" s="13"/>
+      <c r="BA35" s="13"/>
+      <c r="BB35" s="13"/>
+      <c r="BC35" s="13"/>
+      <c r="BD35" s="13"/>
+      <c r="BE35" s="13"/>
+      <c r="BF35" s="13"/>
+      <c r="BG35" s="13"/>
+      <c r="BH35" s="13"/>
+      <c r="BI35" s="13"/>
+      <c r="BJ35" s="13"/>
+      <c r="BK35" s="13"/>
+      <c r="BL35" s="13"/>
+    </row>
+    <row r="36" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="24"/>
       <c r="B36" s="25" t="s">
         <v>52</v>
@@ -3204,8 +4521,43 @@
       <c r="AA36" s="18"/>
       <c r="AB36" s="18"/>
       <c r="AC36" s="18"/>
-    </row>
-    <row r="37" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD36" s="13"/>
+      <c r="AE36" s="13"/>
+      <c r="AF36" s="13"/>
+      <c r="AG36" s="13"/>
+      <c r="AH36" s="13"/>
+      <c r="AI36" s="13"/>
+      <c r="AJ36" s="13"/>
+      <c r="AK36" s="13"/>
+      <c r="AL36" s="13"/>
+      <c r="AM36" s="13"/>
+      <c r="AN36" s="13"/>
+      <c r="AO36" s="13"/>
+      <c r="AP36" s="13"/>
+      <c r="AQ36" s="13"/>
+      <c r="AR36" s="13"/>
+      <c r="AS36" s="13"/>
+      <c r="AT36" s="13"/>
+      <c r="AU36" s="13"/>
+      <c r="AV36" s="13"/>
+      <c r="AW36" s="13"/>
+      <c r="AX36" s="13"/>
+      <c r="AY36" s="13"/>
+      <c r="AZ36" s="13"/>
+      <c r="BA36" s="13"/>
+      <c r="BB36" s="13"/>
+      <c r="BC36" s="13"/>
+      <c r="BD36" s="13"/>
+      <c r="BE36" s="13"/>
+      <c r="BF36" s="13"/>
+      <c r="BG36" s="13"/>
+      <c r="BH36" s="13"/>
+      <c r="BI36" s="13"/>
+      <c r="BJ36" s="13"/>
+      <c r="BK36" s="13"/>
+      <c r="BL36" s="13"/>
+    </row>
+    <row r="37" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="24"/>
       <c r="B37" s="33" t="s">
         <v>52</v>
@@ -3248,8 +4600,43 @@
       <c r="AA37" s="18"/>
       <c r="AB37" s="18"/>
       <c r="AC37" s="18"/>
-    </row>
-    <row r="38" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD37" s="13"/>
+      <c r="AE37" s="13"/>
+      <c r="AF37" s="13"/>
+      <c r="AG37" s="13"/>
+      <c r="AH37" s="13"/>
+      <c r="AI37" s="13"/>
+      <c r="AJ37" s="13"/>
+      <c r="AK37" s="13"/>
+      <c r="AL37" s="13"/>
+      <c r="AM37" s="13"/>
+      <c r="AN37" s="13"/>
+      <c r="AO37" s="13"/>
+      <c r="AP37" s="13"/>
+      <c r="AQ37" s="13"/>
+      <c r="AR37" s="13"/>
+      <c r="AS37" s="13"/>
+      <c r="AT37" s="13"/>
+      <c r="AU37" s="13"/>
+      <c r="AV37" s="13"/>
+      <c r="AW37" s="13"/>
+      <c r="AX37" s="13"/>
+      <c r="AY37" s="13"/>
+      <c r="AZ37" s="13"/>
+      <c r="BA37" s="13"/>
+      <c r="BB37" s="13"/>
+      <c r="BC37" s="13"/>
+      <c r="BD37" s="13"/>
+      <c r="BE37" s="13"/>
+      <c r="BF37" s="13"/>
+      <c r="BG37" s="13"/>
+      <c r="BH37" s="13"/>
+      <c r="BI37" s="13"/>
+      <c r="BJ37" s="13"/>
+      <c r="BK37" s="13"/>
+      <c r="BL37" s="13"/>
+    </row>
+    <row r="38" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="24"/>
       <c r="B38" s="25" t="s">
         <v>53</v>
@@ -3297,8 +4684,43 @@
       <c r="AA38" s="18"/>
       <c r="AB38" s="18"/>
       <c r="AC38" s="18"/>
-    </row>
-    <row r="39" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD38" s="13"/>
+      <c r="AE38" s="13"/>
+      <c r="AF38" s="13"/>
+      <c r="AG38" s="13"/>
+      <c r="AH38" s="13"/>
+      <c r="AI38" s="13"/>
+      <c r="AJ38" s="13"/>
+      <c r="AK38" s="13"/>
+      <c r="AL38" s="13"/>
+      <c r="AM38" s="13"/>
+      <c r="AN38" s="13"/>
+      <c r="AO38" s="13"/>
+      <c r="AP38" s="13"/>
+      <c r="AQ38" s="13"/>
+      <c r="AR38" s="13"/>
+      <c r="AS38" s="13"/>
+      <c r="AT38" s="13"/>
+      <c r="AU38" s="13"/>
+      <c r="AV38" s="13"/>
+      <c r="AW38" s="13"/>
+      <c r="AX38" s="13"/>
+      <c r="AY38" s="13"/>
+      <c r="AZ38" s="13"/>
+      <c r="BA38" s="13"/>
+      <c r="BB38" s="13"/>
+      <c r="BC38" s="13"/>
+      <c r="BD38" s="13"/>
+      <c r="BE38" s="13"/>
+      <c r="BF38" s="13"/>
+      <c r="BG38" s="13"/>
+      <c r="BH38" s="13"/>
+      <c r="BI38" s="13"/>
+      <c r="BJ38" s="13"/>
+      <c r="BK38" s="13"/>
+      <c r="BL38" s="13"/>
+    </row>
+    <row r="39" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="24"/>
       <c r="B39" s="33" t="s">
         <v>53</v>
@@ -3341,8 +4763,43 @@
       <c r="AA39" s="18"/>
       <c r="AB39" s="18"/>
       <c r="AC39" s="18"/>
-    </row>
-    <row r="40" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD39" s="13"/>
+      <c r="AE39" s="13"/>
+      <c r="AF39" s="13"/>
+      <c r="AG39" s="13"/>
+      <c r="AH39" s="13"/>
+      <c r="AI39" s="13"/>
+      <c r="AJ39" s="13"/>
+      <c r="AK39" s="13"/>
+      <c r="AL39" s="13"/>
+      <c r="AM39" s="13"/>
+      <c r="AN39" s="13"/>
+      <c r="AO39" s="13"/>
+      <c r="AP39" s="13"/>
+      <c r="AQ39" s="13"/>
+      <c r="AR39" s="13"/>
+      <c r="AS39" s="13"/>
+      <c r="AT39" s="13"/>
+      <c r="AU39" s="13"/>
+      <c r="AV39" s="13"/>
+      <c r="AW39" s="13"/>
+      <c r="AX39" s="13"/>
+      <c r="AY39" s="13"/>
+      <c r="AZ39" s="13"/>
+      <c r="BA39" s="13"/>
+      <c r="BB39" s="13"/>
+      <c r="BC39" s="13"/>
+      <c r="BD39" s="13"/>
+      <c r="BE39" s="13"/>
+      <c r="BF39" s="13"/>
+      <c r="BG39" s="13"/>
+      <c r="BH39" s="13"/>
+      <c r="BI39" s="13"/>
+      <c r="BJ39" s="13"/>
+      <c r="BK39" s="13"/>
+      <c r="BL39" s="13"/>
+    </row>
+    <row r="40" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="24"/>
       <c r="B40" s="25" t="s">
         <v>54</v>
@@ -3392,8 +4849,43 @@
       <c r="AA40" s="18"/>
       <c r="AB40" s="18"/>
       <c r="AC40" s="18"/>
-    </row>
-    <row r="41" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD40" s="13"/>
+      <c r="AE40" s="13"/>
+      <c r="AF40" s="13"/>
+      <c r="AG40" s="13"/>
+      <c r="AH40" s="13"/>
+      <c r="AI40" s="13"/>
+      <c r="AJ40" s="13"/>
+      <c r="AK40" s="13"/>
+      <c r="AL40" s="13"/>
+      <c r="AM40" s="13"/>
+      <c r="AN40" s="13"/>
+      <c r="AO40" s="13"/>
+      <c r="AP40" s="13"/>
+      <c r="AQ40" s="13"/>
+      <c r="AR40" s="13"/>
+      <c r="AS40" s="13"/>
+      <c r="AT40" s="13"/>
+      <c r="AU40" s="13"/>
+      <c r="AV40" s="13"/>
+      <c r="AW40" s="13"/>
+      <c r="AX40" s="13"/>
+      <c r="AY40" s="13"/>
+      <c r="AZ40" s="13"/>
+      <c r="BA40" s="13"/>
+      <c r="BB40" s="13"/>
+      <c r="BC40" s="13"/>
+      <c r="BD40" s="13"/>
+      <c r="BE40" s="13"/>
+      <c r="BF40" s="13"/>
+      <c r="BG40" s="13"/>
+      <c r="BH40" s="13"/>
+      <c r="BI40" s="13"/>
+      <c r="BJ40" s="13"/>
+      <c r="BK40" s="13"/>
+      <c r="BL40" s="13"/>
+    </row>
+    <row r="41" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="24"/>
       <c r="B41" s="38" t="s">
         <v>55</v>
@@ -3435,8 +4927,43 @@
       <c r="AA41" s="18"/>
       <c r="AB41" s="18"/>
       <c r="AC41" s="18"/>
-    </row>
-    <row r="42" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD41" s="13"/>
+      <c r="AE41" s="13"/>
+      <c r="AF41" s="13"/>
+      <c r="AG41" s="13"/>
+      <c r="AH41" s="13"/>
+      <c r="AI41" s="13"/>
+      <c r="AJ41" s="13"/>
+      <c r="AK41" s="13"/>
+      <c r="AL41" s="13"/>
+      <c r="AM41" s="13"/>
+      <c r="AN41" s="13"/>
+      <c r="AO41" s="13"/>
+      <c r="AP41" s="13"/>
+      <c r="AQ41" s="13"/>
+      <c r="AR41" s="13"/>
+      <c r="AS41" s="13"/>
+      <c r="AT41" s="13"/>
+      <c r="AU41" s="13"/>
+      <c r="AV41" s="13"/>
+      <c r="AW41" s="13"/>
+      <c r="AX41" s="13"/>
+      <c r="AY41" s="13"/>
+      <c r="AZ41" s="13"/>
+      <c r="BA41" s="13"/>
+      <c r="BB41" s="13"/>
+      <c r="BC41" s="13"/>
+      <c r="BD41" s="13"/>
+      <c r="BE41" s="13"/>
+      <c r="BF41" s="13"/>
+      <c r="BG41" s="13"/>
+      <c r="BH41" s="13"/>
+      <c r="BI41" s="13"/>
+      <c r="BJ41" s="13"/>
+      <c r="BK41" s="13"/>
+      <c r="BL41" s="13"/>
+    </row>
+    <row r="42" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="24"/>
       <c r="B42" s="31" t="s">
         <v>58</v>
@@ -3478,8 +5005,43 @@
       <c r="AA42" s="18"/>
       <c r="AB42" s="18"/>
       <c r="AC42" s="18"/>
-    </row>
-    <row r="43" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD42" s="13"/>
+      <c r="AE42" s="13"/>
+      <c r="AF42" s="13"/>
+      <c r="AG42" s="13"/>
+      <c r="AH42" s="13"/>
+      <c r="AI42" s="13"/>
+      <c r="AJ42" s="13"/>
+      <c r="AK42" s="13"/>
+      <c r="AL42" s="13"/>
+      <c r="AM42" s="13"/>
+      <c r="AN42" s="13"/>
+      <c r="AO42" s="13"/>
+      <c r="AP42" s="13"/>
+      <c r="AQ42" s="13"/>
+      <c r="AR42" s="13"/>
+      <c r="AS42" s="13"/>
+      <c r="AT42" s="13"/>
+      <c r="AU42" s="13"/>
+      <c r="AV42" s="13"/>
+      <c r="AW42" s="13"/>
+      <c r="AX42" s="13"/>
+      <c r="AY42" s="13"/>
+      <c r="AZ42" s="13"/>
+      <c r="BA42" s="13"/>
+      <c r="BB42" s="13"/>
+      <c r="BC42" s="13"/>
+      <c r="BD42" s="13"/>
+      <c r="BE42" s="13"/>
+      <c r="BF42" s="13"/>
+      <c r="BG42" s="13"/>
+      <c r="BH42" s="13"/>
+      <c r="BI42" s="13"/>
+      <c r="BJ42" s="13"/>
+      <c r="BK42" s="13"/>
+      <c r="BL42" s="13"/>
+    </row>
+    <row r="43" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="24"/>
       <c r="B43" s="31" t="s">
         <v>59</v>
@@ -3521,8 +5083,43 @@
       <c r="AA43" s="18"/>
       <c r="AB43" s="18"/>
       <c r="AC43" s="18"/>
-    </row>
-    <row r="44" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD43" s="13"/>
+      <c r="AE43" s="13"/>
+      <c r="AF43" s="13"/>
+      <c r="AG43" s="13"/>
+      <c r="AH43" s="13"/>
+      <c r="AI43" s="13"/>
+      <c r="AJ43" s="13"/>
+      <c r="AK43" s="13"/>
+      <c r="AL43" s="13"/>
+      <c r="AM43" s="13"/>
+      <c r="AN43" s="13"/>
+      <c r="AO43" s="13"/>
+      <c r="AP43" s="13"/>
+      <c r="AQ43" s="13"/>
+      <c r="AR43" s="13"/>
+      <c r="AS43" s="13"/>
+      <c r="AT43" s="13"/>
+      <c r="AU43" s="13"/>
+      <c r="AV43" s="13"/>
+      <c r="AW43" s="13"/>
+      <c r="AX43" s="13"/>
+      <c r="AY43" s="13"/>
+      <c r="AZ43" s="13"/>
+      <c r="BA43" s="13"/>
+      <c r="BB43" s="13"/>
+      <c r="BC43" s="13"/>
+      <c r="BD43" s="13"/>
+      <c r="BE43" s="13"/>
+      <c r="BF43" s="13"/>
+      <c r="BG43" s="13"/>
+      <c r="BH43" s="13"/>
+      <c r="BI43" s="13"/>
+      <c r="BJ43" s="13"/>
+      <c r="BK43" s="13"/>
+      <c r="BL43" s="13"/>
+    </row>
+    <row r="44" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="24"/>
       <c r="B44" s="38" t="s">
         <v>60</v>
@@ -3562,8 +5159,43 @@
       <c r="AA44" s="18"/>
       <c r="AB44" s="18"/>
       <c r="AC44" s="18"/>
-    </row>
-    <row r="45" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD44" s="13"/>
+      <c r="AE44" s="13"/>
+      <c r="AF44" s="13"/>
+      <c r="AG44" s="13"/>
+      <c r="AH44" s="13"/>
+      <c r="AI44" s="13"/>
+      <c r="AJ44" s="13"/>
+      <c r="AK44" s="13"/>
+      <c r="AL44" s="13"/>
+      <c r="AM44" s="13"/>
+      <c r="AN44" s="13"/>
+      <c r="AO44" s="13"/>
+      <c r="AP44" s="13"/>
+      <c r="AQ44" s="13"/>
+      <c r="AR44" s="13"/>
+      <c r="AS44" s="13"/>
+      <c r="AT44" s="13"/>
+      <c r="AU44" s="13"/>
+      <c r="AV44" s="13"/>
+      <c r="AW44" s="13"/>
+      <c r="AX44" s="13"/>
+      <c r="AY44" s="13"/>
+      <c r="AZ44" s="13"/>
+      <c r="BA44" s="13"/>
+      <c r="BB44" s="13"/>
+      <c r="BC44" s="13"/>
+      <c r="BD44" s="13"/>
+      <c r="BE44" s="13"/>
+      <c r="BF44" s="13"/>
+      <c r="BG44" s="13"/>
+      <c r="BH44" s="13"/>
+      <c r="BI44" s="13"/>
+      <c r="BJ44" s="13"/>
+      <c r="BK44" s="13"/>
+      <c r="BL44" s="13"/>
+    </row>
+    <row r="45" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="24"/>
       <c r="B45" s="38" t="s">
         <v>61</v>
@@ -3605,8 +5237,43 @@
       <c r="AA45" s="18"/>
       <c r="AB45" s="18"/>
       <c r="AC45" s="18"/>
-    </row>
-    <row r="46" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD45" s="13"/>
+      <c r="AE45" s="13"/>
+      <c r="AF45" s="13"/>
+      <c r="AG45" s="13"/>
+      <c r="AH45" s="13"/>
+      <c r="AI45" s="13"/>
+      <c r="AJ45" s="13"/>
+      <c r="AK45" s="13"/>
+      <c r="AL45" s="13"/>
+      <c r="AM45" s="13"/>
+      <c r="AN45" s="13"/>
+      <c r="AO45" s="13"/>
+      <c r="AP45" s="13"/>
+      <c r="AQ45" s="13"/>
+      <c r="AR45" s="13"/>
+      <c r="AS45" s="13"/>
+      <c r="AT45" s="13"/>
+      <c r="AU45" s="13"/>
+      <c r="AV45" s="13"/>
+      <c r="AW45" s="13"/>
+      <c r="AX45" s="13"/>
+      <c r="AY45" s="13"/>
+      <c r="AZ45" s="13"/>
+      <c r="BA45" s="13"/>
+      <c r="BB45" s="13"/>
+      <c r="BC45" s="13"/>
+      <c r="BD45" s="13"/>
+      <c r="BE45" s="13"/>
+      <c r="BF45" s="13"/>
+      <c r="BG45" s="13"/>
+      <c r="BH45" s="13"/>
+      <c r="BI45" s="13"/>
+      <c r="BJ45" s="13"/>
+      <c r="BK45" s="13"/>
+      <c r="BL45" s="13"/>
+    </row>
+    <row r="46" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="24"/>
       <c r="B46" s="40" t="s">
         <v>63</v>
@@ -3654,8 +5321,43 @@
       <c r="AA46" s="18"/>
       <c r="AB46" s="18"/>
       <c r="AC46" s="18"/>
-    </row>
-    <row r="47" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD46" s="13"/>
+      <c r="AE46" s="13"/>
+      <c r="AF46" s="13"/>
+      <c r="AG46" s="13"/>
+      <c r="AH46" s="13"/>
+      <c r="AI46" s="13"/>
+      <c r="AJ46" s="13"/>
+      <c r="AK46" s="13"/>
+      <c r="AL46" s="13"/>
+      <c r="AM46" s="13"/>
+      <c r="AN46" s="13"/>
+      <c r="AO46" s="13"/>
+      <c r="AP46" s="13"/>
+      <c r="AQ46" s="13"/>
+      <c r="AR46" s="13"/>
+      <c r="AS46" s="13"/>
+      <c r="AT46" s="13"/>
+      <c r="AU46" s="13"/>
+      <c r="AV46" s="13"/>
+      <c r="AW46" s="13"/>
+      <c r="AX46" s="13"/>
+      <c r="AY46" s="13"/>
+      <c r="AZ46" s="13"/>
+      <c r="BA46" s="13"/>
+      <c r="BB46" s="13"/>
+      <c r="BC46" s="13"/>
+      <c r="BD46" s="13"/>
+      <c r="BE46" s="13"/>
+      <c r="BF46" s="13"/>
+      <c r="BG46" s="13"/>
+      <c r="BH46" s="13"/>
+      <c r="BI46" s="13"/>
+      <c r="BJ46" s="13"/>
+      <c r="BK46" s="13"/>
+      <c r="BL46" s="13"/>
+    </row>
+    <row r="47" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="24"/>
       <c r="B47" s="40" t="s">
         <v>65</v>
@@ -3703,8 +5405,43 @@
       <c r="AA47" s="18"/>
       <c r="AB47" s="18"/>
       <c r="AC47" s="18"/>
-    </row>
-    <row r="48" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD47" s="13"/>
+      <c r="AE47" s="13"/>
+      <c r="AF47" s="13"/>
+      <c r="AG47" s="13"/>
+      <c r="AH47" s="13"/>
+      <c r="AI47" s="13"/>
+      <c r="AJ47" s="13"/>
+      <c r="AK47" s="13"/>
+      <c r="AL47" s="13"/>
+      <c r="AM47" s="13"/>
+      <c r="AN47" s="13"/>
+      <c r="AO47" s="13"/>
+      <c r="AP47" s="13"/>
+      <c r="AQ47" s="13"/>
+      <c r="AR47" s="13"/>
+      <c r="AS47" s="13"/>
+      <c r="AT47" s="13"/>
+      <c r="AU47" s="13"/>
+      <c r="AV47" s="13"/>
+      <c r="AW47" s="13"/>
+      <c r="AX47" s="13"/>
+      <c r="AY47" s="13"/>
+      <c r="AZ47" s="13"/>
+      <c r="BA47" s="13"/>
+      <c r="BB47" s="13"/>
+      <c r="BC47" s="13"/>
+      <c r="BD47" s="13"/>
+      <c r="BE47" s="13"/>
+      <c r="BF47" s="13"/>
+      <c r="BG47" s="13"/>
+      <c r="BH47" s="13"/>
+      <c r="BI47" s="13"/>
+      <c r="BJ47" s="13"/>
+      <c r="BK47" s="13"/>
+      <c r="BL47" s="13"/>
+    </row>
+    <row r="48" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="24"/>
       <c r="B48" s="40" t="s">
         <v>66</v>
@@ -3752,8 +5489,43 @@
       <c r="AA48" s="18"/>
       <c r="AB48" s="18"/>
       <c r="AC48" s="18"/>
-    </row>
-    <row r="49" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD48" s="13"/>
+      <c r="AE48" s="13"/>
+      <c r="AF48" s="13"/>
+      <c r="AG48" s="13"/>
+      <c r="AH48" s="13"/>
+      <c r="AI48" s="13"/>
+      <c r="AJ48" s="13"/>
+      <c r="AK48" s="13"/>
+      <c r="AL48" s="13"/>
+      <c r="AM48" s="13"/>
+      <c r="AN48" s="13"/>
+      <c r="AO48" s="13"/>
+      <c r="AP48" s="13"/>
+      <c r="AQ48" s="13"/>
+      <c r="AR48" s="13"/>
+      <c r="AS48" s="13"/>
+      <c r="AT48" s="13"/>
+      <c r="AU48" s="13"/>
+      <c r="AV48" s="13"/>
+      <c r="AW48" s="13"/>
+      <c r="AX48" s="13"/>
+      <c r="AY48" s="13"/>
+      <c r="AZ48" s="13"/>
+      <c r="BA48" s="13"/>
+      <c r="BB48" s="13"/>
+      <c r="BC48" s="13"/>
+      <c r="BD48" s="13"/>
+      <c r="BE48" s="13"/>
+      <c r="BF48" s="13"/>
+      <c r="BG48" s="13"/>
+      <c r="BH48" s="13"/>
+      <c r="BI48" s="13"/>
+      <c r="BJ48" s="13"/>
+      <c r="BK48" s="13"/>
+      <c r="BL48" s="13"/>
+    </row>
+    <row r="49" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="24"/>
       <c r="B49" s="41" t="s">
         <v>67</v>
@@ -3795,8 +5567,43 @@
       <c r="AA49" s="18"/>
       <c r="AB49" s="18"/>
       <c r="AC49" s="18"/>
-    </row>
-    <row r="50" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD49" s="13"/>
+      <c r="AE49" s="13"/>
+      <c r="AF49" s="13"/>
+      <c r="AG49" s="13"/>
+      <c r="AH49" s="13"/>
+      <c r="AI49" s="13"/>
+      <c r="AJ49" s="13"/>
+      <c r="AK49" s="13"/>
+      <c r="AL49" s="13"/>
+      <c r="AM49" s="13"/>
+      <c r="AN49" s="13"/>
+      <c r="AO49" s="13"/>
+      <c r="AP49" s="13"/>
+      <c r="AQ49" s="13"/>
+      <c r="AR49" s="13"/>
+      <c r="AS49" s="13"/>
+      <c r="AT49" s="13"/>
+      <c r="AU49" s="13"/>
+      <c r="AV49" s="13"/>
+      <c r="AW49" s="13"/>
+      <c r="AX49" s="13"/>
+      <c r="AY49" s="13"/>
+      <c r="AZ49" s="13"/>
+      <c r="BA49" s="13"/>
+      <c r="BB49" s="13"/>
+      <c r="BC49" s="13"/>
+      <c r="BD49" s="13"/>
+      <c r="BE49" s="13"/>
+      <c r="BF49" s="13"/>
+      <c r="BG49" s="13"/>
+      <c r="BH49" s="13"/>
+      <c r="BI49" s="13"/>
+      <c r="BJ49" s="13"/>
+      <c r="BK49" s="13"/>
+      <c r="BL49" s="13"/>
+    </row>
+    <row r="50" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="24"/>
       <c r="B50" s="42" t="s">
         <v>68</v>
@@ -3839,8 +5646,43 @@
       <c r="AA50" s="18"/>
       <c r="AB50" s="18"/>
       <c r="AC50" s="18"/>
-    </row>
-    <row r="51" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD50" s="13"/>
+      <c r="AE50" s="13"/>
+      <c r="AF50" s="13"/>
+      <c r="AG50" s="13"/>
+      <c r="AH50" s="13"/>
+      <c r="AI50" s="13"/>
+      <c r="AJ50" s="13"/>
+      <c r="AK50" s="13"/>
+      <c r="AL50" s="13"/>
+      <c r="AM50" s="13"/>
+      <c r="AN50" s="13"/>
+      <c r="AO50" s="13"/>
+      <c r="AP50" s="13"/>
+      <c r="AQ50" s="13"/>
+      <c r="AR50" s="13"/>
+      <c r="AS50" s="13"/>
+      <c r="AT50" s="13"/>
+      <c r="AU50" s="13"/>
+      <c r="AV50" s="13"/>
+      <c r="AW50" s="13"/>
+      <c r="AX50" s="13"/>
+      <c r="AY50" s="13"/>
+      <c r="AZ50" s="13"/>
+      <c r="BA50" s="13"/>
+      <c r="BB50" s="13"/>
+      <c r="BC50" s="13"/>
+      <c r="BD50" s="13"/>
+      <c r="BE50" s="13"/>
+      <c r="BF50" s="13"/>
+      <c r="BG50" s="13"/>
+      <c r="BH50" s="13"/>
+      <c r="BI50" s="13"/>
+      <c r="BJ50" s="13"/>
+      <c r="BK50" s="13"/>
+      <c r="BL50" s="13"/>
+    </row>
+    <row r="51" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="24"/>
       <c r="B51" s="25" t="s">
         <v>69</v>
@@ -3889,8 +5731,43 @@
       <c r="AA51" s="18"/>
       <c r="AB51" s="18"/>
       <c r="AC51" s="18"/>
-    </row>
-    <row r="52" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD51" s="13"/>
+      <c r="AE51" s="13"/>
+      <c r="AF51" s="13"/>
+      <c r="AG51" s="13"/>
+      <c r="AH51" s="13"/>
+      <c r="AI51" s="13"/>
+      <c r="AJ51" s="13"/>
+      <c r="AK51" s="13"/>
+      <c r="AL51" s="13"/>
+      <c r="AM51" s="13"/>
+      <c r="AN51" s="13"/>
+      <c r="AO51" s="13"/>
+      <c r="AP51" s="13"/>
+      <c r="AQ51" s="13"/>
+      <c r="AR51" s="13"/>
+      <c r="AS51" s="13"/>
+      <c r="AT51" s="13"/>
+      <c r="AU51" s="13"/>
+      <c r="AV51" s="13"/>
+      <c r="AW51" s="13"/>
+      <c r="AX51" s="13"/>
+      <c r="AY51" s="13"/>
+      <c r="AZ51" s="13"/>
+      <c r="BA51" s="13"/>
+      <c r="BB51" s="13"/>
+      <c r="BC51" s="13"/>
+      <c r="BD51" s="13"/>
+      <c r="BE51" s="13"/>
+      <c r="BF51" s="13"/>
+      <c r="BG51" s="13"/>
+      <c r="BH51" s="13"/>
+      <c r="BI51" s="13"/>
+      <c r="BJ51" s="13"/>
+      <c r="BK51" s="13"/>
+      <c r="BL51" s="13"/>
+    </row>
+    <row r="52" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="24"/>
       <c r="B52" s="25" t="s">
         <v>71</v>
@@ -3933,8 +5810,43 @@
       <c r="AA52" s="18"/>
       <c r="AB52" s="18"/>
       <c r="AC52" s="18"/>
-    </row>
-    <row r="53" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD52" s="13"/>
+      <c r="AE52" s="13"/>
+      <c r="AF52" s="13"/>
+      <c r="AG52" s="13"/>
+      <c r="AH52" s="13"/>
+      <c r="AI52" s="13"/>
+      <c r="AJ52" s="13"/>
+      <c r="AK52" s="13"/>
+      <c r="AL52" s="13"/>
+      <c r="AM52" s="13"/>
+      <c r="AN52" s="13"/>
+      <c r="AO52" s="13"/>
+      <c r="AP52" s="13"/>
+      <c r="AQ52" s="13"/>
+      <c r="AR52" s="13"/>
+      <c r="AS52" s="13"/>
+      <c r="AT52" s="13"/>
+      <c r="AU52" s="13"/>
+      <c r="AV52" s="13"/>
+      <c r="AW52" s="13"/>
+      <c r="AX52" s="13"/>
+      <c r="AY52" s="13"/>
+      <c r="AZ52" s="13"/>
+      <c r="BA52" s="13"/>
+      <c r="BB52" s="13"/>
+      <c r="BC52" s="13"/>
+      <c r="BD52" s="13"/>
+      <c r="BE52" s="13"/>
+      <c r="BF52" s="13"/>
+      <c r="BG52" s="13"/>
+      <c r="BH52" s="13"/>
+      <c r="BI52" s="13"/>
+      <c r="BJ52" s="13"/>
+      <c r="BK52" s="13"/>
+      <c r="BL52" s="13"/>
+    </row>
+    <row r="53" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="24"/>
       <c r="B53" s="25" t="s">
         <v>72</v>
@@ -3978,8 +5890,43 @@
       <c r="AA53" s="18"/>
       <c r="AB53" s="18"/>
       <c r="AC53" s="18"/>
-    </row>
-    <row r="54" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD53" s="13"/>
+      <c r="AE53" s="13"/>
+      <c r="AF53" s="13"/>
+      <c r="AG53" s="13"/>
+      <c r="AH53" s="13"/>
+      <c r="AI53" s="13"/>
+      <c r="AJ53" s="13"/>
+      <c r="AK53" s="13"/>
+      <c r="AL53" s="13"/>
+      <c r="AM53" s="13"/>
+      <c r="AN53" s="13"/>
+      <c r="AO53" s="13"/>
+      <c r="AP53" s="13"/>
+      <c r="AQ53" s="13"/>
+      <c r="AR53" s="13"/>
+      <c r="AS53" s="13"/>
+      <c r="AT53" s="13"/>
+      <c r="AU53" s="13"/>
+      <c r="AV53" s="13"/>
+      <c r="AW53" s="13"/>
+      <c r="AX53" s="13"/>
+      <c r="AY53" s="13"/>
+      <c r="AZ53" s="13"/>
+      <c r="BA53" s="13"/>
+      <c r="BB53" s="13"/>
+      <c r="BC53" s="13"/>
+      <c r="BD53" s="13"/>
+      <c r="BE53" s="13"/>
+      <c r="BF53" s="13"/>
+      <c r="BG53" s="13"/>
+      <c r="BH53" s="13"/>
+      <c r="BI53" s="13"/>
+      <c r="BJ53" s="13"/>
+      <c r="BK53" s="13"/>
+      <c r="BL53" s="13"/>
+    </row>
+    <row r="54" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="24"/>
       <c r="B54" s="31" t="s">
         <v>73</v>
@@ -4021,8 +5968,43 @@
       <c r="AA54" s="18"/>
       <c r="AB54" s="18"/>
       <c r="AC54" s="18"/>
-    </row>
-    <row r="55" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD54" s="13"/>
+      <c r="AE54" s="13"/>
+      <c r="AF54" s="13"/>
+      <c r="AG54" s="13"/>
+      <c r="AH54" s="13"/>
+      <c r="AI54" s="13"/>
+      <c r="AJ54" s="13"/>
+      <c r="AK54" s="13"/>
+      <c r="AL54" s="13"/>
+      <c r="AM54" s="13"/>
+      <c r="AN54" s="13"/>
+      <c r="AO54" s="13"/>
+      <c r="AP54" s="13"/>
+      <c r="AQ54" s="13"/>
+      <c r="AR54" s="13"/>
+      <c r="AS54" s="13"/>
+      <c r="AT54" s="13"/>
+      <c r="AU54" s="13"/>
+      <c r="AV54" s="13"/>
+      <c r="AW54" s="13"/>
+      <c r="AX54" s="13"/>
+      <c r="AY54" s="13"/>
+      <c r="AZ54" s="13"/>
+      <c r="BA54" s="13"/>
+      <c r="BB54" s="13"/>
+      <c r="BC54" s="13"/>
+      <c r="BD54" s="13"/>
+      <c r="BE54" s="13"/>
+      <c r="BF54" s="13"/>
+      <c r="BG54" s="13"/>
+      <c r="BH54" s="13"/>
+      <c r="BI54" s="13"/>
+      <c r="BJ54" s="13"/>
+      <c r="BK54" s="13"/>
+      <c r="BL54" s="13"/>
+    </row>
+    <row r="55" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="24"/>
       <c r="B55" s="31" t="s">
         <v>74</v>
@@ -4066,8 +6048,43 @@
       <c r="AA55" s="18"/>
       <c r="AB55" s="18"/>
       <c r="AC55" s="18"/>
-    </row>
-    <row r="56" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD55" s="13"/>
+      <c r="AE55" s="13"/>
+      <c r="AF55" s="13"/>
+      <c r="AG55" s="13"/>
+      <c r="AH55" s="13"/>
+      <c r="AI55" s="13"/>
+      <c r="AJ55" s="13"/>
+      <c r="AK55" s="13"/>
+      <c r="AL55" s="13"/>
+      <c r="AM55" s="13"/>
+      <c r="AN55" s="13"/>
+      <c r="AO55" s="13"/>
+      <c r="AP55" s="13"/>
+      <c r="AQ55" s="13"/>
+      <c r="AR55" s="13"/>
+      <c r="AS55" s="13"/>
+      <c r="AT55" s="13"/>
+      <c r="AU55" s="13"/>
+      <c r="AV55" s="13"/>
+      <c r="AW55" s="13"/>
+      <c r="AX55" s="13"/>
+      <c r="AY55" s="13"/>
+      <c r="AZ55" s="13"/>
+      <c r="BA55" s="13"/>
+      <c r="BB55" s="13"/>
+      <c r="BC55" s="13"/>
+      <c r="BD55" s="13"/>
+      <c r="BE55" s="13"/>
+      <c r="BF55" s="13"/>
+      <c r="BG55" s="13"/>
+      <c r="BH55" s="13"/>
+      <c r="BI55" s="13"/>
+      <c r="BJ55" s="13"/>
+      <c r="BK55" s="13"/>
+      <c r="BL55" s="13"/>
+    </row>
+    <row r="56" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="24"/>
       <c r="B56" s="33" t="s">
         <v>76</v>
@@ -4112,8 +6129,43 @@
       <c r="AA56" s="18"/>
       <c r="AB56" s="18"/>
       <c r="AC56" s="18"/>
-    </row>
-    <row r="57" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD56" s="13"/>
+      <c r="AE56" s="13"/>
+      <c r="AF56" s="13"/>
+      <c r="AG56" s="13"/>
+      <c r="AH56" s="13"/>
+      <c r="AI56" s="13"/>
+      <c r="AJ56" s="13"/>
+      <c r="AK56" s="13"/>
+      <c r="AL56" s="13"/>
+      <c r="AM56" s="13"/>
+      <c r="AN56" s="13"/>
+      <c r="AO56" s="13"/>
+      <c r="AP56" s="13"/>
+      <c r="AQ56" s="13"/>
+      <c r="AR56" s="13"/>
+      <c r="AS56" s="13"/>
+      <c r="AT56" s="13"/>
+      <c r="AU56" s="13"/>
+      <c r="AV56" s="13"/>
+      <c r="AW56" s="13"/>
+      <c r="AX56" s="13"/>
+      <c r="AY56" s="13"/>
+      <c r="AZ56" s="13"/>
+      <c r="BA56" s="13"/>
+      <c r="BB56" s="13"/>
+      <c r="BC56" s="13"/>
+      <c r="BD56" s="13"/>
+      <c r="BE56" s="13"/>
+      <c r="BF56" s="13"/>
+      <c r="BG56" s="13"/>
+      <c r="BH56" s="13"/>
+      <c r="BI56" s="13"/>
+      <c r="BJ56" s="13"/>
+      <c r="BK56" s="13"/>
+      <c r="BL56" s="13"/>
+    </row>
+    <row r="57" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="24"/>
       <c r="B57" s="43" t="s">
         <v>77</v>
@@ -4161,8 +6213,43 @@
       <c r="AA57" s="18"/>
       <c r="AB57" s="18"/>
       <c r="AC57" s="18"/>
-    </row>
-    <row r="58" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD57" s="13"/>
+      <c r="AE57" s="13"/>
+      <c r="AF57" s="13"/>
+      <c r="AG57" s="13"/>
+      <c r="AH57" s="13"/>
+      <c r="AI57" s="13"/>
+      <c r="AJ57" s="13"/>
+      <c r="AK57" s="13"/>
+      <c r="AL57" s="13"/>
+      <c r="AM57" s="13"/>
+      <c r="AN57" s="13"/>
+      <c r="AO57" s="13"/>
+      <c r="AP57" s="13"/>
+      <c r="AQ57" s="13"/>
+      <c r="AR57" s="13"/>
+      <c r="AS57" s="13"/>
+      <c r="AT57" s="13"/>
+      <c r="AU57" s="13"/>
+      <c r="AV57" s="13"/>
+      <c r="AW57" s="13"/>
+      <c r="AX57" s="13"/>
+      <c r="AY57" s="13"/>
+      <c r="AZ57" s="13"/>
+      <c r="BA57" s="13"/>
+      <c r="BB57" s="13"/>
+      <c r="BC57" s="13"/>
+      <c r="BD57" s="13"/>
+      <c r="BE57" s="13"/>
+      <c r="BF57" s="13"/>
+      <c r="BG57" s="13"/>
+      <c r="BH57" s="13"/>
+      <c r="BI57" s="13"/>
+      <c r="BJ57" s="13"/>
+      <c r="BK57" s="13"/>
+      <c r="BL57" s="13"/>
+    </row>
+    <row r="58" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="45" t="n">
         <f aca="false">SUM(F30:F58)</f>
         <v>3240.04</v>
@@ -4201,8 +6288,43 @@
       <c r="AA58" s="18"/>
       <c r="AB58" s="18"/>
       <c r="AC58" s="18"/>
-    </row>
-    <row r="59" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD58" s="13"/>
+      <c r="AE58" s="13"/>
+      <c r="AF58" s="13"/>
+      <c r="AG58" s="13"/>
+      <c r="AH58" s="13"/>
+      <c r="AI58" s="13"/>
+      <c r="AJ58" s="13"/>
+      <c r="AK58" s="13"/>
+      <c r="AL58" s="13"/>
+      <c r="AM58" s="13"/>
+      <c r="AN58" s="13"/>
+      <c r="AO58" s="13"/>
+      <c r="AP58" s="13"/>
+      <c r="AQ58" s="13"/>
+      <c r="AR58" s="13"/>
+      <c r="AS58" s="13"/>
+      <c r="AT58" s="13"/>
+      <c r="AU58" s="13"/>
+      <c r="AV58" s="13"/>
+      <c r="AW58" s="13"/>
+      <c r="AX58" s="13"/>
+      <c r="AY58" s="13"/>
+      <c r="AZ58" s="13"/>
+      <c r="BA58" s="13"/>
+      <c r="BB58" s="13"/>
+      <c r="BC58" s="13"/>
+      <c r="BD58" s="13"/>
+      <c r="BE58" s="13"/>
+      <c r="BF58" s="13"/>
+      <c r="BG58" s="13"/>
+      <c r="BH58" s="13"/>
+      <c r="BI58" s="13"/>
+      <c r="BJ58" s="13"/>
+      <c r="BK58" s="13"/>
+      <c r="BL58" s="13"/>
+    </row>
+    <row r="59" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="24" t="s">
         <v>78</v>
       </c>
@@ -4254,8 +6376,43 @@
       <c r="AA59" s="18"/>
       <c r="AB59" s="18"/>
       <c r="AC59" s="18"/>
-    </row>
-    <row r="60" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD59" s="13"/>
+      <c r="AE59" s="13"/>
+      <c r="AF59" s="13"/>
+      <c r="AG59" s="13"/>
+      <c r="AH59" s="13"/>
+      <c r="AI59" s="13"/>
+      <c r="AJ59" s="13"/>
+      <c r="AK59" s="13"/>
+      <c r="AL59" s="13"/>
+      <c r="AM59" s="13"/>
+      <c r="AN59" s="13"/>
+      <c r="AO59" s="13"/>
+      <c r="AP59" s="13"/>
+      <c r="AQ59" s="13"/>
+      <c r="AR59" s="13"/>
+      <c r="AS59" s="13"/>
+      <c r="AT59" s="13"/>
+      <c r="AU59" s="13"/>
+      <c r="AV59" s="13"/>
+      <c r="AW59" s="13"/>
+      <c r="AX59" s="13"/>
+      <c r="AY59" s="13"/>
+      <c r="AZ59" s="13"/>
+      <c r="BA59" s="13"/>
+      <c r="BB59" s="13"/>
+      <c r="BC59" s="13"/>
+      <c r="BD59" s="13"/>
+      <c r="BE59" s="13"/>
+      <c r="BF59" s="13"/>
+      <c r="BG59" s="13"/>
+      <c r="BH59" s="13"/>
+      <c r="BI59" s="13"/>
+      <c r="BJ59" s="13"/>
+      <c r="BK59" s="13"/>
+      <c r="BL59" s="13"/>
+    </row>
+    <row r="60" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="24"/>
       <c r="B60" s="46" t="s">
         <v>79</v>
@@ -4300,8 +6457,43 @@
       <c r="AA60" s="18"/>
       <c r="AB60" s="18"/>
       <c r="AC60" s="18"/>
-    </row>
-    <row r="61" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD60" s="13"/>
+      <c r="AE60" s="13"/>
+      <c r="AF60" s="13"/>
+      <c r="AG60" s="13"/>
+      <c r="AH60" s="13"/>
+      <c r="AI60" s="13"/>
+      <c r="AJ60" s="13"/>
+      <c r="AK60" s="13"/>
+      <c r="AL60" s="13"/>
+      <c r="AM60" s="13"/>
+      <c r="AN60" s="13"/>
+      <c r="AO60" s="13"/>
+      <c r="AP60" s="13"/>
+      <c r="AQ60" s="13"/>
+      <c r="AR60" s="13"/>
+      <c r="AS60" s="13"/>
+      <c r="AT60" s="13"/>
+      <c r="AU60" s="13"/>
+      <c r="AV60" s="13"/>
+      <c r="AW60" s="13"/>
+      <c r="AX60" s="13"/>
+      <c r="AY60" s="13"/>
+      <c r="AZ60" s="13"/>
+      <c r="BA60" s="13"/>
+      <c r="BB60" s="13"/>
+      <c r="BC60" s="13"/>
+      <c r="BD60" s="13"/>
+      <c r="BE60" s="13"/>
+      <c r="BF60" s="13"/>
+      <c r="BG60" s="13"/>
+      <c r="BH60" s="13"/>
+      <c r="BI60" s="13"/>
+      <c r="BJ60" s="13"/>
+      <c r="BK60" s="13"/>
+      <c r="BL60" s="13"/>
+    </row>
+    <row r="61" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="24"/>
       <c r="B61" s="46" t="s">
         <v>81</v>
@@ -4346,8 +6538,43 @@
       <c r="AA61" s="18"/>
       <c r="AB61" s="18"/>
       <c r="AC61" s="18"/>
-    </row>
-    <row r="62" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD61" s="13"/>
+      <c r="AE61" s="13"/>
+      <c r="AF61" s="13"/>
+      <c r="AG61" s="13"/>
+      <c r="AH61" s="13"/>
+      <c r="AI61" s="13"/>
+      <c r="AJ61" s="13"/>
+      <c r="AK61" s="13"/>
+      <c r="AL61" s="13"/>
+      <c r="AM61" s="13"/>
+      <c r="AN61" s="13"/>
+      <c r="AO61" s="13"/>
+      <c r="AP61" s="13"/>
+      <c r="AQ61" s="13"/>
+      <c r="AR61" s="13"/>
+      <c r="AS61" s="13"/>
+      <c r="AT61" s="13"/>
+      <c r="AU61" s="13"/>
+      <c r="AV61" s="13"/>
+      <c r="AW61" s="13"/>
+      <c r="AX61" s="13"/>
+      <c r="AY61" s="13"/>
+      <c r="AZ61" s="13"/>
+      <c r="BA61" s="13"/>
+      <c r="BB61" s="13"/>
+      <c r="BC61" s="13"/>
+      <c r="BD61" s="13"/>
+      <c r="BE61" s="13"/>
+      <c r="BF61" s="13"/>
+      <c r="BG61" s="13"/>
+      <c r="BH61" s="13"/>
+      <c r="BI61" s="13"/>
+      <c r="BJ61" s="13"/>
+      <c r="BK61" s="13"/>
+      <c r="BL61" s="13"/>
+    </row>
+    <row r="62" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="24"/>
       <c r="B62" s="25" t="s">
         <v>82</v>
@@ -4395,8 +6622,43 @@
       <c r="AA62" s="18"/>
       <c r="AB62" s="18"/>
       <c r="AC62" s="18"/>
-    </row>
-    <row r="63" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD62" s="13"/>
+      <c r="AE62" s="13"/>
+      <c r="AF62" s="13"/>
+      <c r="AG62" s="13"/>
+      <c r="AH62" s="13"/>
+      <c r="AI62" s="13"/>
+      <c r="AJ62" s="13"/>
+      <c r="AK62" s="13"/>
+      <c r="AL62" s="13"/>
+      <c r="AM62" s="13"/>
+      <c r="AN62" s="13"/>
+      <c r="AO62" s="13"/>
+      <c r="AP62" s="13"/>
+      <c r="AQ62" s="13"/>
+      <c r="AR62" s="13"/>
+      <c r="AS62" s="13"/>
+      <c r="AT62" s="13"/>
+      <c r="AU62" s="13"/>
+      <c r="AV62" s="13"/>
+      <c r="AW62" s="13"/>
+      <c r="AX62" s="13"/>
+      <c r="AY62" s="13"/>
+      <c r="AZ62" s="13"/>
+      <c r="BA62" s="13"/>
+      <c r="BB62" s="13"/>
+      <c r="BC62" s="13"/>
+      <c r="BD62" s="13"/>
+      <c r="BE62" s="13"/>
+      <c r="BF62" s="13"/>
+      <c r="BG62" s="13"/>
+      <c r="BH62" s="13"/>
+      <c r="BI62" s="13"/>
+      <c r="BJ62" s="13"/>
+      <c r="BK62" s="13"/>
+      <c r="BL62" s="13"/>
+    </row>
+    <row r="63" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="24"/>
       <c r="B63" s="25" t="s">
         <v>83</v>
@@ -4444,8 +6706,43 @@
       <c r="AA63" s="18"/>
       <c r="AB63" s="18"/>
       <c r="AC63" s="18"/>
-    </row>
-    <row r="64" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD63" s="13"/>
+      <c r="AE63" s="13"/>
+      <c r="AF63" s="13"/>
+      <c r="AG63" s="13"/>
+      <c r="AH63" s="13"/>
+      <c r="AI63" s="13"/>
+      <c r="AJ63" s="13"/>
+      <c r="AK63" s="13"/>
+      <c r="AL63" s="13"/>
+      <c r="AM63" s="13"/>
+      <c r="AN63" s="13"/>
+      <c r="AO63" s="13"/>
+      <c r="AP63" s="13"/>
+      <c r="AQ63" s="13"/>
+      <c r="AR63" s="13"/>
+      <c r="AS63" s="13"/>
+      <c r="AT63" s="13"/>
+      <c r="AU63" s="13"/>
+      <c r="AV63" s="13"/>
+      <c r="AW63" s="13"/>
+      <c r="AX63" s="13"/>
+      <c r="AY63" s="13"/>
+      <c r="AZ63" s="13"/>
+      <c r="BA63" s="13"/>
+      <c r="BB63" s="13"/>
+      <c r="BC63" s="13"/>
+      <c r="BD63" s="13"/>
+      <c r="BE63" s="13"/>
+      <c r="BF63" s="13"/>
+      <c r="BG63" s="13"/>
+      <c r="BH63" s="13"/>
+      <c r="BI63" s="13"/>
+      <c r="BJ63" s="13"/>
+      <c r="BK63" s="13"/>
+      <c r="BL63" s="13"/>
+    </row>
+    <row r="64" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="24"/>
       <c r="B64" s="25" t="s">
         <v>84</v>
@@ -4493,8 +6790,43 @@
       <c r="AA64" s="18"/>
       <c r="AB64" s="18"/>
       <c r="AC64" s="18"/>
-    </row>
-    <row r="65" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD64" s="13"/>
+      <c r="AE64" s="13"/>
+      <c r="AF64" s="13"/>
+      <c r="AG64" s="13"/>
+      <c r="AH64" s="13"/>
+      <c r="AI64" s="13"/>
+      <c r="AJ64" s="13"/>
+      <c r="AK64" s="13"/>
+      <c r="AL64" s="13"/>
+      <c r="AM64" s="13"/>
+      <c r="AN64" s="13"/>
+      <c r="AO64" s="13"/>
+      <c r="AP64" s="13"/>
+      <c r="AQ64" s="13"/>
+      <c r="AR64" s="13"/>
+      <c r="AS64" s="13"/>
+      <c r="AT64" s="13"/>
+      <c r="AU64" s="13"/>
+      <c r="AV64" s="13"/>
+      <c r="AW64" s="13"/>
+      <c r="AX64" s="13"/>
+      <c r="AY64" s="13"/>
+      <c r="AZ64" s="13"/>
+      <c r="BA64" s="13"/>
+      <c r="BB64" s="13"/>
+      <c r="BC64" s="13"/>
+      <c r="BD64" s="13"/>
+      <c r="BE64" s="13"/>
+      <c r="BF64" s="13"/>
+      <c r="BG64" s="13"/>
+      <c r="BH64" s="13"/>
+      <c r="BI64" s="13"/>
+      <c r="BJ64" s="13"/>
+      <c r="BK64" s="13"/>
+      <c r="BL64" s="13"/>
+    </row>
+    <row r="65" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="24"/>
       <c r="B65" s="47" t="s">
         <v>85</v>
@@ -4537,8 +6869,43 @@
       <c r="AA65" s="53"/>
       <c r="AB65" s="53"/>
       <c r="AC65" s="53"/>
-    </row>
-    <row r="66" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD65" s="13"/>
+      <c r="AE65" s="13"/>
+      <c r="AF65" s="13"/>
+      <c r="AG65" s="13"/>
+      <c r="AH65" s="13"/>
+      <c r="AI65" s="13"/>
+      <c r="AJ65" s="13"/>
+      <c r="AK65" s="13"/>
+      <c r="AL65" s="13"/>
+      <c r="AM65" s="13"/>
+      <c r="AN65" s="13"/>
+      <c r="AO65" s="13"/>
+      <c r="AP65" s="13"/>
+      <c r="AQ65" s="13"/>
+      <c r="AR65" s="13"/>
+      <c r="AS65" s="13"/>
+      <c r="AT65" s="13"/>
+      <c r="AU65" s="13"/>
+      <c r="AV65" s="13"/>
+      <c r="AW65" s="13"/>
+      <c r="AX65" s="13"/>
+      <c r="AY65" s="13"/>
+      <c r="AZ65" s="13"/>
+      <c r="BA65" s="13"/>
+      <c r="BB65" s="13"/>
+      <c r="BC65" s="13"/>
+      <c r="BD65" s="13"/>
+      <c r="BE65" s="13"/>
+      <c r="BF65" s="13"/>
+      <c r="BG65" s="13"/>
+      <c r="BH65" s="13"/>
+      <c r="BI65" s="13"/>
+      <c r="BJ65" s="13"/>
+      <c r="BK65" s="13"/>
+      <c r="BL65" s="13"/>
+    </row>
+    <row r="66" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="24"/>
       <c r="B66" s="25" t="s">
         <v>87</v>
@@ -4586,8 +6953,43 @@
       <c r="AA66" s="18"/>
       <c r="AB66" s="18"/>
       <c r="AC66" s="18"/>
-    </row>
-    <row r="67" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD66" s="13"/>
+      <c r="AE66" s="13"/>
+      <c r="AF66" s="13"/>
+      <c r="AG66" s="13"/>
+      <c r="AH66" s="13"/>
+      <c r="AI66" s="13"/>
+      <c r="AJ66" s="13"/>
+      <c r="AK66" s="13"/>
+      <c r="AL66" s="13"/>
+      <c r="AM66" s="13"/>
+      <c r="AN66" s="13"/>
+      <c r="AO66" s="13"/>
+      <c r="AP66" s="13"/>
+      <c r="AQ66" s="13"/>
+      <c r="AR66" s="13"/>
+      <c r="AS66" s="13"/>
+      <c r="AT66" s="13"/>
+      <c r="AU66" s="13"/>
+      <c r="AV66" s="13"/>
+      <c r="AW66" s="13"/>
+      <c r="AX66" s="13"/>
+      <c r="AY66" s="13"/>
+      <c r="AZ66" s="13"/>
+      <c r="BA66" s="13"/>
+      <c r="BB66" s="13"/>
+      <c r="BC66" s="13"/>
+      <c r="BD66" s="13"/>
+      <c r="BE66" s="13"/>
+      <c r="BF66" s="13"/>
+      <c r="BG66" s="13"/>
+      <c r="BH66" s="13"/>
+      <c r="BI66" s="13"/>
+      <c r="BJ66" s="13"/>
+      <c r="BK66" s="13"/>
+      <c r="BL66" s="13"/>
+    </row>
+    <row r="67" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="24"/>
       <c r="B67" s="25" t="s">
         <v>88</v>
@@ -4635,8 +7037,43 @@
       <c r="AA67" s="18"/>
       <c r="AB67" s="18"/>
       <c r="AC67" s="18"/>
-    </row>
-    <row r="68" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD67" s="13"/>
+      <c r="AE67" s="13"/>
+      <c r="AF67" s="13"/>
+      <c r="AG67" s="13"/>
+      <c r="AH67" s="13"/>
+      <c r="AI67" s="13"/>
+      <c r="AJ67" s="13"/>
+      <c r="AK67" s="13"/>
+      <c r="AL67" s="13"/>
+      <c r="AM67" s="13"/>
+      <c r="AN67" s="13"/>
+      <c r="AO67" s="13"/>
+      <c r="AP67" s="13"/>
+      <c r="AQ67" s="13"/>
+      <c r="AR67" s="13"/>
+      <c r="AS67" s="13"/>
+      <c r="AT67" s="13"/>
+      <c r="AU67" s="13"/>
+      <c r="AV67" s="13"/>
+      <c r="AW67" s="13"/>
+      <c r="AX67" s="13"/>
+      <c r="AY67" s="13"/>
+      <c r="AZ67" s="13"/>
+      <c r="BA67" s="13"/>
+      <c r="BB67" s="13"/>
+      <c r="BC67" s="13"/>
+      <c r="BD67" s="13"/>
+      <c r="BE67" s="13"/>
+      <c r="BF67" s="13"/>
+      <c r="BG67" s="13"/>
+      <c r="BH67" s="13"/>
+      <c r="BI67" s="13"/>
+      <c r="BJ67" s="13"/>
+      <c r="BK67" s="13"/>
+      <c r="BL67" s="13"/>
+    </row>
+    <row r="68" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="24"/>
       <c r="B68" s="31" t="s">
         <v>89</v>
@@ -4678,8 +7115,43 @@
       <c r="AA68" s="18"/>
       <c r="AB68" s="18"/>
       <c r="AC68" s="18"/>
-    </row>
-    <row r="69" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD68" s="13"/>
+      <c r="AE68" s="13"/>
+      <c r="AF68" s="13"/>
+      <c r="AG68" s="13"/>
+      <c r="AH68" s="13"/>
+      <c r="AI68" s="13"/>
+      <c r="AJ68" s="13"/>
+      <c r="AK68" s="13"/>
+      <c r="AL68" s="13"/>
+      <c r="AM68" s="13"/>
+      <c r="AN68" s="13"/>
+      <c r="AO68" s="13"/>
+      <c r="AP68" s="13"/>
+      <c r="AQ68" s="13"/>
+      <c r="AR68" s="13"/>
+      <c r="AS68" s="13"/>
+      <c r="AT68" s="13"/>
+      <c r="AU68" s="13"/>
+      <c r="AV68" s="13"/>
+      <c r="AW68" s="13"/>
+      <c r="AX68" s="13"/>
+      <c r="AY68" s="13"/>
+      <c r="AZ68" s="13"/>
+      <c r="BA68" s="13"/>
+      <c r="BB68" s="13"/>
+      <c r="BC68" s="13"/>
+      <c r="BD68" s="13"/>
+      <c r="BE68" s="13"/>
+      <c r="BF68" s="13"/>
+      <c r="BG68" s="13"/>
+      <c r="BH68" s="13"/>
+      <c r="BI68" s="13"/>
+      <c r="BJ68" s="13"/>
+      <c r="BK68" s="13"/>
+      <c r="BL68" s="13"/>
+    </row>
+    <row r="69" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="24"/>
       <c r="B69" s="25" t="s">
         <v>90</v>
@@ -4727,8 +7199,43 @@
       <c r="AA69" s="18"/>
       <c r="AB69" s="18"/>
       <c r="AC69" s="18"/>
-    </row>
-    <row r="70" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD69" s="13"/>
+      <c r="AE69" s="13"/>
+      <c r="AF69" s="13"/>
+      <c r="AG69" s="13"/>
+      <c r="AH69" s="13"/>
+      <c r="AI69" s="13"/>
+      <c r="AJ69" s="13"/>
+      <c r="AK69" s="13"/>
+      <c r="AL69" s="13"/>
+      <c r="AM69" s="13"/>
+      <c r="AN69" s="13"/>
+      <c r="AO69" s="13"/>
+      <c r="AP69" s="13"/>
+      <c r="AQ69" s="13"/>
+      <c r="AR69" s="13"/>
+      <c r="AS69" s="13"/>
+      <c r="AT69" s="13"/>
+      <c r="AU69" s="13"/>
+      <c r="AV69" s="13"/>
+      <c r="AW69" s="13"/>
+      <c r="AX69" s="13"/>
+      <c r="AY69" s="13"/>
+      <c r="AZ69" s="13"/>
+      <c r="BA69" s="13"/>
+      <c r="BB69" s="13"/>
+      <c r="BC69" s="13"/>
+      <c r="BD69" s="13"/>
+      <c r="BE69" s="13"/>
+      <c r="BF69" s="13"/>
+      <c r="BG69" s="13"/>
+      <c r="BH69" s="13"/>
+      <c r="BI69" s="13"/>
+      <c r="BJ69" s="13"/>
+      <c r="BK69" s="13"/>
+      <c r="BL69" s="13"/>
+    </row>
+    <row r="70" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="24"/>
       <c r="B70" s="33" t="s">
         <v>91</v>
@@ -4776,8 +7283,43 @@
       <c r="AA70" s="18"/>
       <c r="AB70" s="18"/>
       <c r="AC70" s="18"/>
-    </row>
-    <row r="71" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD70" s="13"/>
+      <c r="AE70" s="13"/>
+      <c r="AF70" s="13"/>
+      <c r="AG70" s="13"/>
+      <c r="AH70" s="13"/>
+      <c r="AI70" s="13"/>
+      <c r="AJ70" s="13"/>
+      <c r="AK70" s="13"/>
+      <c r="AL70" s="13"/>
+      <c r="AM70" s="13"/>
+      <c r="AN70" s="13"/>
+      <c r="AO70" s="13"/>
+      <c r="AP70" s="13"/>
+      <c r="AQ70" s="13"/>
+      <c r="AR70" s="13"/>
+      <c r="AS70" s="13"/>
+      <c r="AT70" s="13"/>
+      <c r="AU70" s="13"/>
+      <c r="AV70" s="13"/>
+      <c r="AW70" s="13"/>
+      <c r="AX70" s="13"/>
+      <c r="AY70" s="13"/>
+      <c r="AZ70" s="13"/>
+      <c r="BA70" s="13"/>
+      <c r="BB70" s="13"/>
+      <c r="BC70" s="13"/>
+      <c r="BD70" s="13"/>
+      <c r="BE70" s="13"/>
+      <c r="BF70" s="13"/>
+      <c r="BG70" s="13"/>
+      <c r="BH70" s="13"/>
+      <c r="BI70" s="13"/>
+      <c r="BJ70" s="13"/>
+      <c r="BK70" s="13"/>
+      <c r="BL70" s="13"/>
+    </row>
+    <row r="71" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="24"/>
       <c r="B71" s="25" t="s">
         <v>92</v>
@@ -4827,8 +7369,43 @@
       <c r="AA71" s="18"/>
       <c r="AB71" s="18"/>
       <c r="AC71" s="18"/>
-    </row>
-    <row r="72" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD71" s="13"/>
+      <c r="AE71" s="13"/>
+      <c r="AF71" s="13"/>
+      <c r="AG71" s="13"/>
+      <c r="AH71" s="13"/>
+      <c r="AI71" s="13"/>
+      <c r="AJ71" s="13"/>
+      <c r="AK71" s="13"/>
+      <c r="AL71" s="13"/>
+      <c r="AM71" s="13"/>
+      <c r="AN71" s="13"/>
+      <c r="AO71" s="13"/>
+      <c r="AP71" s="13"/>
+      <c r="AQ71" s="13"/>
+      <c r="AR71" s="13"/>
+      <c r="AS71" s="13"/>
+      <c r="AT71" s="13"/>
+      <c r="AU71" s="13"/>
+      <c r="AV71" s="13"/>
+      <c r="AW71" s="13"/>
+      <c r="AX71" s="13"/>
+      <c r="AY71" s="13"/>
+      <c r="AZ71" s="13"/>
+      <c r="BA71" s="13"/>
+      <c r="BB71" s="13"/>
+      <c r="BC71" s="13"/>
+      <c r="BD71" s="13"/>
+      <c r="BE71" s="13"/>
+      <c r="BF71" s="13"/>
+      <c r="BG71" s="13"/>
+      <c r="BH71" s="13"/>
+      <c r="BI71" s="13"/>
+      <c r="BJ71" s="13"/>
+      <c r="BK71" s="13"/>
+      <c r="BL71" s="13"/>
+    </row>
+    <row r="72" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="24"/>
       <c r="B72" s="25" t="s">
         <v>92</v>
@@ -4878,8 +7455,43 @@
       <c r="AA72" s="18"/>
       <c r="AB72" s="18"/>
       <c r="AC72" s="18"/>
-    </row>
-    <row r="73" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD72" s="13"/>
+      <c r="AE72" s="13"/>
+      <c r="AF72" s="13"/>
+      <c r="AG72" s="13"/>
+      <c r="AH72" s="13"/>
+      <c r="AI72" s="13"/>
+      <c r="AJ72" s="13"/>
+      <c r="AK72" s="13"/>
+      <c r="AL72" s="13"/>
+      <c r="AM72" s="13"/>
+      <c r="AN72" s="13"/>
+      <c r="AO72" s="13"/>
+      <c r="AP72" s="13"/>
+      <c r="AQ72" s="13"/>
+      <c r="AR72" s="13"/>
+      <c r="AS72" s="13"/>
+      <c r="AT72" s="13"/>
+      <c r="AU72" s="13"/>
+      <c r="AV72" s="13"/>
+      <c r="AW72" s="13"/>
+      <c r="AX72" s="13"/>
+      <c r="AY72" s="13"/>
+      <c r="AZ72" s="13"/>
+      <c r="BA72" s="13"/>
+      <c r="BB72" s="13"/>
+      <c r="BC72" s="13"/>
+      <c r="BD72" s="13"/>
+      <c r="BE72" s="13"/>
+      <c r="BF72" s="13"/>
+      <c r="BG72" s="13"/>
+      <c r="BH72" s="13"/>
+      <c r="BI72" s="13"/>
+      <c r="BJ72" s="13"/>
+      <c r="BK72" s="13"/>
+      <c r="BL72" s="13"/>
+    </row>
+    <row r="73" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="24"/>
       <c r="B73" s="25" t="s">
         <v>95</v>
@@ -4930,8 +7542,43 @@
       <c r="AA73" s="18"/>
       <c r="AB73" s="18"/>
       <c r="AC73" s="18"/>
-    </row>
-    <row r="74" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD73" s="13"/>
+      <c r="AE73" s="13"/>
+      <c r="AF73" s="13"/>
+      <c r="AG73" s="13"/>
+      <c r="AH73" s="13"/>
+      <c r="AI73" s="13"/>
+      <c r="AJ73" s="13"/>
+      <c r="AK73" s="13"/>
+      <c r="AL73" s="13"/>
+      <c r="AM73" s="13"/>
+      <c r="AN73" s="13"/>
+      <c r="AO73" s="13"/>
+      <c r="AP73" s="13"/>
+      <c r="AQ73" s="13"/>
+      <c r="AR73" s="13"/>
+      <c r="AS73" s="13"/>
+      <c r="AT73" s="13"/>
+      <c r="AU73" s="13"/>
+      <c r="AV73" s="13"/>
+      <c r="AW73" s="13"/>
+      <c r="AX73" s="13"/>
+      <c r="AY73" s="13"/>
+      <c r="AZ73" s="13"/>
+      <c r="BA73" s="13"/>
+      <c r="BB73" s="13"/>
+      <c r="BC73" s="13"/>
+      <c r="BD73" s="13"/>
+      <c r="BE73" s="13"/>
+      <c r="BF73" s="13"/>
+      <c r="BG73" s="13"/>
+      <c r="BH73" s="13"/>
+      <c r="BI73" s="13"/>
+      <c r="BJ73" s="13"/>
+      <c r="BK73" s="13"/>
+      <c r="BL73" s="13"/>
+    </row>
+    <row r="74" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="24"/>
       <c r="B74" s="25" t="s">
         <v>95</v>
@@ -4982,8 +7629,43 @@
       <c r="AA74" s="18"/>
       <c r="AB74" s="18"/>
       <c r="AC74" s="18"/>
-    </row>
-    <row r="75" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD74" s="13"/>
+      <c r="AE74" s="13"/>
+      <c r="AF74" s="13"/>
+      <c r="AG74" s="13"/>
+      <c r="AH74" s="13"/>
+      <c r="AI74" s="13"/>
+      <c r="AJ74" s="13"/>
+      <c r="AK74" s="13"/>
+      <c r="AL74" s="13"/>
+      <c r="AM74" s="13"/>
+      <c r="AN74" s="13"/>
+      <c r="AO74" s="13"/>
+      <c r="AP74" s="13"/>
+      <c r="AQ74" s="13"/>
+      <c r="AR74" s="13"/>
+      <c r="AS74" s="13"/>
+      <c r="AT74" s="13"/>
+      <c r="AU74" s="13"/>
+      <c r="AV74" s="13"/>
+      <c r="AW74" s="13"/>
+      <c r="AX74" s="13"/>
+      <c r="AY74" s="13"/>
+      <c r="AZ74" s="13"/>
+      <c r="BA74" s="13"/>
+      <c r="BB74" s="13"/>
+      <c r="BC74" s="13"/>
+      <c r="BD74" s="13"/>
+      <c r="BE74" s="13"/>
+      <c r="BF74" s="13"/>
+      <c r="BG74" s="13"/>
+      <c r="BH74" s="13"/>
+      <c r="BI74" s="13"/>
+      <c r="BJ74" s="13"/>
+      <c r="BK74" s="13"/>
+      <c r="BL74" s="13"/>
+    </row>
+    <row r="75" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="24"/>
       <c r="B75" s="31" t="s">
         <v>98</v>
@@ -5027,8 +7709,43 @@
       <c r="AA75" s="18"/>
       <c r="AB75" s="18"/>
       <c r="AC75" s="18"/>
-    </row>
-    <row r="76" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD75" s="13"/>
+      <c r="AE75" s="13"/>
+      <c r="AF75" s="13"/>
+      <c r="AG75" s="13"/>
+      <c r="AH75" s="13"/>
+      <c r="AI75" s="13"/>
+      <c r="AJ75" s="13"/>
+      <c r="AK75" s="13"/>
+      <c r="AL75" s="13"/>
+      <c r="AM75" s="13"/>
+      <c r="AN75" s="13"/>
+      <c r="AO75" s="13"/>
+      <c r="AP75" s="13"/>
+      <c r="AQ75" s="13"/>
+      <c r="AR75" s="13"/>
+      <c r="AS75" s="13"/>
+      <c r="AT75" s="13"/>
+      <c r="AU75" s="13"/>
+      <c r="AV75" s="13"/>
+      <c r="AW75" s="13"/>
+      <c r="AX75" s="13"/>
+      <c r="AY75" s="13"/>
+      <c r="AZ75" s="13"/>
+      <c r="BA75" s="13"/>
+      <c r="BB75" s="13"/>
+      <c r="BC75" s="13"/>
+      <c r="BD75" s="13"/>
+      <c r="BE75" s="13"/>
+      <c r="BF75" s="13"/>
+      <c r="BG75" s="13"/>
+      <c r="BH75" s="13"/>
+      <c r="BI75" s="13"/>
+      <c r="BJ75" s="13"/>
+      <c r="BK75" s="13"/>
+      <c r="BL75" s="13"/>
+    </row>
+    <row r="76" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="24"/>
       <c r="B76" s="25" t="s">
         <v>100</v>
@@ -5079,8 +7796,43 @@
       <c r="AA76" s="18"/>
       <c r="AB76" s="18"/>
       <c r="AC76" s="18"/>
-    </row>
-    <row r="77" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD76" s="13"/>
+      <c r="AE76" s="13"/>
+      <c r="AF76" s="13"/>
+      <c r="AG76" s="13"/>
+      <c r="AH76" s="13"/>
+      <c r="AI76" s="13"/>
+      <c r="AJ76" s="13"/>
+      <c r="AK76" s="13"/>
+      <c r="AL76" s="13"/>
+      <c r="AM76" s="13"/>
+      <c r="AN76" s="13"/>
+      <c r="AO76" s="13"/>
+      <c r="AP76" s="13"/>
+      <c r="AQ76" s="13"/>
+      <c r="AR76" s="13"/>
+      <c r="AS76" s="13"/>
+      <c r="AT76" s="13"/>
+      <c r="AU76" s="13"/>
+      <c r="AV76" s="13"/>
+      <c r="AW76" s="13"/>
+      <c r="AX76" s="13"/>
+      <c r="AY76" s="13"/>
+      <c r="AZ76" s="13"/>
+      <c r="BA76" s="13"/>
+      <c r="BB76" s="13"/>
+      <c r="BC76" s="13"/>
+      <c r="BD76" s="13"/>
+      <c r="BE76" s="13"/>
+      <c r="BF76" s="13"/>
+      <c r="BG76" s="13"/>
+      <c r="BH76" s="13"/>
+      <c r="BI76" s="13"/>
+      <c r="BJ76" s="13"/>
+      <c r="BK76" s="13"/>
+      <c r="BL76" s="13"/>
+    </row>
+    <row r="77" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="24"/>
       <c r="B77" s="25" t="s">
         <v>100</v>
@@ -5131,8 +7883,43 @@
       <c r="AA77" s="18"/>
       <c r="AB77" s="18"/>
       <c r="AC77" s="18"/>
-    </row>
-    <row r="78" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD77" s="13"/>
+      <c r="AE77" s="13"/>
+      <c r="AF77" s="13"/>
+      <c r="AG77" s="13"/>
+      <c r="AH77" s="13"/>
+      <c r="AI77" s="13"/>
+      <c r="AJ77" s="13"/>
+      <c r="AK77" s="13"/>
+      <c r="AL77" s="13"/>
+      <c r="AM77" s="13"/>
+      <c r="AN77" s="13"/>
+      <c r="AO77" s="13"/>
+      <c r="AP77" s="13"/>
+      <c r="AQ77" s="13"/>
+      <c r="AR77" s="13"/>
+      <c r="AS77" s="13"/>
+      <c r="AT77" s="13"/>
+      <c r="AU77" s="13"/>
+      <c r="AV77" s="13"/>
+      <c r="AW77" s="13"/>
+      <c r="AX77" s="13"/>
+      <c r="AY77" s="13"/>
+      <c r="AZ77" s="13"/>
+      <c r="BA77" s="13"/>
+      <c r="BB77" s="13"/>
+      <c r="BC77" s="13"/>
+      <c r="BD77" s="13"/>
+      <c r="BE77" s="13"/>
+      <c r="BF77" s="13"/>
+      <c r="BG77" s="13"/>
+      <c r="BH77" s="13"/>
+      <c r="BI77" s="13"/>
+      <c r="BJ77" s="13"/>
+      <c r="BK77" s="13"/>
+      <c r="BL77" s="13"/>
+    </row>
+    <row r="78" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="24"/>
       <c r="B78" s="33" t="s">
         <v>103</v>
@@ -5180,8 +7967,43 @@
       <c r="AA78" s="18"/>
       <c r="AB78" s="18"/>
       <c r="AC78" s="18"/>
-    </row>
-    <row r="79" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD78" s="13"/>
+      <c r="AE78" s="13"/>
+      <c r="AF78" s="13"/>
+      <c r="AG78" s="13"/>
+      <c r="AH78" s="13"/>
+      <c r="AI78" s="13"/>
+      <c r="AJ78" s="13"/>
+      <c r="AK78" s="13"/>
+      <c r="AL78" s="13"/>
+      <c r="AM78" s="13"/>
+      <c r="AN78" s="13"/>
+      <c r="AO78" s="13"/>
+      <c r="AP78" s="13"/>
+      <c r="AQ78" s="13"/>
+      <c r="AR78" s="13"/>
+      <c r="AS78" s="13"/>
+      <c r="AT78" s="13"/>
+      <c r="AU78" s="13"/>
+      <c r="AV78" s="13"/>
+      <c r="AW78" s="13"/>
+      <c r="AX78" s="13"/>
+      <c r="AY78" s="13"/>
+      <c r="AZ78" s="13"/>
+      <c r="BA78" s="13"/>
+      <c r="BB78" s="13"/>
+      <c r="BC78" s="13"/>
+      <c r="BD78" s="13"/>
+      <c r="BE78" s="13"/>
+      <c r="BF78" s="13"/>
+      <c r="BG78" s="13"/>
+      <c r="BH78" s="13"/>
+      <c r="BI78" s="13"/>
+      <c r="BJ78" s="13"/>
+      <c r="BK78" s="13"/>
+      <c r="BL78" s="13"/>
+    </row>
+    <row r="79" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="24"/>
       <c r="B79" s="25" t="s">
         <v>104</v>
@@ -5231,8 +8053,43 @@
       <c r="AA79" s="18"/>
       <c r="AB79" s="18"/>
       <c r="AC79" s="18"/>
-    </row>
-    <row r="80" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD79" s="13"/>
+      <c r="AE79" s="13"/>
+      <c r="AF79" s="13"/>
+      <c r="AG79" s="13"/>
+      <c r="AH79" s="13"/>
+      <c r="AI79" s="13"/>
+      <c r="AJ79" s="13"/>
+      <c r="AK79" s="13"/>
+      <c r="AL79" s="13"/>
+      <c r="AM79" s="13"/>
+      <c r="AN79" s="13"/>
+      <c r="AO79" s="13"/>
+      <c r="AP79" s="13"/>
+      <c r="AQ79" s="13"/>
+      <c r="AR79" s="13"/>
+      <c r="AS79" s="13"/>
+      <c r="AT79" s="13"/>
+      <c r="AU79" s="13"/>
+      <c r="AV79" s="13"/>
+      <c r="AW79" s="13"/>
+      <c r="AX79" s="13"/>
+      <c r="AY79" s="13"/>
+      <c r="AZ79" s="13"/>
+      <c r="BA79" s="13"/>
+      <c r="BB79" s="13"/>
+      <c r="BC79" s="13"/>
+      <c r="BD79" s="13"/>
+      <c r="BE79" s="13"/>
+      <c r="BF79" s="13"/>
+      <c r="BG79" s="13"/>
+      <c r="BH79" s="13"/>
+      <c r="BI79" s="13"/>
+      <c r="BJ79" s="13"/>
+      <c r="BK79" s="13"/>
+      <c r="BL79" s="13"/>
+    </row>
+    <row r="80" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="24"/>
       <c r="B80" s="25" t="s">
         <v>106</v>
@@ -5280,8 +8137,43 @@
       <c r="AA80" s="18"/>
       <c r="AB80" s="18"/>
       <c r="AC80" s="18"/>
-    </row>
-    <row r="81" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD80" s="13"/>
+      <c r="AE80" s="13"/>
+      <c r="AF80" s="13"/>
+      <c r="AG80" s="13"/>
+      <c r="AH80" s="13"/>
+      <c r="AI80" s="13"/>
+      <c r="AJ80" s="13"/>
+      <c r="AK80" s="13"/>
+      <c r="AL80" s="13"/>
+      <c r="AM80" s="13"/>
+      <c r="AN80" s="13"/>
+      <c r="AO80" s="13"/>
+      <c r="AP80" s="13"/>
+      <c r="AQ80" s="13"/>
+      <c r="AR80" s="13"/>
+      <c r="AS80" s="13"/>
+      <c r="AT80" s="13"/>
+      <c r="AU80" s="13"/>
+      <c r="AV80" s="13"/>
+      <c r="AW80" s="13"/>
+      <c r="AX80" s="13"/>
+      <c r="AY80" s="13"/>
+      <c r="AZ80" s="13"/>
+      <c r="BA80" s="13"/>
+      <c r="BB80" s="13"/>
+      <c r="BC80" s="13"/>
+      <c r="BD80" s="13"/>
+      <c r="BE80" s="13"/>
+      <c r="BF80" s="13"/>
+      <c r="BG80" s="13"/>
+      <c r="BH80" s="13"/>
+      <c r="BI80" s="13"/>
+      <c r="BJ80" s="13"/>
+      <c r="BK80" s="13"/>
+      <c r="BL80" s="13"/>
+    </row>
+    <row r="81" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="24"/>
       <c r="B81" s="25" t="s">
         <v>107</v>
@@ -5329,8 +8221,43 @@
       <c r="AA81" s="18"/>
       <c r="AB81" s="18"/>
       <c r="AC81" s="18"/>
-    </row>
-    <row r="82" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD81" s="13"/>
+      <c r="AE81" s="13"/>
+      <c r="AF81" s="13"/>
+      <c r="AG81" s="13"/>
+      <c r="AH81" s="13"/>
+      <c r="AI81" s="13"/>
+      <c r="AJ81" s="13"/>
+      <c r="AK81" s="13"/>
+      <c r="AL81" s="13"/>
+      <c r="AM81" s="13"/>
+      <c r="AN81" s="13"/>
+      <c r="AO81" s="13"/>
+      <c r="AP81" s="13"/>
+      <c r="AQ81" s="13"/>
+      <c r="AR81" s="13"/>
+      <c r="AS81" s="13"/>
+      <c r="AT81" s="13"/>
+      <c r="AU81" s="13"/>
+      <c r="AV81" s="13"/>
+      <c r="AW81" s="13"/>
+      <c r="AX81" s="13"/>
+      <c r="AY81" s="13"/>
+      <c r="AZ81" s="13"/>
+      <c r="BA81" s="13"/>
+      <c r="BB81" s="13"/>
+      <c r="BC81" s="13"/>
+      <c r="BD81" s="13"/>
+      <c r="BE81" s="13"/>
+      <c r="BF81" s="13"/>
+      <c r="BG81" s="13"/>
+      <c r="BH81" s="13"/>
+      <c r="BI81" s="13"/>
+      <c r="BJ81" s="13"/>
+      <c r="BK81" s="13"/>
+      <c r="BL81" s="13"/>
+    </row>
+    <row r="82" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="24"/>
       <c r="B82" s="25" t="s">
         <v>108</v>
@@ -5378,8 +8305,43 @@
       <c r="AA82" s="18"/>
       <c r="AB82" s="18"/>
       <c r="AC82" s="18"/>
-    </row>
-    <row r="83" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD82" s="13"/>
+      <c r="AE82" s="13"/>
+      <c r="AF82" s="13"/>
+      <c r="AG82" s="13"/>
+      <c r="AH82" s="13"/>
+      <c r="AI82" s="13"/>
+      <c r="AJ82" s="13"/>
+      <c r="AK82" s="13"/>
+      <c r="AL82" s="13"/>
+      <c r="AM82" s="13"/>
+      <c r="AN82" s="13"/>
+      <c r="AO82" s="13"/>
+      <c r="AP82" s="13"/>
+      <c r="AQ82" s="13"/>
+      <c r="AR82" s="13"/>
+      <c r="AS82" s="13"/>
+      <c r="AT82" s="13"/>
+      <c r="AU82" s="13"/>
+      <c r="AV82" s="13"/>
+      <c r="AW82" s="13"/>
+      <c r="AX82" s="13"/>
+      <c r="AY82" s="13"/>
+      <c r="AZ82" s="13"/>
+      <c r="BA82" s="13"/>
+      <c r="BB82" s="13"/>
+      <c r="BC82" s="13"/>
+      <c r="BD82" s="13"/>
+      <c r="BE82" s="13"/>
+      <c r="BF82" s="13"/>
+      <c r="BG82" s="13"/>
+      <c r="BH82" s="13"/>
+      <c r="BI82" s="13"/>
+      <c r="BJ82" s="13"/>
+      <c r="BK82" s="13"/>
+      <c r="BL82" s="13"/>
+    </row>
+    <row r="83" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="24"/>
       <c r="B83" s="25" t="s">
         <v>109</v>
@@ -5427,8 +8389,43 @@
       <c r="AA83" s="18"/>
       <c r="AB83" s="18"/>
       <c r="AC83" s="18"/>
-    </row>
-    <row r="84" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD83" s="13"/>
+      <c r="AE83" s="13"/>
+      <c r="AF83" s="13"/>
+      <c r="AG83" s="13"/>
+      <c r="AH83" s="13"/>
+      <c r="AI83" s="13"/>
+      <c r="AJ83" s="13"/>
+      <c r="AK83" s="13"/>
+      <c r="AL83" s="13"/>
+      <c r="AM83" s="13"/>
+      <c r="AN83" s="13"/>
+      <c r="AO83" s="13"/>
+      <c r="AP83" s="13"/>
+      <c r="AQ83" s="13"/>
+      <c r="AR83" s="13"/>
+      <c r="AS83" s="13"/>
+      <c r="AT83" s="13"/>
+      <c r="AU83" s="13"/>
+      <c r="AV83" s="13"/>
+      <c r="AW83" s="13"/>
+      <c r="AX83" s="13"/>
+      <c r="AY83" s="13"/>
+      <c r="AZ83" s="13"/>
+      <c r="BA83" s="13"/>
+      <c r="BB83" s="13"/>
+      <c r="BC83" s="13"/>
+      <c r="BD83" s="13"/>
+      <c r="BE83" s="13"/>
+      <c r="BF83" s="13"/>
+      <c r="BG83" s="13"/>
+      <c r="BH83" s="13"/>
+      <c r="BI83" s="13"/>
+      <c r="BJ83" s="13"/>
+      <c r="BK83" s="13"/>
+      <c r="BL83" s="13"/>
+    </row>
+    <row r="84" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="24"/>
       <c r="B84" s="25" t="s">
         <v>110</v>
@@ -5476,8 +8473,43 @@
       <c r="AA84" s="18"/>
       <c r="AB84" s="18"/>
       <c r="AC84" s="18"/>
-    </row>
-    <row r="85" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD84" s="13"/>
+      <c r="AE84" s="13"/>
+      <c r="AF84" s="13"/>
+      <c r="AG84" s="13"/>
+      <c r="AH84" s="13"/>
+      <c r="AI84" s="13"/>
+      <c r="AJ84" s="13"/>
+      <c r="AK84" s="13"/>
+      <c r="AL84" s="13"/>
+      <c r="AM84" s="13"/>
+      <c r="AN84" s="13"/>
+      <c r="AO84" s="13"/>
+      <c r="AP84" s="13"/>
+      <c r="AQ84" s="13"/>
+      <c r="AR84" s="13"/>
+      <c r="AS84" s="13"/>
+      <c r="AT84" s="13"/>
+      <c r="AU84" s="13"/>
+      <c r="AV84" s="13"/>
+      <c r="AW84" s="13"/>
+      <c r="AX84" s="13"/>
+      <c r="AY84" s="13"/>
+      <c r="AZ84" s="13"/>
+      <c r="BA84" s="13"/>
+      <c r="BB84" s="13"/>
+      <c r="BC84" s="13"/>
+      <c r="BD84" s="13"/>
+      <c r="BE84" s="13"/>
+      <c r="BF84" s="13"/>
+      <c r="BG84" s="13"/>
+      <c r="BH84" s="13"/>
+      <c r="BI84" s="13"/>
+      <c r="BJ84" s="13"/>
+      <c r="BK84" s="13"/>
+      <c r="BL84" s="13"/>
+    </row>
+    <row r="85" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="24"/>
       <c r="B85" s="33" t="s">
         <v>111</v>
@@ -5521,8 +8553,43 @@
       <c r="AA85" s="18"/>
       <c r="AB85" s="18"/>
       <c r="AC85" s="18"/>
-    </row>
-    <row r="86" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD85" s="13"/>
+      <c r="AE85" s="13"/>
+      <c r="AF85" s="13"/>
+      <c r="AG85" s="13"/>
+      <c r="AH85" s="13"/>
+      <c r="AI85" s="13"/>
+      <c r="AJ85" s="13"/>
+      <c r="AK85" s="13"/>
+      <c r="AL85" s="13"/>
+      <c r="AM85" s="13"/>
+      <c r="AN85" s="13"/>
+      <c r="AO85" s="13"/>
+      <c r="AP85" s="13"/>
+      <c r="AQ85" s="13"/>
+      <c r="AR85" s="13"/>
+      <c r="AS85" s="13"/>
+      <c r="AT85" s="13"/>
+      <c r="AU85" s="13"/>
+      <c r="AV85" s="13"/>
+      <c r="AW85" s="13"/>
+      <c r="AX85" s="13"/>
+      <c r="AY85" s="13"/>
+      <c r="AZ85" s="13"/>
+      <c r="BA85" s="13"/>
+      <c r="BB85" s="13"/>
+      <c r="BC85" s="13"/>
+      <c r="BD85" s="13"/>
+      <c r="BE85" s="13"/>
+      <c r="BF85" s="13"/>
+      <c r="BG85" s="13"/>
+      <c r="BH85" s="13"/>
+      <c r="BI85" s="13"/>
+      <c r="BJ85" s="13"/>
+      <c r="BK85" s="13"/>
+      <c r="BL85" s="13"/>
+    </row>
+    <row r="86" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="24"/>
       <c r="B86" s="33" t="s">
         <v>112</v>
@@ -5565,8 +8632,43 @@
       <c r="AA86" s="18"/>
       <c r="AB86" s="18"/>
       <c r="AC86" s="18"/>
-    </row>
-    <row r="87" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD86" s="13"/>
+      <c r="AE86" s="13"/>
+      <c r="AF86" s="13"/>
+      <c r="AG86" s="13"/>
+      <c r="AH86" s="13"/>
+      <c r="AI86" s="13"/>
+      <c r="AJ86" s="13"/>
+      <c r="AK86" s="13"/>
+      <c r="AL86" s="13"/>
+      <c r="AM86" s="13"/>
+      <c r="AN86" s="13"/>
+      <c r="AO86" s="13"/>
+      <c r="AP86" s="13"/>
+      <c r="AQ86" s="13"/>
+      <c r="AR86" s="13"/>
+      <c r="AS86" s="13"/>
+      <c r="AT86" s="13"/>
+      <c r="AU86" s="13"/>
+      <c r="AV86" s="13"/>
+      <c r="AW86" s="13"/>
+      <c r="AX86" s="13"/>
+      <c r="AY86" s="13"/>
+      <c r="AZ86" s="13"/>
+      <c r="BA86" s="13"/>
+      <c r="BB86" s="13"/>
+      <c r="BC86" s="13"/>
+      <c r="BD86" s="13"/>
+      <c r="BE86" s="13"/>
+      <c r="BF86" s="13"/>
+      <c r="BG86" s="13"/>
+      <c r="BH86" s="13"/>
+      <c r="BI86" s="13"/>
+      <c r="BJ86" s="13"/>
+      <c r="BK86" s="13"/>
+      <c r="BL86" s="13"/>
+    </row>
+    <row r="87" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="24"/>
       <c r="B87" s="31" t="s">
         <v>113</v>
@@ -5610,8 +8712,43 @@
       <c r="AA87" s="18"/>
       <c r="AB87" s="18"/>
       <c r="AC87" s="18"/>
-    </row>
-    <row r="88" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD87" s="13"/>
+      <c r="AE87" s="13"/>
+      <c r="AF87" s="13"/>
+      <c r="AG87" s="13"/>
+      <c r="AH87" s="13"/>
+      <c r="AI87" s="13"/>
+      <c r="AJ87" s="13"/>
+      <c r="AK87" s="13"/>
+      <c r="AL87" s="13"/>
+      <c r="AM87" s="13"/>
+      <c r="AN87" s="13"/>
+      <c r="AO87" s="13"/>
+      <c r="AP87" s="13"/>
+      <c r="AQ87" s="13"/>
+      <c r="AR87" s="13"/>
+      <c r="AS87" s="13"/>
+      <c r="AT87" s="13"/>
+      <c r="AU87" s="13"/>
+      <c r="AV87" s="13"/>
+      <c r="AW87" s="13"/>
+      <c r="AX87" s="13"/>
+      <c r="AY87" s="13"/>
+      <c r="AZ87" s="13"/>
+      <c r="BA87" s="13"/>
+      <c r="BB87" s="13"/>
+      <c r="BC87" s="13"/>
+      <c r="BD87" s="13"/>
+      <c r="BE87" s="13"/>
+      <c r="BF87" s="13"/>
+      <c r="BG87" s="13"/>
+      <c r="BH87" s="13"/>
+      <c r="BI87" s="13"/>
+      <c r="BJ87" s="13"/>
+      <c r="BK87" s="13"/>
+      <c r="BL87" s="13"/>
+    </row>
+    <row r="88" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="45" t="n">
         <f aca="false">SUM(F59:F88)</f>
         <v>1245.05</v>
@@ -5650,8 +8787,43 @@
       <c r="AA88" s="18"/>
       <c r="AB88" s="18"/>
       <c r="AC88" s="18"/>
-    </row>
-    <row r="89" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD88" s="13"/>
+      <c r="AE88" s="13"/>
+      <c r="AF88" s="13"/>
+      <c r="AG88" s="13"/>
+      <c r="AH88" s="13"/>
+      <c r="AI88" s="13"/>
+      <c r="AJ88" s="13"/>
+      <c r="AK88" s="13"/>
+      <c r="AL88" s="13"/>
+      <c r="AM88" s="13"/>
+      <c r="AN88" s="13"/>
+      <c r="AO88" s="13"/>
+      <c r="AP88" s="13"/>
+      <c r="AQ88" s="13"/>
+      <c r="AR88" s="13"/>
+      <c r="AS88" s="13"/>
+      <c r="AT88" s="13"/>
+      <c r="AU88" s="13"/>
+      <c r="AV88" s="13"/>
+      <c r="AW88" s="13"/>
+      <c r="AX88" s="13"/>
+      <c r="AY88" s="13"/>
+      <c r="AZ88" s="13"/>
+      <c r="BA88" s="13"/>
+      <c r="BB88" s="13"/>
+      <c r="BC88" s="13"/>
+      <c r="BD88" s="13"/>
+      <c r="BE88" s="13"/>
+      <c r="BF88" s="13"/>
+      <c r="BG88" s="13"/>
+      <c r="BH88" s="13"/>
+      <c r="BI88" s="13"/>
+      <c r="BJ88" s="13"/>
+      <c r="BK88" s="13"/>
+      <c r="BL88" s="13"/>
+    </row>
+    <row r="89" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="24" t="s">
         <v>114</v>
       </c>
@@ -5695,8 +8867,43 @@
       <c r="AA89" s="18"/>
       <c r="AB89" s="18"/>
       <c r="AC89" s="18"/>
-    </row>
-    <row r="90" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD89" s="13"/>
+      <c r="AE89" s="13"/>
+      <c r="AF89" s="13"/>
+      <c r="AG89" s="13"/>
+      <c r="AH89" s="13"/>
+      <c r="AI89" s="13"/>
+      <c r="AJ89" s="13"/>
+      <c r="AK89" s="13"/>
+      <c r="AL89" s="13"/>
+      <c r="AM89" s="13"/>
+      <c r="AN89" s="13"/>
+      <c r="AO89" s="13"/>
+      <c r="AP89" s="13"/>
+      <c r="AQ89" s="13"/>
+      <c r="AR89" s="13"/>
+      <c r="AS89" s="13"/>
+      <c r="AT89" s="13"/>
+      <c r="AU89" s="13"/>
+      <c r="AV89" s="13"/>
+      <c r="AW89" s="13"/>
+      <c r="AX89" s="13"/>
+      <c r="AY89" s="13"/>
+      <c r="AZ89" s="13"/>
+      <c r="BA89" s="13"/>
+      <c r="BB89" s="13"/>
+      <c r="BC89" s="13"/>
+      <c r="BD89" s="13"/>
+      <c r="BE89" s="13"/>
+      <c r="BF89" s="13"/>
+      <c r="BG89" s="13"/>
+      <c r="BH89" s="13"/>
+      <c r="BI89" s="13"/>
+      <c r="BJ89" s="13"/>
+      <c r="BK89" s="13"/>
+      <c r="BL89" s="13"/>
+    </row>
+    <row r="90" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="24"/>
       <c r="B90" s="38" t="s">
         <v>116</v>
@@ -5736,8 +8943,43 @@
       <c r="AA90" s="18"/>
       <c r="AB90" s="18"/>
       <c r="AC90" s="18"/>
-    </row>
-    <row r="91" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD90" s="13"/>
+      <c r="AE90" s="13"/>
+      <c r="AF90" s="13"/>
+      <c r="AG90" s="13"/>
+      <c r="AH90" s="13"/>
+      <c r="AI90" s="13"/>
+      <c r="AJ90" s="13"/>
+      <c r="AK90" s="13"/>
+      <c r="AL90" s="13"/>
+      <c r="AM90" s="13"/>
+      <c r="AN90" s="13"/>
+      <c r="AO90" s="13"/>
+      <c r="AP90" s="13"/>
+      <c r="AQ90" s="13"/>
+      <c r="AR90" s="13"/>
+      <c r="AS90" s="13"/>
+      <c r="AT90" s="13"/>
+      <c r="AU90" s="13"/>
+      <c r="AV90" s="13"/>
+      <c r="AW90" s="13"/>
+      <c r="AX90" s="13"/>
+      <c r="AY90" s="13"/>
+      <c r="AZ90" s="13"/>
+      <c r="BA90" s="13"/>
+      <c r="BB90" s="13"/>
+      <c r="BC90" s="13"/>
+      <c r="BD90" s="13"/>
+      <c r="BE90" s="13"/>
+      <c r="BF90" s="13"/>
+      <c r="BG90" s="13"/>
+      <c r="BH90" s="13"/>
+      <c r="BI90" s="13"/>
+      <c r="BJ90" s="13"/>
+      <c r="BK90" s="13"/>
+      <c r="BL90" s="13"/>
+    </row>
+    <row r="91" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="24"/>
       <c r="B91" s="38" t="s">
         <v>117</v>
@@ -5777,8 +9019,43 @@
       <c r="AA91" s="18"/>
       <c r="AB91" s="18"/>
       <c r="AC91" s="18"/>
-    </row>
-    <row r="92" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD91" s="13"/>
+      <c r="AE91" s="13"/>
+      <c r="AF91" s="13"/>
+      <c r="AG91" s="13"/>
+      <c r="AH91" s="13"/>
+      <c r="AI91" s="13"/>
+      <c r="AJ91" s="13"/>
+      <c r="AK91" s="13"/>
+      <c r="AL91" s="13"/>
+      <c r="AM91" s="13"/>
+      <c r="AN91" s="13"/>
+      <c r="AO91" s="13"/>
+      <c r="AP91" s="13"/>
+      <c r="AQ91" s="13"/>
+      <c r="AR91" s="13"/>
+      <c r="AS91" s="13"/>
+      <c r="AT91" s="13"/>
+      <c r="AU91" s="13"/>
+      <c r="AV91" s="13"/>
+      <c r="AW91" s="13"/>
+      <c r="AX91" s="13"/>
+      <c r="AY91" s="13"/>
+      <c r="AZ91" s="13"/>
+      <c r="BA91" s="13"/>
+      <c r="BB91" s="13"/>
+      <c r="BC91" s="13"/>
+      <c r="BD91" s="13"/>
+      <c r="BE91" s="13"/>
+      <c r="BF91" s="13"/>
+      <c r="BG91" s="13"/>
+      <c r="BH91" s="13"/>
+      <c r="BI91" s="13"/>
+      <c r="BJ91" s="13"/>
+      <c r="BK91" s="13"/>
+      <c r="BL91" s="13"/>
+    </row>
+    <row r="92" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="24"/>
       <c r="B92" s="25" t="s">
         <v>118</v>
@@ -5826,8 +9103,43 @@
       <c r="AA92" s="18"/>
       <c r="AB92" s="18"/>
       <c r="AC92" s="18"/>
-    </row>
-    <row r="93" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD92" s="13"/>
+      <c r="AE92" s="13"/>
+      <c r="AF92" s="13"/>
+      <c r="AG92" s="13"/>
+      <c r="AH92" s="13"/>
+      <c r="AI92" s="13"/>
+      <c r="AJ92" s="13"/>
+      <c r="AK92" s="13"/>
+      <c r="AL92" s="13"/>
+      <c r="AM92" s="13"/>
+      <c r="AN92" s="13"/>
+      <c r="AO92" s="13"/>
+      <c r="AP92" s="13"/>
+      <c r="AQ92" s="13"/>
+      <c r="AR92" s="13"/>
+      <c r="AS92" s="13"/>
+      <c r="AT92" s="13"/>
+      <c r="AU92" s="13"/>
+      <c r="AV92" s="13"/>
+      <c r="AW92" s="13"/>
+      <c r="AX92" s="13"/>
+      <c r="AY92" s="13"/>
+      <c r="AZ92" s="13"/>
+      <c r="BA92" s="13"/>
+      <c r="BB92" s="13"/>
+      <c r="BC92" s="13"/>
+      <c r="BD92" s="13"/>
+      <c r="BE92" s="13"/>
+      <c r="BF92" s="13"/>
+      <c r="BG92" s="13"/>
+      <c r="BH92" s="13"/>
+      <c r="BI92" s="13"/>
+      <c r="BJ92" s="13"/>
+      <c r="BK92" s="13"/>
+      <c r="BL92" s="13"/>
+    </row>
+    <row r="93" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="24"/>
       <c r="B93" s="25" t="s">
         <v>119</v>
@@ -5875,8 +9187,43 @@
       <c r="AA93" s="18"/>
       <c r="AB93" s="18"/>
       <c r="AC93" s="18"/>
-    </row>
-    <row r="94" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD93" s="13"/>
+      <c r="AE93" s="13"/>
+      <c r="AF93" s="13"/>
+      <c r="AG93" s="13"/>
+      <c r="AH93" s="13"/>
+      <c r="AI93" s="13"/>
+      <c r="AJ93" s="13"/>
+      <c r="AK93" s="13"/>
+      <c r="AL93" s="13"/>
+      <c r="AM93" s="13"/>
+      <c r="AN93" s="13"/>
+      <c r="AO93" s="13"/>
+      <c r="AP93" s="13"/>
+      <c r="AQ93" s="13"/>
+      <c r="AR93" s="13"/>
+      <c r="AS93" s="13"/>
+      <c r="AT93" s="13"/>
+      <c r="AU93" s="13"/>
+      <c r="AV93" s="13"/>
+      <c r="AW93" s="13"/>
+      <c r="AX93" s="13"/>
+      <c r="AY93" s="13"/>
+      <c r="AZ93" s="13"/>
+      <c r="BA93" s="13"/>
+      <c r="BB93" s="13"/>
+      <c r="BC93" s="13"/>
+      <c r="BD93" s="13"/>
+      <c r="BE93" s="13"/>
+      <c r="BF93" s="13"/>
+      <c r="BG93" s="13"/>
+      <c r="BH93" s="13"/>
+      <c r="BI93" s="13"/>
+      <c r="BJ93" s="13"/>
+      <c r="BK93" s="13"/>
+      <c r="BL93" s="13"/>
+    </row>
+    <row r="94" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="24"/>
       <c r="B94" s="38" t="s">
         <v>120</v>
@@ -5916,8 +9263,43 @@
       <c r="AA94" s="18"/>
       <c r="AB94" s="18"/>
       <c r="AC94" s="18"/>
-    </row>
-    <row r="95" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD94" s="13"/>
+      <c r="AE94" s="13"/>
+      <c r="AF94" s="13"/>
+      <c r="AG94" s="13"/>
+      <c r="AH94" s="13"/>
+      <c r="AI94" s="13"/>
+      <c r="AJ94" s="13"/>
+      <c r="AK94" s="13"/>
+      <c r="AL94" s="13"/>
+      <c r="AM94" s="13"/>
+      <c r="AN94" s="13"/>
+      <c r="AO94" s="13"/>
+      <c r="AP94" s="13"/>
+      <c r="AQ94" s="13"/>
+      <c r="AR94" s="13"/>
+      <c r="AS94" s="13"/>
+      <c r="AT94" s="13"/>
+      <c r="AU94" s="13"/>
+      <c r="AV94" s="13"/>
+      <c r="AW94" s="13"/>
+      <c r="AX94" s="13"/>
+      <c r="AY94" s="13"/>
+      <c r="AZ94" s="13"/>
+      <c r="BA94" s="13"/>
+      <c r="BB94" s="13"/>
+      <c r="BC94" s="13"/>
+      <c r="BD94" s="13"/>
+      <c r="BE94" s="13"/>
+      <c r="BF94" s="13"/>
+      <c r="BG94" s="13"/>
+      <c r="BH94" s="13"/>
+      <c r="BI94" s="13"/>
+      <c r="BJ94" s="13"/>
+      <c r="BK94" s="13"/>
+      <c r="BL94" s="13"/>
+    </row>
+    <row r="95" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="24"/>
       <c r="B95" s="25" t="s">
         <v>121</v>
@@ -5967,8 +9349,43 @@
       <c r="AA95" s="18"/>
       <c r="AB95" s="18"/>
       <c r="AC95" s="18"/>
-    </row>
-    <row r="96" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD95" s="13"/>
+      <c r="AE95" s="13"/>
+      <c r="AF95" s="13"/>
+      <c r="AG95" s="13"/>
+      <c r="AH95" s="13"/>
+      <c r="AI95" s="13"/>
+      <c r="AJ95" s="13"/>
+      <c r="AK95" s="13"/>
+      <c r="AL95" s="13"/>
+      <c r="AM95" s="13"/>
+      <c r="AN95" s="13"/>
+      <c r="AO95" s="13"/>
+      <c r="AP95" s="13"/>
+      <c r="AQ95" s="13"/>
+      <c r="AR95" s="13"/>
+      <c r="AS95" s="13"/>
+      <c r="AT95" s="13"/>
+      <c r="AU95" s="13"/>
+      <c r="AV95" s="13"/>
+      <c r="AW95" s="13"/>
+      <c r="AX95" s="13"/>
+      <c r="AY95" s="13"/>
+      <c r="AZ95" s="13"/>
+      <c r="BA95" s="13"/>
+      <c r="BB95" s="13"/>
+      <c r="BC95" s="13"/>
+      <c r="BD95" s="13"/>
+      <c r="BE95" s="13"/>
+      <c r="BF95" s="13"/>
+      <c r="BG95" s="13"/>
+      <c r="BH95" s="13"/>
+      <c r="BI95" s="13"/>
+      <c r="BJ95" s="13"/>
+      <c r="BK95" s="13"/>
+      <c r="BL95" s="13"/>
+    </row>
+    <row r="96" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="24"/>
       <c r="B96" s="25" t="s">
         <v>124</v>
@@ -6018,8 +9435,43 @@
       <c r="AA96" s="18"/>
       <c r="AB96" s="18"/>
       <c r="AC96" s="18"/>
-    </row>
-    <row r="97" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD96" s="13"/>
+      <c r="AE96" s="13"/>
+      <c r="AF96" s="13"/>
+      <c r="AG96" s="13"/>
+      <c r="AH96" s="13"/>
+      <c r="AI96" s="13"/>
+      <c r="AJ96" s="13"/>
+      <c r="AK96" s="13"/>
+      <c r="AL96" s="13"/>
+      <c r="AM96" s="13"/>
+      <c r="AN96" s="13"/>
+      <c r="AO96" s="13"/>
+      <c r="AP96" s="13"/>
+      <c r="AQ96" s="13"/>
+      <c r="AR96" s="13"/>
+      <c r="AS96" s="13"/>
+      <c r="AT96" s="13"/>
+      <c r="AU96" s="13"/>
+      <c r="AV96" s="13"/>
+      <c r="AW96" s="13"/>
+      <c r="AX96" s="13"/>
+      <c r="AY96" s="13"/>
+      <c r="AZ96" s="13"/>
+      <c r="BA96" s="13"/>
+      <c r="BB96" s="13"/>
+      <c r="BC96" s="13"/>
+      <c r="BD96" s="13"/>
+      <c r="BE96" s="13"/>
+      <c r="BF96" s="13"/>
+      <c r="BG96" s="13"/>
+      <c r="BH96" s="13"/>
+      <c r="BI96" s="13"/>
+      <c r="BJ96" s="13"/>
+      <c r="BK96" s="13"/>
+      <c r="BL96" s="13"/>
+    </row>
+    <row r="97" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="24"/>
       <c r="B97" s="25" t="s">
         <v>121</v>
@@ -6069,8 +9521,43 @@
       <c r="AA97" s="18"/>
       <c r="AB97" s="18"/>
       <c r="AC97" s="18"/>
-    </row>
-    <row r="98" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD97" s="13"/>
+      <c r="AE97" s="13"/>
+      <c r="AF97" s="13"/>
+      <c r="AG97" s="13"/>
+      <c r="AH97" s="13"/>
+      <c r="AI97" s="13"/>
+      <c r="AJ97" s="13"/>
+      <c r="AK97" s="13"/>
+      <c r="AL97" s="13"/>
+      <c r="AM97" s="13"/>
+      <c r="AN97" s="13"/>
+      <c r="AO97" s="13"/>
+      <c r="AP97" s="13"/>
+      <c r="AQ97" s="13"/>
+      <c r="AR97" s="13"/>
+      <c r="AS97" s="13"/>
+      <c r="AT97" s="13"/>
+      <c r="AU97" s="13"/>
+      <c r="AV97" s="13"/>
+      <c r="AW97" s="13"/>
+      <c r="AX97" s="13"/>
+      <c r="AY97" s="13"/>
+      <c r="AZ97" s="13"/>
+      <c r="BA97" s="13"/>
+      <c r="BB97" s="13"/>
+      <c r="BC97" s="13"/>
+      <c r="BD97" s="13"/>
+      <c r="BE97" s="13"/>
+      <c r="BF97" s="13"/>
+      <c r="BG97" s="13"/>
+      <c r="BH97" s="13"/>
+      <c r="BI97" s="13"/>
+      <c r="BJ97" s="13"/>
+      <c r="BK97" s="13"/>
+      <c r="BL97" s="13"/>
+    </row>
+    <row r="98" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="24"/>
       <c r="B98" s="25" t="s">
         <v>124</v>
@@ -6120,8 +9607,43 @@
       <c r="AA98" s="18"/>
       <c r="AB98" s="18"/>
       <c r="AC98" s="18"/>
-    </row>
-    <row r="99" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD98" s="13"/>
+      <c r="AE98" s="13"/>
+      <c r="AF98" s="13"/>
+      <c r="AG98" s="13"/>
+      <c r="AH98" s="13"/>
+      <c r="AI98" s="13"/>
+      <c r="AJ98" s="13"/>
+      <c r="AK98" s="13"/>
+      <c r="AL98" s="13"/>
+      <c r="AM98" s="13"/>
+      <c r="AN98" s="13"/>
+      <c r="AO98" s="13"/>
+      <c r="AP98" s="13"/>
+      <c r="AQ98" s="13"/>
+      <c r="AR98" s="13"/>
+      <c r="AS98" s="13"/>
+      <c r="AT98" s="13"/>
+      <c r="AU98" s="13"/>
+      <c r="AV98" s="13"/>
+      <c r="AW98" s="13"/>
+      <c r="AX98" s="13"/>
+      <c r="AY98" s="13"/>
+      <c r="AZ98" s="13"/>
+      <c r="BA98" s="13"/>
+      <c r="BB98" s="13"/>
+      <c r="BC98" s="13"/>
+      <c r="BD98" s="13"/>
+      <c r="BE98" s="13"/>
+      <c r="BF98" s="13"/>
+      <c r="BG98" s="13"/>
+      <c r="BH98" s="13"/>
+      <c r="BI98" s="13"/>
+      <c r="BJ98" s="13"/>
+      <c r="BK98" s="13"/>
+      <c r="BL98" s="13"/>
+    </row>
+    <row r="99" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="24"/>
       <c r="B99" s="25" t="s">
         <v>124</v>
@@ -6171,8 +9693,43 @@
       <c r="AA99" s="18"/>
       <c r="AB99" s="18"/>
       <c r="AC99" s="18"/>
-    </row>
-    <row r="100" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD99" s="13"/>
+      <c r="AE99" s="13"/>
+      <c r="AF99" s="13"/>
+      <c r="AG99" s="13"/>
+      <c r="AH99" s="13"/>
+      <c r="AI99" s="13"/>
+      <c r="AJ99" s="13"/>
+      <c r="AK99" s="13"/>
+      <c r="AL99" s="13"/>
+      <c r="AM99" s="13"/>
+      <c r="AN99" s="13"/>
+      <c r="AO99" s="13"/>
+      <c r="AP99" s="13"/>
+      <c r="AQ99" s="13"/>
+      <c r="AR99" s="13"/>
+      <c r="AS99" s="13"/>
+      <c r="AT99" s="13"/>
+      <c r="AU99" s="13"/>
+      <c r="AV99" s="13"/>
+      <c r="AW99" s="13"/>
+      <c r="AX99" s="13"/>
+      <c r="AY99" s="13"/>
+      <c r="AZ99" s="13"/>
+      <c r="BA99" s="13"/>
+      <c r="BB99" s="13"/>
+      <c r="BC99" s="13"/>
+      <c r="BD99" s="13"/>
+      <c r="BE99" s="13"/>
+      <c r="BF99" s="13"/>
+      <c r="BG99" s="13"/>
+      <c r="BH99" s="13"/>
+      <c r="BI99" s="13"/>
+      <c r="BJ99" s="13"/>
+      <c r="BK99" s="13"/>
+      <c r="BL99" s="13"/>
+    </row>
+    <row r="100" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="24"/>
       <c r="B100" s="31" t="s">
         <v>121</v>
@@ -6216,8 +9773,43 @@
       <c r="AA100" s="18"/>
       <c r="AB100" s="18"/>
       <c r="AC100" s="18"/>
-    </row>
-    <row r="101" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD100" s="13"/>
+      <c r="AE100" s="13"/>
+      <c r="AF100" s="13"/>
+      <c r="AG100" s="13"/>
+      <c r="AH100" s="13"/>
+      <c r="AI100" s="13"/>
+      <c r="AJ100" s="13"/>
+      <c r="AK100" s="13"/>
+      <c r="AL100" s="13"/>
+      <c r="AM100" s="13"/>
+      <c r="AN100" s="13"/>
+      <c r="AO100" s="13"/>
+      <c r="AP100" s="13"/>
+      <c r="AQ100" s="13"/>
+      <c r="AR100" s="13"/>
+      <c r="AS100" s="13"/>
+      <c r="AT100" s="13"/>
+      <c r="AU100" s="13"/>
+      <c r="AV100" s="13"/>
+      <c r="AW100" s="13"/>
+      <c r="AX100" s="13"/>
+      <c r="AY100" s="13"/>
+      <c r="AZ100" s="13"/>
+      <c r="BA100" s="13"/>
+      <c r="BB100" s="13"/>
+      <c r="BC100" s="13"/>
+      <c r="BD100" s="13"/>
+      <c r="BE100" s="13"/>
+      <c r="BF100" s="13"/>
+      <c r="BG100" s="13"/>
+      <c r="BH100" s="13"/>
+      <c r="BI100" s="13"/>
+      <c r="BJ100" s="13"/>
+      <c r="BK100" s="13"/>
+      <c r="BL100" s="13"/>
+    </row>
+    <row r="101" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="24"/>
       <c r="B101" s="31" t="s">
         <v>124</v>
@@ -6261,8 +9853,43 @@
       <c r="AA101" s="18"/>
       <c r="AB101" s="18"/>
       <c r="AC101" s="18"/>
-    </row>
-    <row r="102" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD101" s="13"/>
+      <c r="AE101" s="13"/>
+      <c r="AF101" s="13"/>
+      <c r="AG101" s="13"/>
+      <c r="AH101" s="13"/>
+      <c r="AI101" s="13"/>
+      <c r="AJ101" s="13"/>
+      <c r="AK101" s="13"/>
+      <c r="AL101" s="13"/>
+      <c r="AM101" s="13"/>
+      <c r="AN101" s="13"/>
+      <c r="AO101" s="13"/>
+      <c r="AP101" s="13"/>
+      <c r="AQ101" s="13"/>
+      <c r="AR101" s="13"/>
+      <c r="AS101" s="13"/>
+      <c r="AT101" s="13"/>
+      <c r="AU101" s="13"/>
+      <c r="AV101" s="13"/>
+      <c r="AW101" s="13"/>
+      <c r="AX101" s="13"/>
+      <c r="AY101" s="13"/>
+      <c r="AZ101" s="13"/>
+      <c r="BA101" s="13"/>
+      <c r="BB101" s="13"/>
+      <c r="BC101" s="13"/>
+      <c r="BD101" s="13"/>
+      <c r="BE101" s="13"/>
+      <c r="BF101" s="13"/>
+      <c r="BG101" s="13"/>
+      <c r="BH101" s="13"/>
+      <c r="BI101" s="13"/>
+      <c r="BJ101" s="13"/>
+      <c r="BK101" s="13"/>
+      <c r="BL101" s="13"/>
+    </row>
+    <row r="102" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="24"/>
       <c r="B102" s="25" t="s">
         <v>128</v>
@@ -6312,8 +9939,43 @@
       <c r="AA102" s="18"/>
       <c r="AB102" s="18"/>
       <c r="AC102" s="18"/>
-    </row>
-    <row r="103" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD102" s="13"/>
+      <c r="AE102" s="13"/>
+      <c r="AF102" s="13"/>
+      <c r="AG102" s="13"/>
+      <c r="AH102" s="13"/>
+      <c r="AI102" s="13"/>
+      <c r="AJ102" s="13"/>
+      <c r="AK102" s="13"/>
+      <c r="AL102" s="13"/>
+      <c r="AM102" s="13"/>
+      <c r="AN102" s="13"/>
+      <c r="AO102" s="13"/>
+      <c r="AP102" s="13"/>
+      <c r="AQ102" s="13"/>
+      <c r="AR102" s="13"/>
+      <c r="AS102" s="13"/>
+      <c r="AT102" s="13"/>
+      <c r="AU102" s="13"/>
+      <c r="AV102" s="13"/>
+      <c r="AW102" s="13"/>
+      <c r="AX102" s="13"/>
+      <c r="AY102" s="13"/>
+      <c r="AZ102" s="13"/>
+      <c r="BA102" s="13"/>
+      <c r="BB102" s="13"/>
+      <c r="BC102" s="13"/>
+      <c r="BD102" s="13"/>
+      <c r="BE102" s="13"/>
+      <c r="BF102" s="13"/>
+      <c r="BG102" s="13"/>
+      <c r="BH102" s="13"/>
+      <c r="BI102" s="13"/>
+      <c r="BJ102" s="13"/>
+      <c r="BK102" s="13"/>
+      <c r="BL102" s="13"/>
+    </row>
+    <row r="103" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="24"/>
       <c r="B103" s="31" t="s">
         <v>131</v>
@@ -6357,8 +10019,43 @@
       <c r="AA103" s="18"/>
       <c r="AB103" s="18"/>
       <c r="AC103" s="18"/>
-    </row>
-    <row r="104" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD103" s="13"/>
+      <c r="AE103" s="13"/>
+      <c r="AF103" s="13"/>
+      <c r="AG103" s="13"/>
+      <c r="AH103" s="13"/>
+      <c r="AI103" s="13"/>
+      <c r="AJ103" s="13"/>
+      <c r="AK103" s="13"/>
+      <c r="AL103" s="13"/>
+      <c r="AM103" s="13"/>
+      <c r="AN103" s="13"/>
+      <c r="AO103" s="13"/>
+      <c r="AP103" s="13"/>
+      <c r="AQ103" s="13"/>
+      <c r="AR103" s="13"/>
+      <c r="AS103" s="13"/>
+      <c r="AT103" s="13"/>
+      <c r="AU103" s="13"/>
+      <c r="AV103" s="13"/>
+      <c r="AW103" s="13"/>
+      <c r="AX103" s="13"/>
+      <c r="AY103" s="13"/>
+      <c r="AZ103" s="13"/>
+      <c r="BA103" s="13"/>
+      <c r="BB103" s="13"/>
+      <c r="BC103" s="13"/>
+      <c r="BD103" s="13"/>
+      <c r="BE103" s="13"/>
+      <c r="BF103" s="13"/>
+      <c r="BG103" s="13"/>
+      <c r="BH103" s="13"/>
+      <c r="BI103" s="13"/>
+      <c r="BJ103" s="13"/>
+      <c r="BK103" s="13"/>
+      <c r="BL103" s="13"/>
+    </row>
+    <row r="104" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="24"/>
       <c r="B104" s="46" t="s">
         <v>132</v>
@@ -6403,8 +10100,43 @@
       <c r="AA104" s="18"/>
       <c r="AB104" s="18"/>
       <c r="AC104" s="18"/>
-    </row>
-    <row r="105" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD104" s="13"/>
+      <c r="AE104" s="13"/>
+      <c r="AF104" s="13"/>
+      <c r="AG104" s="13"/>
+      <c r="AH104" s="13"/>
+      <c r="AI104" s="13"/>
+      <c r="AJ104" s="13"/>
+      <c r="AK104" s="13"/>
+      <c r="AL104" s="13"/>
+      <c r="AM104" s="13"/>
+      <c r="AN104" s="13"/>
+      <c r="AO104" s="13"/>
+      <c r="AP104" s="13"/>
+      <c r="AQ104" s="13"/>
+      <c r="AR104" s="13"/>
+      <c r="AS104" s="13"/>
+      <c r="AT104" s="13"/>
+      <c r="AU104" s="13"/>
+      <c r="AV104" s="13"/>
+      <c r="AW104" s="13"/>
+      <c r="AX104" s="13"/>
+      <c r="AY104" s="13"/>
+      <c r="AZ104" s="13"/>
+      <c r="BA104" s="13"/>
+      <c r="BB104" s="13"/>
+      <c r="BC104" s="13"/>
+      <c r="BD104" s="13"/>
+      <c r="BE104" s="13"/>
+      <c r="BF104" s="13"/>
+      <c r="BG104" s="13"/>
+      <c r="BH104" s="13"/>
+      <c r="BI104" s="13"/>
+      <c r="BJ104" s="13"/>
+      <c r="BK104" s="13"/>
+      <c r="BL104" s="13"/>
+    </row>
+    <row r="105" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="24"/>
       <c r="B105" s="31" t="s">
         <v>133</v>
@@ -6448,8 +10180,43 @@
       <c r="AA105" s="18"/>
       <c r="AB105" s="18"/>
       <c r="AC105" s="18"/>
-    </row>
-    <row r="106" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD105" s="13"/>
+      <c r="AE105" s="13"/>
+      <c r="AF105" s="13"/>
+      <c r="AG105" s="13"/>
+      <c r="AH105" s="13"/>
+      <c r="AI105" s="13"/>
+      <c r="AJ105" s="13"/>
+      <c r="AK105" s="13"/>
+      <c r="AL105" s="13"/>
+      <c r="AM105" s="13"/>
+      <c r="AN105" s="13"/>
+      <c r="AO105" s="13"/>
+      <c r="AP105" s="13"/>
+      <c r="AQ105" s="13"/>
+      <c r="AR105" s="13"/>
+      <c r="AS105" s="13"/>
+      <c r="AT105" s="13"/>
+      <c r="AU105" s="13"/>
+      <c r="AV105" s="13"/>
+      <c r="AW105" s="13"/>
+      <c r="AX105" s="13"/>
+      <c r="AY105" s="13"/>
+      <c r="AZ105" s="13"/>
+      <c r="BA105" s="13"/>
+      <c r="BB105" s="13"/>
+      <c r="BC105" s="13"/>
+      <c r="BD105" s="13"/>
+      <c r="BE105" s="13"/>
+      <c r="BF105" s="13"/>
+      <c r="BG105" s="13"/>
+      <c r="BH105" s="13"/>
+      <c r="BI105" s="13"/>
+      <c r="BJ105" s="13"/>
+      <c r="BK105" s="13"/>
+      <c r="BL105" s="13"/>
+    </row>
+    <row r="106" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="24"/>
       <c r="B106" s="38" t="s">
         <v>135</v>
@@ -6495,8 +10262,43 @@
       <c r="AA106" s="18"/>
       <c r="AB106" s="18"/>
       <c r="AC106" s="18"/>
-    </row>
-    <row r="107" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD106" s="13"/>
+      <c r="AE106" s="13"/>
+      <c r="AF106" s="13"/>
+      <c r="AG106" s="13"/>
+      <c r="AH106" s="13"/>
+      <c r="AI106" s="13"/>
+      <c r="AJ106" s="13"/>
+      <c r="AK106" s="13"/>
+      <c r="AL106" s="13"/>
+      <c r="AM106" s="13"/>
+      <c r="AN106" s="13"/>
+      <c r="AO106" s="13"/>
+      <c r="AP106" s="13"/>
+      <c r="AQ106" s="13"/>
+      <c r="AR106" s="13"/>
+      <c r="AS106" s="13"/>
+      <c r="AT106" s="13"/>
+      <c r="AU106" s="13"/>
+      <c r="AV106" s="13"/>
+      <c r="AW106" s="13"/>
+      <c r="AX106" s="13"/>
+      <c r="AY106" s="13"/>
+      <c r="AZ106" s="13"/>
+      <c r="BA106" s="13"/>
+      <c r="BB106" s="13"/>
+      <c r="BC106" s="13"/>
+      <c r="BD106" s="13"/>
+      <c r="BE106" s="13"/>
+      <c r="BF106" s="13"/>
+      <c r="BG106" s="13"/>
+      <c r="BH106" s="13"/>
+      <c r="BI106" s="13"/>
+      <c r="BJ106" s="13"/>
+      <c r="BK106" s="13"/>
+      <c r="BL106" s="13"/>
+    </row>
+    <row r="107" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="24"/>
       <c r="B107" s="33" t="s">
         <v>137</v>
@@ -6543,8 +10345,43 @@
       <c r="AA107" s="18"/>
       <c r="AB107" s="18"/>
       <c r="AC107" s="18"/>
-    </row>
-    <row r="108" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD107" s="13"/>
+      <c r="AE107" s="13"/>
+      <c r="AF107" s="13"/>
+      <c r="AG107" s="13"/>
+      <c r="AH107" s="13"/>
+      <c r="AI107" s="13"/>
+      <c r="AJ107" s="13"/>
+      <c r="AK107" s="13"/>
+      <c r="AL107" s="13"/>
+      <c r="AM107" s="13"/>
+      <c r="AN107" s="13"/>
+      <c r="AO107" s="13"/>
+      <c r="AP107" s="13"/>
+      <c r="AQ107" s="13"/>
+      <c r="AR107" s="13"/>
+      <c r="AS107" s="13"/>
+      <c r="AT107" s="13"/>
+      <c r="AU107" s="13"/>
+      <c r="AV107" s="13"/>
+      <c r="AW107" s="13"/>
+      <c r="AX107" s="13"/>
+      <c r="AY107" s="13"/>
+      <c r="AZ107" s="13"/>
+      <c r="BA107" s="13"/>
+      <c r="BB107" s="13"/>
+      <c r="BC107" s="13"/>
+      <c r="BD107" s="13"/>
+      <c r="BE107" s="13"/>
+      <c r="BF107" s="13"/>
+      <c r="BG107" s="13"/>
+      <c r="BH107" s="13"/>
+      <c r="BI107" s="13"/>
+      <c r="BJ107" s="13"/>
+      <c r="BK107" s="13"/>
+      <c r="BL107" s="13"/>
+    </row>
+    <row r="108" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="24"/>
       <c r="B108" s="25" t="s">
         <v>139</v>
@@ -6594,8 +10431,43 @@
       <c r="AA108" s="18"/>
       <c r="AB108" s="18"/>
       <c r="AC108" s="18"/>
-    </row>
-    <row r="109" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD108" s="13"/>
+      <c r="AE108" s="13"/>
+      <c r="AF108" s="13"/>
+      <c r="AG108" s="13"/>
+      <c r="AH108" s="13"/>
+      <c r="AI108" s="13"/>
+      <c r="AJ108" s="13"/>
+      <c r="AK108" s="13"/>
+      <c r="AL108" s="13"/>
+      <c r="AM108" s="13"/>
+      <c r="AN108" s="13"/>
+      <c r="AO108" s="13"/>
+      <c r="AP108" s="13"/>
+      <c r="AQ108" s="13"/>
+      <c r="AR108" s="13"/>
+      <c r="AS108" s="13"/>
+      <c r="AT108" s="13"/>
+      <c r="AU108" s="13"/>
+      <c r="AV108" s="13"/>
+      <c r="AW108" s="13"/>
+      <c r="AX108" s="13"/>
+      <c r="AY108" s="13"/>
+      <c r="AZ108" s="13"/>
+      <c r="BA108" s="13"/>
+      <c r="BB108" s="13"/>
+      <c r="BC108" s="13"/>
+      <c r="BD108" s="13"/>
+      <c r="BE108" s="13"/>
+      <c r="BF108" s="13"/>
+      <c r="BG108" s="13"/>
+      <c r="BH108" s="13"/>
+      <c r="BI108" s="13"/>
+      <c r="BJ108" s="13"/>
+      <c r="BK108" s="13"/>
+      <c r="BL108" s="13"/>
+    </row>
+    <row r="109" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="24"/>
       <c r="B109" s="33" t="s">
         <v>140</v>
@@ -6645,8 +10517,43 @@
       <c r="AA109" s="18"/>
       <c r="AB109" s="18"/>
       <c r="AC109" s="18"/>
-    </row>
-    <row r="110" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD109" s="13"/>
+      <c r="AE109" s="13"/>
+      <c r="AF109" s="13"/>
+      <c r="AG109" s="13"/>
+      <c r="AH109" s="13"/>
+      <c r="AI109" s="13"/>
+      <c r="AJ109" s="13"/>
+      <c r="AK109" s="13"/>
+      <c r="AL109" s="13"/>
+      <c r="AM109" s="13"/>
+      <c r="AN109" s="13"/>
+      <c r="AO109" s="13"/>
+      <c r="AP109" s="13"/>
+      <c r="AQ109" s="13"/>
+      <c r="AR109" s="13"/>
+      <c r="AS109" s="13"/>
+      <c r="AT109" s="13"/>
+      <c r="AU109" s="13"/>
+      <c r="AV109" s="13"/>
+      <c r="AW109" s="13"/>
+      <c r="AX109" s="13"/>
+      <c r="AY109" s="13"/>
+      <c r="AZ109" s="13"/>
+      <c r="BA109" s="13"/>
+      <c r="BB109" s="13"/>
+      <c r="BC109" s="13"/>
+      <c r="BD109" s="13"/>
+      <c r="BE109" s="13"/>
+      <c r="BF109" s="13"/>
+      <c r="BG109" s="13"/>
+      <c r="BH109" s="13"/>
+      <c r="BI109" s="13"/>
+      <c r="BJ109" s="13"/>
+      <c r="BK109" s="13"/>
+      <c r="BL109" s="13"/>
+    </row>
+    <row r="110" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="24"/>
       <c r="B110" s="31" t="s">
         <v>141</v>
@@ -6690,8 +10597,43 @@
       <c r="AA110" s="18"/>
       <c r="AB110" s="18"/>
       <c r="AC110" s="18"/>
-    </row>
-    <row r="111" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD110" s="13"/>
+      <c r="AE110" s="13"/>
+      <c r="AF110" s="13"/>
+      <c r="AG110" s="13"/>
+      <c r="AH110" s="13"/>
+      <c r="AI110" s="13"/>
+      <c r="AJ110" s="13"/>
+      <c r="AK110" s="13"/>
+      <c r="AL110" s="13"/>
+      <c r="AM110" s="13"/>
+      <c r="AN110" s="13"/>
+      <c r="AO110" s="13"/>
+      <c r="AP110" s="13"/>
+      <c r="AQ110" s="13"/>
+      <c r="AR110" s="13"/>
+      <c r="AS110" s="13"/>
+      <c r="AT110" s="13"/>
+      <c r="AU110" s="13"/>
+      <c r="AV110" s="13"/>
+      <c r="AW110" s="13"/>
+      <c r="AX110" s="13"/>
+      <c r="AY110" s="13"/>
+      <c r="AZ110" s="13"/>
+      <c r="BA110" s="13"/>
+      <c r="BB110" s="13"/>
+      <c r="BC110" s="13"/>
+      <c r="BD110" s="13"/>
+      <c r="BE110" s="13"/>
+      <c r="BF110" s="13"/>
+      <c r="BG110" s="13"/>
+      <c r="BH110" s="13"/>
+      <c r="BI110" s="13"/>
+      <c r="BJ110" s="13"/>
+      <c r="BK110" s="13"/>
+      <c r="BL110" s="13"/>
+    </row>
+    <row r="111" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="55" t="n">
         <f aca="false">SUM(F89:F111)</f>
         <v>2717.7</v>
@@ -6730,8 +10672,43 @@
       <c r="AA111" s="18"/>
       <c r="AB111" s="18"/>
       <c r="AC111" s="18"/>
-    </row>
-    <row r="112" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD111" s="13"/>
+      <c r="AE111" s="13"/>
+      <c r="AF111" s="13"/>
+      <c r="AG111" s="13"/>
+      <c r="AH111" s="13"/>
+      <c r="AI111" s="13"/>
+      <c r="AJ111" s="13"/>
+      <c r="AK111" s="13"/>
+      <c r="AL111" s="13"/>
+      <c r="AM111" s="13"/>
+      <c r="AN111" s="13"/>
+      <c r="AO111" s="13"/>
+      <c r="AP111" s="13"/>
+      <c r="AQ111" s="13"/>
+      <c r="AR111" s="13"/>
+      <c r="AS111" s="13"/>
+      <c r="AT111" s="13"/>
+      <c r="AU111" s="13"/>
+      <c r="AV111" s="13"/>
+      <c r="AW111" s="13"/>
+      <c r="AX111" s="13"/>
+      <c r="AY111" s="13"/>
+      <c r="AZ111" s="13"/>
+      <c r="BA111" s="13"/>
+      <c r="BB111" s="13"/>
+      <c r="BC111" s="13"/>
+      <c r="BD111" s="13"/>
+      <c r="BE111" s="13"/>
+      <c r="BF111" s="13"/>
+      <c r="BG111" s="13"/>
+      <c r="BH111" s="13"/>
+      <c r="BI111" s="13"/>
+      <c r="BJ111" s="13"/>
+      <c r="BK111" s="13"/>
+      <c r="BL111" s="13"/>
+    </row>
+    <row r="112" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="58" t="s">
         <v>143</v>
       </c>
@@ -6783,8 +10760,43 @@
       <c r="AA112" s="18"/>
       <c r="AB112" s="18"/>
       <c r="AC112" s="18"/>
-    </row>
-    <row r="113" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD112" s="13"/>
+      <c r="AE112" s="13"/>
+      <c r="AF112" s="13"/>
+      <c r="AG112" s="13"/>
+      <c r="AH112" s="13"/>
+      <c r="AI112" s="13"/>
+      <c r="AJ112" s="13"/>
+      <c r="AK112" s="13"/>
+      <c r="AL112" s="13"/>
+      <c r="AM112" s="13"/>
+      <c r="AN112" s="13"/>
+      <c r="AO112" s="13"/>
+      <c r="AP112" s="13"/>
+      <c r="AQ112" s="13"/>
+      <c r="AR112" s="13"/>
+      <c r="AS112" s="13"/>
+      <c r="AT112" s="13"/>
+      <c r="AU112" s="13"/>
+      <c r="AV112" s="13"/>
+      <c r="AW112" s="13"/>
+      <c r="AX112" s="13"/>
+      <c r="AY112" s="13"/>
+      <c r="AZ112" s="13"/>
+      <c r="BA112" s="13"/>
+      <c r="BB112" s="13"/>
+      <c r="BC112" s="13"/>
+      <c r="BD112" s="13"/>
+      <c r="BE112" s="13"/>
+      <c r="BF112" s="13"/>
+      <c r="BG112" s="13"/>
+      <c r="BH112" s="13"/>
+      <c r="BI112" s="13"/>
+      <c r="BJ112" s="13"/>
+      <c r="BK112" s="13"/>
+      <c r="BL112" s="13"/>
+    </row>
+    <row r="113" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="58"/>
       <c r="B113" s="25" t="s">
         <v>147</v>
@@ -6834,8 +10846,43 @@
       <c r="AA113" s="18"/>
       <c r="AB113" s="18"/>
       <c r="AC113" s="18"/>
-    </row>
-    <row r="114" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD113" s="13"/>
+      <c r="AE113" s="13"/>
+      <c r="AF113" s="13"/>
+      <c r="AG113" s="13"/>
+      <c r="AH113" s="13"/>
+      <c r="AI113" s="13"/>
+      <c r="AJ113" s="13"/>
+      <c r="AK113" s="13"/>
+      <c r="AL113" s="13"/>
+      <c r="AM113" s="13"/>
+      <c r="AN113" s="13"/>
+      <c r="AO113" s="13"/>
+      <c r="AP113" s="13"/>
+      <c r="AQ113" s="13"/>
+      <c r="AR113" s="13"/>
+      <c r="AS113" s="13"/>
+      <c r="AT113" s="13"/>
+      <c r="AU113" s="13"/>
+      <c r="AV113" s="13"/>
+      <c r="AW113" s="13"/>
+      <c r="AX113" s="13"/>
+      <c r="AY113" s="13"/>
+      <c r="AZ113" s="13"/>
+      <c r="BA113" s="13"/>
+      <c r="BB113" s="13"/>
+      <c r="BC113" s="13"/>
+      <c r="BD113" s="13"/>
+      <c r="BE113" s="13"/>
+      <c r="BF113" s="13"/>
+      <c r="BG113" s="13"/>
+      <c r="BH113" s="13"/>
+      <c r="BI113" s="13"/>
+      <c r="BJ113" s="13"/>
+      <c r="BK113" s="13"/>
+      <c r="BL113" s="13"/>
+    </row>
+    <row r="114" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="58"/>
       <c r="B114" s="25" t="s">
         <v>149</v>
@@ -6883,8 +10930,43 @@
       <c r="AA114" s="18"/>
       <c r="AB114" s="18"/>
       <c r="AC114" s="18"/>
-    </row>
-    <row r="115" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD114" s="13"/>
+      <c r="AE114" s="13"/>
+      <c r="AF114" s="13"/>
+      <c r="AG114" s="13"/>
+      <c r="AH114" s="13"/>
+      <c r="AI114" s="13"/>
+      <c r="AJ114" s="13"/>
+      <c r="AK114" s="13"/>
+      <c r="AL114" s="13"/>
+      <c r="AM114" s="13"/>
+      <c r="AN114" s="13"/>
+      <c r="AO114" s="13"/>
+      <c r="AP114" s="13"/>
+      <c r="AQ114" s="13"/>
+      <c r="AR114" s="13"/>
+      <c r="AS114" s="13"/>
+      <c r="AT114" s="13"/>
+      <c r="AU114" s="13"/>
+      <c r="AV114" s="13"/>
+      <c r="AW114" s="13"/>
+      <c r="AX114" s="13"/>
+      <c r="AY114" s="13"/>
+      <c r="AZ114" s="13"/>
+      <c r="BA114" s="13"/>
+      <c r="BB114" s="13"/>
+      <c r="BC114" s="13"/>
+      <c r="BD114" s="13"/>
+      <c r="BE114" s="13"/>
+      <c r="BF114" s="13"/>
+      <c r="BG114" s="13"/>
+      <c r="BH114" s="13"/>
+      <c r="BI114" s="13"/>
+      <c r="BJ114" s="13"/>
+      <c r="BK114" s="13"/>
+      <c r="BL114" s="13"/>
+    </row>
+    <row r="115" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="58"/>
       <c r="B115" s="59" t="s">
         <v>150</v>
@@ -6934,8 +11016,43 @@
       <c r="AA115" s="18"/>
       <c r="AB115" s="18"/>
       <c r="AC115" s="18"/>
-    </row>
-    <row r="116" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD115" s="13"/>
+      <c r="AE115" s="13"/>
+      <c r="AF115" s="13"/>
+      <c r="AG115" s="13"/>
+      <c r="AH115" s="13"/>
+      <c r="AI115" s="13"/>
+      <c r="AJ115" s="13"/>
+      <c r="AK115" s="13"/>
+      <c r="AL115" s="13"/>
+      <c r="AM115" s="13"/>
+      <c r="AN115" s="13"/>
+      <c r="AO115" s="13"/>
+      <c r="AP115" s="13"/>
+      <c r="AQ115" s="13"/>
+      <c r="AR115" s="13"/>
+      <c r="AS115" s="13"/>
+      <c r="AT115" s="13"/>
+      <c r="AU115" s="13"/>
+      <c r="AV115" s="13"/>
+      <c r="AW115" s="13"/>
+      <c r="AX115" s="13"/>
+      <c r="AY115" s="13"/>
+      <c r="AZ115" s="13"/>
+      <c r="BA115" s="13"/>
+      <c r="BB115" s="13"/>
+      <c r="BC115" s="13"/>
+      <c r="BD115" s="13"/>
+      <c r="BE115" s="13"/>
+      <c r="BF115" s="13"/>
+      <c r="BG115" s="13"/>
+      <c r="BH115" s="13"/>
+      <c r="BI115" s="13"/>
+      <c r="BJ115" s="13"/>
+      <c r="BK115" s="13"/>
+      <c r="BL115" s="13"/>
+    </row>
+    <row r="116" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="58"/>
       <c r="B116" s="25" t="s">
         <v>152</v>
@@ -6985,8 +11102,43 @@
       <c r="AA116" s="18"/>
       <c r="AB116" s="18"/>
       <c r="AC116" s="18"/>
-    </row>
-    <row r="117" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD116" s="13"/>
+      <c r="AE116" s="13"/>
+      <c r="AF116" s="13"/>
+      <c r="AG116" s="13"/>
+      <c r="AH116" s="13"/>
+      <c r="AI116" s="13"/>
+      <c r="AJ116" s="13"/>
+      <c r="AK116" s="13"/>
+      <c r="AL116" s="13"/>
+      <c r="AM116" s="13"/>
+      <c r="AN116" s="13"/>
+      <c r="AO116" s="13"/>
+      <c r="AP116" s="13"/>
+      <c r="AQ116" s="13"/>
+      <c r="AR116" s="13"/>
+      <c r="AS116" s="13"/>
+      <c r="AT116" s="13"/>
+      <c r="AU116" s="13"/>
+      <c r="AV116" s="13"/>
+      <c r="AW116" s="13"/>
+      <c r="AX116" s="13"/>
+      <c r="AY116" s="13"/>
+      <c r="AZ116" s="13"/>
+      <c r="BA116" s="13"/>
+      <c r="BB116" s="13"/>
+      <c r="BC116" s="13"/>
+      <c r="BD116" s="13"/>
+      <c r="BE116" s="13"/>
+      <c r="BF116" s="13"/>
+      <c r="BG116" s="13"/>
+      <c r="BH116" s="13"/>
+      <c r="BI116" s="13"/>
+      <c r="BJ116" s="13"/>
+      <c r="BK116" s="13"/>
+      <c r="BL116" s="13"/>
+    </row>
+    <row r="117" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="58"/>
       <c r="B117" s="38" t="s">
         <v>153</v>
@@ -7028,8 +11180,43 @@
       <c r="AA117" s="18"/>
       <c r="AB117" s="18"/>
       <c r="AC117" s="18"/>
-    </row>
-    <row r="118" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD117" s="13"/>
+      <c r="AE117" s="13"/>
+      <c r="AF117" s="13"/>
+      <c r="AG117" s="13"/>
+      <c r="AH117" s="13"/>
+      <c r="AI117" s="13"/>
+      <c r="AJ117" s="13"/>
+      <c r="AK117" s="13"/>
+      <c r="AL117" s="13"/>
+      <c r="AM117" s="13"/>
+      <c r="AN117" s="13"/>
+      <c r="AO117" s="13"/>
+      <c r="AP117" s="13"/>
+      <c r="AQ117" s="13"/>
+      <c r="AR117" s="13"/>
+      <c r="AS117" s="13"/>
+      <c r="AT117" s="13"/>
+      <c r="AU117" s="13"/>
+      <c r="AV117" s="13"/>
+      <c r="AW117" s="13"/>
+      <c r="AX117" s="13"/>
+      <c r="AY117" s="13"/>
+      <c r="AZ117" s="13"/>
+      <c r="BA117" s="13"/>
+      <c r="BB117" s="13"/>
+      <c r="BC117" s="13"/>
+      <c r="BD117" s="13"/>
+      <c r="BE117" s="13"/>
+      <c r="BF117" s="13"/>
+      <c r="BG117" s="13"/>
+      <c r="BH117" s="13"/>
+      <c r="BI117" s="13"/>
+      <c r="BJ117" s="13"/>
+      <c r="BK117" s="13"/>
+      <c r="BL117" s="13"/>
+    </row>
+    <row r="118" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="58"/>
       <c r="B118" s="25" t="s">
         <v>155</v>
@@ -7071,8 +11258,43 @@
       <c r="AA118" s="18"/>
       <c r="AB118" s="18"/>
       <c r="AC118" s="18"/>
-    </row>
-    <row r="119" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD118" s="13"/>
+      <c r="AE118" s="13"/>
+      <c r="AF118" s="13"/>
+      <c r="AG118" s="13"/>
+      <c r="AH118" s="13"/>
+      <c r="AI118" s="13"/>
+      <c r="AJ118" s="13"/>
+      <c r="AK118" s="13"/>
+      <c r="AL118" s="13"/>
+      <c r="AM118" s="13"/>
+      <c r="AN118" s="13"/>
+      <c r="AO118" s="13"/>
+      <c r="AP118" s="13"/>
+      <c r="AQ118" s="13"/>
+      <c r="AR118" s="13"/>
+      <c r="AS118" s="13"/>
+      <c r="AT118" s="13"/>
+      <c r="AU118" s="13"/>
+      <c r="AV118" s="13"/>
+      <c r="AW118" s="13"/>
+      <c r="AX118" s="13"/>
+      <c r="AY118" s="13"/>
+      <c r="AZ118" s="13"/>
+      <c r="BA118" s="13"/>
+      <c r="BB118" s="13"/>
+      <c r="BC118" s="13"/>
+      <c r="BD118" s="13"/>
+      <c r="BE118" s="13"/>
+      <c r="BF118" s="13"/>
+      <c r="BG118" s="13"/>
+      <c r="BH118" s="13"/>
+      <c r="BI118" s="13"/>
+      <c r="BJ118" s="13"/>
+      <c r="BK118" s="13"/>
+      <c r="BL118" s="13"/>
+    </row>
+    <row r="119" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="58"/>
       <c r="B119" s="25" t="s">
         <v>156</v>
@@ -7116,8 +11338,43 @@
       <c r="AA119" s="18"/>
       <c r="AB119" s="18"/>
       <c r="AC119" s="18"/>
-    </row>
-    <row r="120" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD119" s="13"/>
+      <c r="AE119" s="13"/>
+      <c r="AF119" s="13"/>
+      <c r="AG119" s="13"/>
+      <c r="AH119" s="13"/>
+      <c r="AI119" s="13"/>
+      <c r="AJ119" s="13"/>
+      <c r="AK119" s="13"/>
+      <c r="AL119" s="13"/>
+      <c r="AM119" s="13"/>
+      <c r="AN119" s="13"/>
+      <c r="AO119" s="13"/>
+      <c r="AP119" s="13"/>
+      <c r="AQ119" s="13"/>
+      <c r="AR119" s="13"/>
+      <c r="AS119" s="13"/>
+      <c r="AT119" s="13"/>
+      <c r="AU119" s="13"/>
+      <c r="AV119" s="13"/>
+      <c r="AW119" s="13"/>
+      <c r="AX119" s="13"/>
+      <c r="AY119" s="13"/>
+      <c r="AZ119" s="13"/>
+      <c r="BA119" s="13"/>
+      <c r="BB119" s="13"/>
+      <c r="BC119" s="13"/>
+      <c r="BD119" s="13"/>
+      <c r="BE119" s="13"/>
+      <c r="BF119" s="13"/>
+      <c r="BG119" s="13"/>
+      <c r="BH119" s="13"/>
+      <c r="BI119" s="13"/>
+      <c r="BJ119" s="13"/>
+      <c r="BK119" s="13"/>
+      <c r="BL119" s="13"/>
+    </row>
+    <row r="120" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="58"/>
       <c r="B120" s="25" t="s">
         <v>158</v>
@@ -7162,8 +11419,43 @@
       <c r="AA120" s="18"/>
       <c r="AB120" s="18"/>
       <c r="AC120" s="18"/>
-    </row>
-    <row r="121" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD120" s="13"/>
+      <c r="AE120" s="13"/>
+      <c r="AF120" s="13"/>
+      <c r="AG120" s="13"/>
+      <c r="AH120" s="13"/>
+      <c r="AI120" s="13"/>
+      <c r="AJ120" s="13"/>
+      <c r="AK120" s="13"/>
+      <c r="AL120" s="13"/>
+      <c r="AM120" s="13"/>
+      <c r="AN120" s="13"/>
+      <c r="AO120" s="13"/>
+      <c r="AP120" s="13"/>
+      <c r="AQ120" s="13"/>
+      <c r="AR120" s="13"/>
+      <c r="AS120" s="13"/>
+      <c r="AT120" s="13"/>
+      <c r="AU120" s="13"/>
+      <c r="AV120" s="13"/>
+      <c r="AW120" s="13"/>
+      <c r="AX120" s="13"/>
+      <c r="AY120" s="13"/>
+      <c r="AZ120" s="13"/>
+      <c r="BA120" s="13"/>
+      <c r="BB120" s="13"/>
+      <c r="BC120" s="13"/>
+      <c r="BD120" s="13"/>
+      <c r="BE120" s="13"/>
+      <c r="BF120" s="13"/>
+      <c r="BG120" s="13"/>
+      <c r="BH120" s="13"/>
+      <c r="BI120" s="13"/>
+      <c r="BJ120" s="13"/>
+      <c r="BK120" s="13"/>
+      <c r="BL120" s="13"/>
+    </row>
+    <row r="121" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="58"/>
       <c r="B121" s="25" t="s">
         <v>160</v>
@@ -7208,8 +11500,43 @@
       <c r="AA121" s="18"/>
       <c r="AB121" s="18"/>
       <c r="AC121" s="18"/>
-    </row>
-    <row r="122" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD121" s="13"/>
+      <c r="AE121" s="13"/>
+      <c r="AF121" s="13"/>
+      <c r="AG121" s="13"/>
+      <c r="AH121" s="13"/>
+      <c r="AI121" s="13"/>
+      <c r="AJ121" s="13"/>
+      <c r="AK121" s="13"/>
+      <c r="AL121" s="13"/>
+      <c r="AM121" s="13"/>
+      <c r="AN121" s="13"/>
+      <c r="AO121" s="13"/>
+      <c r="AP121" s="13"/>
+      <c r="AQ121" s="13"/>
+      <c r="AR121" s="13"/>
+      <c r="AS121" s="13"/>
+      <c r="AT121" s="13"/>
+      <c r="AU121" s="13"/>
+      <c r="AV121" s="13"/>
+      <c r="AW121" s="13"/>
+      <c r="AX121" s="13"/>
+      <c r="AY121" s="13"/>
+      <c r="AZ121" s="13"/>
+      <c r="BA121" s="13"/>
+      <c r="BB121" s="13"/>
+      <c r="BC121" s="13"/>
+      <c r="BD121" s="13"/>
+      <c r="BE121" s="13"/>
+      <c r="BF121" s="13"/>
+      <c r="BG121" s="13"/>
+      <c r="BH121" s="13"/>
+      <c r="BI121" s="13"/>
+      <c r="BJ121" s="13"/>
+      <c r="BK121" s="13"/>
+      <c r="BL121" s="13"/>
+    </row>
+    <row r="122" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="58"/>
       <c r="B122" s="31" t="s">
         <v>162</v>
@@ -7253,8 +11580,43 @@
       <c r="AA122" s="18"/>
       <c r="AB122" s="18"/>
       <c r="AC122" s="18"/>
-    </row>
-    <row r="123" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD122" s="13"/>
+      <c r="AE122" s="13"/>
+      <c r="AF122" s="13"/>
+      <c r="AG122" s="13"/>
+      <c r="AH122" s="13"/>
+      <c r="AI122" s="13"/>
+      <c r="AJ122" s="13"/>
+      <c r="AK122" s="13"/>
+      <c r="AL122" s="13"/>
+      <c r="AM122" s="13"/>
+      <c r="AN122" s="13"/>
+      <c r="AO122" s="13"/>
+      <c r="AP122" s="13"/>
+      <c r="AQ122" s="13"/>
+      <c r="AR122" s="13"/>
+      <c r="AS122" s="13"/>
+      <c r="AT122" s="13"/>
+      <c r="AU122" s="13"/>
+      <c r="AV122" s="13"/>
+      <c r="AW122" s="13"/>
+      <c r="AX122" s="13"/>
+      <c r="AY122" s="13"/>
+      <c r="AZ122" s="13"/>
+      <c r="BA122" s="13"/>
+      <c r="BB122" s="13"/>
+      <c r="BC122" s="13"/>
+      <c r="BD122" s="13"/>
+      <c r="BE122" s="13"/>
+      <c r="BF122" s="13"/>
+      <c r="BG122" s="13"/>
+      <c r="BH122" s="13"/>
+      <c r="BI122" s="13"/>
+      <c r="BJ122" s="13"/>
+      <c r="BK122" s="13"/>
+      <c r="BL122" s="13"/>
+    </row>
+    <row r="123" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="58"/>
       <c r="B123" s="31" t="s">
         <v>164</v>
@@ -7298,8 +11660,43 @@
       <c r="AA123" s="18"/>
       <c r="AB123" s="18"/>
       <c r="AC123" s="18"/>
-    </row>
-    <row r="124" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD123" s="13"/>
+      <c r="AE123" s="13"/>
+      <c r="AF123" s="13"/>
+      <c r="AG123" s="13"/>
+      <c r="AH123" s="13"/>
+      <c r="AI123" s="13"/>
+      <c r="AJ123" s="13"/>
+      <c r="AK123" s="13"/>
+      <c r="AL123" s="13"/>
+      <c r="AM123" s="13"/>
+      <c r="AN123" s="13"/>
+      <c r="AO123" s="13"/>
+      <c r="AP123" s="13"/>
+      <c r="AQ123" s="13"/>
+      <c r="AR123" s="13"/>
+      <c r="AS123" s="13"/>
+      <c r="AT123" s="13"/>
+      <c r="AU123" s="13"/>
+      <c r="AV123" s="13"/>
+      <c r="AW123" s="13"/>
+      <c r="AX123" s="13"/>
+      <c r="AY123" s="13"/>
+      <c r="AZ123" s="13"/>
+      <c r="BA123" s="13"/>
+      <c r="BB123" s="13"/>
+      <c r="BC123" s="13"/>
+      <c r="BD123" s="13"/>
+      <c r="BE123" s="13"/>
+      <c r="BF123" s="13"/>
+      <c r="BG123" s="13"/>
+      <c r="BH123" s="13"/>
+      <c r="BI123" s="13"/>
+      <c r="BJ123" s="13"/>
+      <c r="BK123" s="13"/>
+      <c r="BL123" s="13"/>
+    </row>
+    <row r="124" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="61" t="n">
         <f aca="false">SUM(F112:F124)</f>
         <v>1315.51</v>
@@ -7338,8 +11735,43 @@
       <c r="AA124" s="18"/>
       <c r="AB124" s="18"/>
       <c r="AC124" s="18"/>
-    </row>
-    <row r="125" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD124" s="13"/>
+      <c r="AE124" s="13"/>
+      <c r="AF124" s="13"/>
+      <c r="AG124" s="13"/>
+      <c r="AH124" s="13"/>
+      <c r="AI124" s="13"/>
+      <c r="AJ124" s="13"/>
+      <c r="AK124" s="13"/>
+      <c r="AL124" s="13"/>
+      <c r="AM124" s="13"/>
+      <c r="AN124" s="13"/>
+      <c r="AO124" s="13"/>
+      <c r="AP124" s="13"/>
+      <c r="AQ124" s="13"/>
+      <c r="AR124" s="13"/>
+      <c r="AS124" s="13"/>
+      <c r="AT124" s="13"/>
+      <c r="AU124" s="13"/>
+      <c r="AV124" s="13"/>
+      <c r="AW124" s="13"/>
+      <c r="AX124" s="13"/>
+      <c r="AY124" s="13"/>
+      <c r="AZ124" s="13"/>
+      <c r="BA124" s="13"/>
+      <c r="BB124" s="13"/>
+      <c r="BC124" s="13"/>
+      <c r="BD124" s="13"/>
+      <c r="BE124" s="13"/>
+      <c r="BF124" s="13"/>
+      <c r="BG124" s="13"/>
+      <c r="BH124" s="13"/>
+      <c r="BI124" s="13"/>
+      <c r="BJ124" s="13"/>
+      <c r="BK124" s="13"/>
+      <c r="BL124" s="13"/>
+    </row>
+    <row r="125" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="62" t="s">
         <v>166</v>
       </c>
@@ -7391,8 +11823,43 @@
       <c r="AA125" s="53"/>
       <c r="AB125" s="53"/>
       <c r="AC125" s="53"/>
-    </row>
-    <row r="126" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD125" s="13"/>
+      <c r="AE125" s="13"/>
+      <c r="AF125" s="13"/>
+      <c r="AG125" s="13"/>
+      <c r="AH125" s="13"/>
+      <c r="AI125" s="13"/>
+      <c r="AJ125" s="13"/>
+      <c r="AK125" s="13"/>
+      <c r="AL125" s="13"/>
+      <c r="AM125" s="13"/>
+      <c r="AN125" s="13"/>
+      <c r="AO125" s="13"/>
+      <c r="AP125" s="13"/>
+      <c r="AQ125" s="13"/>
+      <c r="AR125" s="13"/>
+      <c r="AS125" s="13"/>
+      <c r="AT125" s="13"/>
+      <c r="AU125" s="13"/>
+      <c r="AV125" s="13"/>
+      <c r="AW125" s="13"/>
+      <c r="AX125" s="13"/>
+      <c r="AY125" s="13"/>
+      <c r="AZ125" s="13"/>
+      <c r="BA125" s="13"/>
+      <c r="BB125" s="13"/>
+      <c r="BC125" s="13"/>
+      <c r="BD125" s="13"/>
+      <c r="BE125" s="13"/>
+      <c r="BF125" s="13"/>
+      <c r="BG125" s="13"/>
+      <c r="BH125" s="13"/>
+      <c r="BI125" s="13"/>
+      <c r="BJ125" s="13"/>
+      <c r="BK125" s="13"/>
+      <c r="BL125" s="13"/>
+    </row>
+    <row r="126" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="62"/>
       <c r="B126" s="63" t="s">
         <v>150</v>
@@ -7442,8 +11909,43 @@
       <c r="AA126" s="53"/>
       <c r="AB126" s="53"/>
       <c r="AC126" s="53"/>
-    </row>
-    <row r="127" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD126" s="13"/>
+      <c r="AE126" s="13"/>
+      <c r="AF126" s="13"/>
+      <c r="AG126" s="13"/>
+      <c r="AH126" s="13"/>
+      <c r="AI126" s="13"/>
+      <c r="AJ126" s="13"/>
+      <c r="AK126" s="13"/>
+      <c r="AL126" s="13"/>
+      <c r="AM126" s="13"/>
+      <c r="AN126" s="13"/>
+      <c r="AO126" s="13"/>
+      <c r="AP126" s="13"/>
+      <c r="AQ126" s="13"/>
+      <c r="AR126" s="13"/>
+      <c r="AS126" s="13"/>
+      <c r="AT126" s="13"/>
+      <c r="AU126" s="13"/>
+      <c r="AV126" s="13"/>
+      <c r="AW126" s="13"/>
+      <c r="AX126" s="13"/>
+      <c r="AY126" s="13"/>
+      <c r="AZ126" s="13"/>
+      <c r="BA126" s="13"/>
+      <c r="BB126" s="13"/>
+      <c r="BC126" s="13"/>
+      <c r="BD126" s="13"/>
+      <c r="BE126" s="13"/>
+      <c r="BF126" s="13"/>
+      <c r="BG126" s="13"/>
+      <c r="BH126" s="13"/>
+      <c r="BI126" s="13"/>
+      <c r="BJ126" s="13"/>
+      <c r="BK126" s="13"/>
+      <c r="BL126" s="13"/>
+    </row>
+    <row r="127" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="62"/>
       <c r="B127" s="46" t="s">
         <v>150</v>
@@ -7486,8 +11988,43 @@
       <c r="AA127" s="53"/>
       <c r="AB127" s="53"/>
       <c r="AC127" s="53"/>
-    </row>
-    <row r="128" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD127" s="13"/>
+      <c r="AE127" s="13"/>
+      <c r="AF127" s="13"/>
+      <c r="AG127" s="13"/>
+      <c r="AH127" s="13"/>
+      <c r="AI127" s="13"/>
+      <c r="AJ127" s="13"/>
+      <c r="AK127" s="13"/>
+      <c r="AL127" s="13"/>
+      <c r="AM127" s="13"/>
+      <c r="AN127" s="13"/>
+      <c r="AO127" s="13"/>
+      <c r="AP127" s="13"/>
+      <c r="AQ127" s="13"/>
+      <c r="AR127" s="13"/>
+      <c r="AS127" s="13"/>
+      <c r="AT127" s="13"/>
+      <c r="AU127" s="13"/>
+      <c r="AV127" s="13"/>
+      <c r="AW127" s="13"/>
+      <c r="AX127" s="13"/>
+      <c r="AY127" s="13"/>
+      <c r="AZ127" s="13"/>
+      <c r="BA127" s="13"/>
+      <c r="BB127" s="13"/>
+      <c r="BC127" s="13"/>
+      <c r="BD127" s="13"/>
+      <c r="BE127" s="13"/>
+      <c r="BF127" s="13"/>
+      <c r="BG127" s="13"/>
+      <c r="BH127" s="13"/>
+      <c r="BI127" s="13"/>
+      <c r="BJ127" s="13"/>
+      <c r="BK127" s="13"/>
+      <c r="BL127" s="13"/>
+    </row>
+    <row r="128" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="62"/>
       <c r="B128" s="63" t="s">
         <v>171</v>
@@ -7537,8 +12074,43 @@
       <c r="AA128" s="53"/>
       <c r="AB128" s="53"/>
       <c r="AC128" s="53"/>
-    </row>
-    <row r="129" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD128" s="13"/>
+      <c r="AE128" s="13"/>
+      <c r="AF128" s="13"/>
+      <c r="AG128" s="13"/>
+      <c r="AH128" s="13"/>
+      <c r="AI128" s="13"/>
+      <c r="AJ128" s="13"/>
+      <c r="AK128" s="13"/>
+      <c r="AL128" s="13"/>
+      <c r="AM128" s="13"/>
+      <c r="AN128" s="13"/>
+      <c r="AO128" s="13"/>
+      <c r="AP128" s="13"/>
+      <c r="AQ128" s="13"/>
+      <c r="AR128" s="13"/>
+      <c r="AS128" s="13"/>
+      <c r="AT128" s="13"/>
+      <c r="AU128" s="13"/>
+      <c r="AV128" s="13"/>
+      <c r="AW128" s="13"/>
+      <c r="AX128" s="13"/>
+      <c r="AY128" s="13"/>
+      <c r="AZ128" s="13"/>
+      <c r="BA128" s="13"/>
+      <c r="BB128" s="13"/>
+      <c r="BC128" s="13"/>
+      <c r="BD128" s="13"/>
+      <c r="BE128" s="13"/>
+      <c r="BF128" s="13"/>
+      <c r="BG128" s="13"/>
+      <c r="BH128" s="13"/>
+      <c r="BI128" s="13"/>
+      <c r="BJ128" s="13"/>
+      <c r="BK128" s="13"/>
+      <c r="BL128" s="13"/>
+    </row>
+    <row r="129" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="62"/>
       <c r="B129" s="63" t="s">
         <v>135</v>
@@ -7588,8 +12160,43 @@
       <c r="AA129" s="53"/>
       <c r="AB129" s="53"/>
       <c r="AC129" s="53"/>
-    </row>
-    <row r="130" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD129" s="13"/>
+      <c r="AE129" s="13"/>
+      <c r="AF129" s="13"/>
+      <c r="AG129" s="13"/>
+      <c r="AH129" s="13"/>
+      <c r="AI129" s="13"/>
+      <c r="AJ129" s="13"/>
+      <c r="AK129" s="13"/>
+      <c r="AL129" s="13"/>
+      <c r="AM129" s="13"/>
+      <c r="AN129" s="13"/>
+      <c r="AO129" s="13"/>
+      <c r="AP129" s="13"/>
+      <c r="AQ129" s="13"/>
+      <c r="AR129" s="13"/>
+      <c r="AS129" s="13"/>
+      <c r="AT129" s="13"/>
+      <c r="AU129" s="13"/>
+      <c r="AV129" s="13"/>
+      <c r="AW129" s="13"/>
+      <c r="AX129" s="13"/>
+      <c r="AY129" s="13"/>
+      <c r="AZ129" s="13"/>
+      <c r="BA129" s="13"/>
+      <c r="BB129" s="13"/>
+      <c r="BC129" s="13"/>
+      <c r="BD129" s="13"/>
+      <c r="BE129" s="13"/>
+      <c r="BF129" s="13"/>
+      <c r="BG129" s="13"/>
+      <c r="BH129" s="13"/>
+      <c r="BI129" s="13"/>
+      <c r="BJ129" s="13"/>
+      <c r="BK129" s="13"/>
+      <c r="BL129" s="13"/>
+    </row>
+    <row r="130" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="62"/>
       <c r="B130" s="65" t="s">
         <v>174</v>
@@ -7639,8 +12246,43 @@
       <c r="AA130" s="53"/>
       <c r="AB130" s="53"/>
       <c r="AC130" s="53"/>
-    </row>
-    <row r="131" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD130" s="13"/>
+      <c r="AE130" s="13"/>
+      <c r="AF130" s="13"/>
+      <c r="AG130" s="13"/>
+      <c r="AH130" s="13"/>
+      <c r="AI130" s="13"/>
+      <c r="AJ130" s="13"/>
+      <c r="AK130" s="13"/>
+      <c r="AL130" s="13"/>
+      <c r="AM130" s="13"/>
+      <c r="AN130" s="13"/>
+      <c r="AO130" s="13"/>
+      <c r="AP130" s="13"/>
+      <c r="AQ130" s="13"/>
+      <c r="AR130" s="13"/>
+      <c r="AS130" s="13"/>
+      <c r="AT130" s="13"/>
+      <c r="AU130" s="13"/>
+      <c r="AV130" s="13"/>
+      <c r="AW130" s="13"/>
+      <c r="AX130" s="13"/>
+      <c r="AY130" s="13"/>
+      <c r="AZ130" s="13"/>
+      <c r="BA130" s="13"/>
+      <c r="BB130" s="13"/>
+      <c r="BC130" s="13"/>
+      <c r="BD130" s="13"/>
+      <c r="BE130" s="13"/>
+      <c r="BF130" s="13"/>
+      <c r="BG130" s="13"/>
+      <c r="BH130" s="13"/>
+      <c r="BI130" s="13"/>
+      <c r="BJ130" s="13"/>
+      <c r="BK130" s="13"/>
+      <c r="BL130" s="13"/>
+    </row>
+    <row r="131" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="62"/>
       <c r="B131" s="65" t="s">
         <v>175</v>
@@ -7690,8 +12332,43 @@
       <c r="AA131" s="53"/>
       <c r="AB131" s="53"/>
       <c r="AC131" s="53"/>
-    </row>
-    <row r="132" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD131" s="13"/>
+      <c r="AE131" s="13"/>
+      <c r="AF131" s="13"/>
+      <c r="AG131" s="13"/>
+      <c r="AH131" s="13"/>
+      <c r="AI131" s="13"/>
+      <c r="AJ131" s="13"/>
+      <c r="AK131" s="13"/>
+      <c r="AL131" s="13"/>
+      <c r="AM131" s="13"/>
+      <c r="AN131" s="13"/>
+      <c r="AO131" s="13"/>
+      <c r="AP131" s="13"/>
+      <c r="AQ131" s="13"/>
+      <c r="AR131" s="13"/>
+      <c r="AS131" s="13"/>
+      <c r="AT131" s="13"/>
+      <c r="AU131" s="13"/>
+      <c r="AV131" s="13"/>
+      <c r="AW131" s="13"/>
+      <c r="AX131" s="13"/>
+      <c r="AY131" s="13"/>
+      <c r="AZ131" s="13"/>
+      <c r="BA131" s="13"/>
+      <c r="BB131" s="13"/>
+      <c r="BC131" s="13"/>
+      <c r="BD131" s="13"/>
+      <c r="BE131" s="13"/>
+      <c r="BF131" s="13"/>
+      <c r="BG131" s="13"/>
+      <c r="BH131" s="13"/>
+      <c r="BI131" s="13"/>
+      <c r="BJ131" s="13"/>
+      <c r="BK131" s="13"/>
+      <c r="BL131" s="13"/>
+    </row>
+    <row r="132" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="62"/>
       <c r="B132" s="65" t="s">
         <v>177</v>
@@ -7741,8 +12418,43 @@
       <c r="AA132" s="53"/>
       <c r="AB132" s="53"/>
       <c r="AC132" s="53"/>
-    </row>
-    <row r="133" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD132" s="13"/>
+      <c r="AE132" s="13"/>
+      <c r="AF132" s="13"/>
+      <c r="AG132" s="13"/>
+      <c r="AH132" s="13"/>
+      <c r="AI132" s="13"/>
+      <c r="AJ132" s="13"/>
+      <c r="AK132" s="13"/>
+      <c r="AL132" s="13"/>
+      <c r="AM132" s="13"/>
+      <c r="AN132" s="13"/>
+      <c r="AO132" s="13"/>
+      <c r="AP132" s="13"/>
+      <c r="AQ132" s="13"/>
+      <c r="AR132" s="13"/>
+      <c r="AS132" s="13"/>
+      <c r="AT132" s="13"/>
+      <c r="AU132" s="13"/>
+      <c r="AV132" s="13"/>
+      <c r="AW132" s="13"/>
+      <c r="AX132" s="13"/>
+      <c r="AY132" s="13"/>
+      <c r="AZ132" s="13"/>
+      <c r="BA132" s="13"/>
+      <c r="BB132" s="13"/>
+      <c r="BC132" s="13"/>
+      <c r="BD132" s="13"/>
+      <c r="BE132" s="13"/>
+      <c r="BF132" s="13"/>
+      <c r="BG132" s="13"/>
+      <c r="BH132" s="13"/>
+      <c r="BI132" s="13"/>
+      <c r="BJ132" s="13"/>
+      <c r="BK132" s="13"/>
+      <c r="BL132" s="13"/>
+    </row>
+    <row r="133" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="62"/>
       <c r="B133" s="65" t="s">
         <v>179</v>
@@ -7784,8 +12496,43 @@
       <c r="AA133" s="53"/>
       <c r="AB133" s="53"/>
       <c r="AC133" s="53"/>
-    </row>
-    <row r="134" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD133" s="13"/>
+      <c r="AE133" s="13"/>
+      <c r="AF133" s="13"/>
+      <c r="AG133" s="13"/>
+      <c r="AH133" s="13"/>
+      <c r="AI133" s="13"/>
+      <c r="AJ133" s="13"/>
+      <c r="AK133" s="13"/>
+      <c r="AL133" s="13"/>
+      <c r="AM133" s="13"/>
+      <c r="AN133" s="13"/>
+      <c r="AO133" s="13"/>
+      <c r="AP133" s="13"/>
+      <c r="AQ133" s="13"/>
+      <c r="AR133" s="13"/>
+      <c r="AS133" s="13"/>
+      <c r="AT133" s="13"/>
+      <c r="AU133" s="13"/>
+      <c r="AV133" s="13"/>
+      <c r="AW133" s="13"/>
+      <c r="AX133" s="13"/>
+      <c r="AY133" s="13"/>
+      <c r="AZ133" s="13"/>
+      <c r="BA133" s="13"/>
+      <c r="BB133" s="13"/>
+      <c r="BC133" s="13"/>
+      <c r="BD133" s="13"/>
+      <c r="BE133" s="13"/>
+      <c r="BF133" s="13"/>
+      <c r="BG133" s="13"/>
+      <c r="BH133" s="13"/>
+      <c r="BI133" s="13"/>
+      <c r="BJ133" s="13"/>
+      <c r="BK133" s="13"/>
+      <c r="BL133" s="13"/>
+    </row>
+    <row r="134" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="62"/>
       <c r="B134" s="65" t="s">
         <v>180</v>
@@ -7835,8 +12582,43 @@
       <c r="AA134" s="53"/>
       <c r="AB134" s="53"/>
       <c r="AC134" s="53"/>
-    </row>
-    <row r="135" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD134" s="13"/>
+      <c r="AE134" s="13"/>
+      <c r="AF134" s="13"/>
+      <c r="AG134" s="13"/>
+      <c r="AH134" s="13"/>
+      <c r="AI134" s="13"/>
+      <c r="AJ134" s="13"/>
+      <c r="AK134" s="13"/>
+      <c r="AL134" s="13"/>
+      <c r="AM134" s="13"/>
+      <c r="AN134" s="13"/>
+      <c r="AO134" s="13"/>
+      <c r="AP134" s="13"/>
+      <c r="AQ134" s="13"/>
+      <c r="AR134" s="13"/>
+      <c r="AS134" s="13"/>
+      <c r="AT134" s="13"/>
+      <c r="AU134" s="13"/>
+      <c r="AV134" s="13"/>
+      <c r="AW134" s="13"/>
+      <c r="AX134" s="13"/>
+      <c r="AY134" s="13"/>
+      <c r="AZ134" s="13"/>
+      <c r="BA134" s="13"/>
+      <c r="BB134" s="13"/>
+      <c r="BC134" s="13"/>
+      <c r="BD134" s="13"/>
+      <c r="BE134" s="13"/>
+      <c r="BF134" s="13"/>
+      <c r="BG134" s="13"/>
+      <c r="BH134" s="13"/>
+      <c r="BI134" s="13"/>
+      <c r="BJ134" s="13"/>
+      <c r="BK134" s="13"/>
+      <c r="BL134" s="13"/>
+    </row>
+    <row r="135" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="62"/>
       <c r="B135" s="65" t="s">
         <v>181</v>
@@ -7886,8 +12668,43 @@
       <c r="AA135" s="53"/>
       <c r="AB135" s="53"/>
       <c r="AC135" s="53"/>
-    </row>
-    <row r="136" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD135" s="13"/>
+      <c r="AE135" s="13"/>
+      <c r="AF135" s="13"/>
+      <c r="AG135" s="13"/>
+      <c r="AH135" s="13"/>
+      <c r="AI135" s="13"/>
+      <c r="AJ135" s="13"/>
+      <c r="AK135" s="13"/>
+      <c r="AL135" s="13"/>
+      <c r="AM135" s="13"/>
+      <c r="AN135" s="13"/>
+      <c r="AO135" s="13"/>
+      <c r="AP135" s="13"/>
+      <c r="AQ135" s="13"/>
+      <c r="AR135" s="13"/>
+      <c r="AS135" s="13"/>
+      <c r="AT135" s="13"/>
+      <c r="AU135" s="13"/>
+      <c r="AV135" s="13"/>
+      <c r="AW135" s="13"/>
+      <c r="AX135" s="13"/>
+      <c r="AY135" s="13"/>
+      <c r="AZ135" s="13"/>
+      <c r="BA135" s="13"/>
+      <c r="BB135" s="13"/>
+      <c r="BC135" s="13"/>
+      <c r="BD135" s="13"/>
+      <c r="BE135" s="13"/>
+      <c r="BF135" s="13"/>
+      <c r="BG135" s="13"/>
+      <c r="BH135" s="13"/>
+      <c r="BI135" s="13"/>
+      <c r="BJ135" s="13"/>
+      <c r="BK135" s="13"/>
+      <c r="BL135" s="13"/>
+    </row>
+    <row r="136" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="61" t="n">
         <f aca="false">SUM(F125:F136)</f>
         <v>724.6</v>
@@ -7926,8 +12743,43 @@
       <c r="AA136" s="53"/>
       <c r="AB136" s="53"/>
       <c r="AC136" s="53"/>
-    </row>
-    <row r="137" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD136" s="13"/>
+      <c r="AE136" s="13"/>
+      <c r="AF136" s="13"/>
+      <c r="AG136" s="13"/>
+      <c r="AH136" s="13"/>
+      <c r="AI136" s="13"/>
+      <c r="AJ136" s="13"/>
+      <c r="AK136" s="13"/>
+      <c r="AL136" s="13"/>
+      <c r="AM136" s="13"/>
+      <c r="AN136" s="13"/>
+      <c r="AO136" s="13"/>
+      <c r="AP136" s="13"/>
+      <c r="AQ136" s="13"/>
+      <c r="AR136" s="13"/>
+      <c r="AS136" s="13"/>
+      <c r="AT136" s="13"/>
+      <c r="AU136" s="13"/>
+      <c r="AV136" s="13"/>
+      <c r="AW136" s="13"/>
+      <c r="AX136" s="13"/>
+      <c r="AY136" s="13"/>
+      <c r="AZ136" s="13"/>
+      <c r="BA136" s="13"/>
+      <c r="BB136" s="13"/>
+      <c r="BC136" s="13"/>
+      <c r="BD136" s="13"/>
+      <c r="BE136" s="13"/>
+      <c r="BF136" s="13"/>
+      <c r="BG136" s="13"/>
+      <c r="BH136" s="13"/>
+      <c r="BI136" s="13"/>
+      <c r="BJ136" s="13"/>
+      <c r="BK136" s="13"/>
+      <c r="BL136" s="13"/>
+    </row>
+    <row r="137" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="62" t="s">
         <v>182</v>
       </c>
@@ -7972,8 +12824,43 @@
       <c r="AA137" s="18"/>
       <c r="AB137" s="18"/>
       <c r="AC137" s="18"/>
-    </row>
-    <row r="138" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD137" s="13"/>
+      <c r="AE137" s="13"/>
+      <c r="AF137" s="13"/>
+      <c r="AG137" s="13"/>
+      <c r="AH137" s="13"/>
+      <c r="AI137" s="13"/>
+      <c r="AJ137" s="13"/>
+      <c r="AK137" s="13"/>
+      <c r="AL137" s="13"/>
+      <c r="AM137" s="13"/>
+      <c r="AN137" s="13"/>
+      <c r="AO137" s="13"/>
+      <c r="AP137" s="13"/>
+      <c r="AQ137" s="13"/>
+      <c r="AR137" s="13"/>
+      <c r="AS137" s="13"/>
+      <c r="AT137" s="13"/>
+      <c r="AU137" s="13"/>
+      <c r="AV137" s="13"/>
+      <c r="AW137" s="13"/>
+      <c r="AX137" s="13"/>
+      <c r="AY137" s="13"/>
+      <c r="AZ137" s="13"/>
+      <c r="BA137" s="13"/>
+      <c r="BB137" s="13"/>
+      <c r="BC137" s="13"/>
+      <c r="BD137" s="13"/>
+      <c r="BE137" s="13"/>
+      <c r="BF137" s="13"/>
+      <c r="BG137" s="13"/>
+      <c r="BH137" s="13"/>
+      <c r="BI137" s="13"/>
+      <c r="BJ137" s="13"/>
+      <c r="BK137" s="13"/>
+      <c r="BL137" s="13"/>
+    </row>
+    <row r="138" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="62"/>
       <c r="B138" s="33" t="s">
         <v>185</v>
@@ -8018,8 +12905,43 @@
       <c r="AA138" s="18"/>
       <c r="AB138" s="18"/>
       <c r="AC138" s="18"/>
-    </row>
-    <row r="139" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD138" s="13"/>
+      <c r="AE138" s="13"/>
+      <c r="AF138" s="13"/>
+      <c r="AG138" s="13"/>
+      <c r="AH138" s="13"/>
+      <c r="AI138" s="13"/>
+      <c r="AJ138" s="13"/>
+      <c r="AK138" s="13"/>
+      <c r="AL138" s="13"/>
+      <c r="AM138" s="13"/>
+      <c r="AN138" s="13"/>
+      <c r="AO138" s="13"/>
+      <c r="AP138" s="13"/>
+      <c r="AQ138" s="13"/>
+      <c r="AR138" s="13"/>
+      <c r="AS138" s="13"/>
+      <c r="AT138" s="13"/>
+      <c r="AU138" s="13"/>
+      <c r="AV138" s="13"/>
+      <c r="AW138" s="13"/>
+      <c r="AX138" s="13"/>
+      <c r="AY138" s="13"/>
+      <c r="AZ138" s="13"/>
+      <c r="BA138" s="13"/>
+      <c r="BB138" s="13"/>
+      <c r="BC138" s="13"/>
+      <c r="BD138" s="13"/>
+      <c r="BE138" s="13"/>
+      <c r="BF138" s="13"/>
+      <c r="BG138" s="13"/>
+      <c r="BH138" s="13"/>
+      <c r="BI138" s="13"/>
+      <c r="BJ138" s="13"/>
+      <c r="BK138" s="13"/>
+      <c r="BL138" s="13"/>
+    </row>
+    <row r="139" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="62"/>
       <c r="B139" s="33" t="s">
         <v>187</v>
@@ -8063,8 +12985,43 @@
       <c r="AA139" s="18"/>
       <c r="AB139" s="18"/>
       <c r="AC139" s="18"/>
-    </row>
-    <row r="140" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD139" s="13"/>
+      <c r="AE139" s="13"/>
+      <c r="AF139" s="13"/>
+      <c r="AG139" s="13"/>
+      <c r="AH139" s="13"/>
+      <c r="AI139" s="13"/>
+      <c r="AJ139" s="13"/>
+      <c r="AK139" s="13"/>
+      <c r="AL139" s="13"/>
+      <c r="AM139" s="13"/>
+      <c r="AN139" s="13"/>
+      <c r="AO139" s="13"/>
+      <c r="AP139" s="13"/>
+      <c r="AQ139" s="13"/>
+      <c r="AR139" s="13"/>
+      <c r="AS139" s="13"/>
+      <c r="AT139" s="13"/>
+      <c r="AU139" s="13"/>
+      <c r="AV139" s="13"/>
+      <c r="AW139" s="13"/>
+      <c r="AX139" s="13"/>
+      <c r="AY139" s="13"/>
+      <c r="AZ139" s="13"/>
+      <c r="BA139" s="13"/>
+      <c r="BB139" s="13"/>
+      <c r="BC139" s="13"/>
+      <c r="BD139" s="13"/>
+      <c r="BE139" s="13"/>
+      <c r="BF139" s="13"/>
+      <c r="BG139" s="13"/>
+      <c r="BH139" s="13"/>
+      <c r="BI139" s="13"/>
+      <c r="BJ139" s="13"/>
+      <c r="BK139" s="13"/>
+      <c r="BL139" s="13"/>
+    </row>
+    <row r="140" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="62"/>
       <c r="B140" s="33" t="s">
         <v>188</v>
@@ -8109,8 +13066,43 @@
       <c r="AA140" s="18"/>
       <c r="AB140" s="18"/>
       <c r="AC140" s="18"/>
-    </row>
-    <row r="141" s="13" customFormat="true" ht="17" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD140" s="13"/>
+      <c r="AE140" s="13"/>
+      <c r="AF140" s="13"/>
+      <c r="AG140" s="13"/>
+      <c r="AH140" s="13"/>
+      <c r="AI140" s="13"/>
+      <c r="AJ140" s="13"/>
+      <c r="AK140" s="13"/>
+      <c r="AL140" s="13"/>
+      <c r="AM140" s="13"/>
+      <c r="AN140" s="13"/>
+      <c r="AO140" s="13"/>
+      <c r="AP140" s="13"/>
+      <c r="AQ140" s="13"/>
+      <c r="AR140" s="13"/>
+      <c r="AS140" s="13"/>
+      <c r="AT140" s="13"/>
+      <c r="AU140" s="13"/>
+      <c r="AV140" s="13"/>
+      <c r="AW140" s="13"/>
+      <c r="AX140" s="13"/>
+      <c r="AY140" s="13"/>
+      <c r="AZ140" s="13"/>
+      <c r="BA140" s="13"/>
+      <c r="BB140" s="13"/>
+      <c r="BC140" s="13"/>
+      <c r="BD140" s="13"/>
+      <c r="BE140" s="13"/>
+      <c r="BF140" s="13"/>
+      <c r="BG140" s="13"/>
+      <c r="BH140" s="13"/>
+      <c r="BI140" s="13"/>
+      <c r="BJ140" s="13"/>
+      <c r="BK140" s="13"/>
+      <c r="BL140" s="13"/>
+    </row>
+    <row r="141" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="62"/>
       <c r="B141" s="33" t="s">
         <v>190</v>
@@ -8154,8 +13146,43 @@
       <c r="AA141" s="18"/>
       <c r="AB141" s="18"/>
       <c r="AC141" s="18"/>
-    </row>
-    <row r="142" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD141" s="13"/>
+      <c r="AE141" s="13"/>
+      <c r="AF141" s="13"/>
+      <c r="AG141" s="13"/>
+      <c r="AH141" s="13"/>
+      <c r="AI141" s="13"/>
+      <c r="AJ141" s="13"/>
+      <c r="AK141" s="13"/>
+      <c r="AL141" s="13"/>
+      <c r="AM141" s="13"/>
+      <c r="AN141" s="13"/>
+      <c r="AO141" s="13"/>
+      <c r="AP141" s="13"/>
+      <c r="AQ141" s="13"/>
+      <c r="AR141" s="13"/>
+      <c r="AS141" s="13"/>
+      <c r="AT141" s="13"/>
+      <c r="AU141" s="13"/>
+      <c r="AV141" s="13"/>
+      <c r="AW141" s="13"/>
+      <c r="AX141" s="13"/>
+      <c r="AY141" s="13"/>
+      <c r="AZ141" s="13"/>
+      <c r="BA141" s="13"/>
+      <c r="BB141" s="13"/>
+      <c r="BC141" s="13"/>
+      <c r="BD141" s="13"/>
+      <c r="BE141" s="13"/>
+      <c r="BF141" s="13"/>
+      <c r="BG141" s="13"/>
+      <c r="BH141" s="13"/>
+      <c r="BI141" s="13"/>
+      <c r="BJ141" s="13"/>
+      <c r="BK141" s="13"/>
+      <c r="BL141" s="13"/>
+    </row>
+    <row r="142" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="62"/>
       <c r="B142" s="68"/>
       <c r="C142" s="26"/>
@@ -8185,8 +13212,43 @@
       <c r="AA142" s="18"/>
       <c r="AB142" s="18"/>
       <c r="AC142" s="18"/>
-    </row>
-    <row r="143" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD142" s="13"/>
+      <c r="AE142" s="13"/>
+      <c r="AF142" s="13"/>
+      <c r="AG142" s="13"/>
+      <c r="AH142" s="13"/>
+      <c r="AI142" s="13"/>
+      <c r="AJ142" s="13"/>
+      <c r="AK142" s="13"/>
+      <c r="AL142" s="13"/>
+      <c r="AM142" s="13"/>
+      <c r="AN142" s="13"/>
+      <c r="AO142" s="13"/>
+      <c r="AP142" s="13"/>
+      <c r="AQ142" s="13"/>
+      <c r="AR142" s="13"/>
+      <c r="AS142" s="13"/>
+      <c r="AT142" s="13"/>
+      <c r="AU142" s="13"/>
+      <c r="AV142" s="13"/>
+      <c r="AW142" s="13"/>
+      <c r="AX142" s="13"/>
+      <c r="AY142" s="13"/>
+      <c r="AZ142" s="13"/>
+      <c r="BA142" s="13"/>
+      <c r="BB142" s="13"/>
+      <c r="BC142" s="13"/>
+      <c r="BD142" s="13"/>
+      <c r="BE142" s="13"/>
+      <c r="BF142" s="13"/>
+      <c r="BG142" s="13"/>
+      <c r="BH142" s="13"/>
+      <c r="BI142" s="13"/>
+      <c r="BJ142" s="13"/>
+      <c r="BK142" s="13"/>
+      <c r="BL142" s="13"/>
+    </row>
+    <row r="143" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="62"/>
       <c r="B143" s="69"/>
       <c r="C143" s="69"/>
@@ -8196,7 +13258,6 @@
       <c r="G143" s="69"/>
       <c r="H143" s="69"/>
       <c r="I143" s="69"/>
-      <c r="J143" s="1"/>
       <c r="K143" s="18"/>
       <c r="L143" s="18"/>
       <c r="M143" s="18"/>
@@ -8216,8 +13277,43 @@
       <c r="AA143" s="18"/>
       <c r="AB143" s="18"/>
       <c r="AC143" s="18"/>
-    </row>
-    <row r="144" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD143" s="13"/>
+      <c r="AE143" s="13"/>
+      <c r="AF143" s="13"/>
+      <c r="AG143" s="13"/>
+      <c r="AH143" s="13"/>
+      <c r="AI143" s="13"/>
+      <c r="AJ143" s="13"/>
+      <c r="AK143" s="13"/>
+      <c r="AL143" s="13"/>
+      <c r="AM143" s="13"/>
+      <c r="AN143" s="13"/>
+      <c r="AO143" s="13"/>
+      <c r="AP143" s="13"/>
+      <c r="AQ143" s="13"/>
+      <c r="AR143" s="13"/>
+      <c r="AS143" s="13"/>
+      <c r="AT143" s="13"/>
+      <c r="AU143" s="13"/>
+      <c r="AV143" s="13"/>
+      <c r="AW143" s="13"/>
+      <c r="AX143" s="13"/>
+      <c r="AY143" s="13"/>
+      <c r="AZ143" s="13"/>
+      <c r="BA143" s="13"/>
+      <c r="BB143" s="13"/>
+      <c r="BC143" s="13"/>
+      <c r="BD143" s="13"/>
+      <c r="BE143" s="13"/>
+      <c r="BF143" s="13"/>
+      <c r="BG143" s="13"/>
+      <c r="BH143" s="13"/>
+      <c r="BI143" s="13"/>
+      <c r="BJ143" s="13"/>
+      <c r="BK143" s="13"/>
+      <c r="BL143" s="13"/>
+    </row>
+    <row r="144" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="61" t="n">
         <f aca="false">SUM(F137:F144)</f>
         <v>401.6</v>
@@ -8236,7 +13332,6 @@
       <c r="G144" s="69"/>
       <c r="H144" s="69"/>
       <c r="I144" s="69"/>
-      <c r="J144" s="1"/>
       <c r="K144" s="0"/>
       <c r="L144" s="0"/>
       <c r="M144" s="18"/>
@@ -8256,8 +13351,44 @@
       <c r="AA144" s="18"/>
       <c r="AB144" s="18"/>
       <c r="AC144" s="18"/>
-    </row>
-    <row r="145" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD144" s="13"/>
+      <c r="AE144" s="13"/>
+      <c r="AF144" s="13"/>
+      <c r="AG144" s="13"/>
+      <c r="AH144" s="13"/>
+      <c r="AI144" s="13"/>
+      <c r="AJ144" s="13"/>
+      <c r="AK144" s="13"/>
+      <c r="AL144" s="13"/>
+      <c r="AM144" s="13"/>
+      <c r="AN144" s="13"/>
+      <c r="AO144" s="13"/>
+      <c r="AP144" s="13"/>
+      <c r="AQ144" s="13"/>
+      <c r="AR144" s="13"/>
+      <c r="AS144" s="13"/>
+      <c r="AT144" s="13"/>
+      <c r="AU144" s="13"/>
+      <c r="AV144" s="13"/>
+      <c r="AW144" s="13"/>
+      <c r="AX144" s="13"/>
+      <c r="AY144" s="13"/>
+      <c r="AZ144" s="13"/>
+      <c r="BA144" s="13"/>
+      <c r="BB144" s="13"/>
+      <c r="BC144" s="13"/>
+      <c r="BD144" s="13"/>
+      <c r="BE144" s="13"/>
+      <c r="BF144" s="13"/>
+      <c r="BG144" s="13"/>
+      <c r="BH144" s="13"/>
+      <c r="BI144" s="13"/>
+      <c r="BJ144" s="13"/>
+      <c r="BK144" s="13"/>
+      <c r="BL144" s="13"/>
+    </row>
+    <row r="145" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A145" s="13"/>
       <c r="B145" s="71" t="s">
         <v>192</v>
       </c>
@@ -8294,8 +13425,44 @@
       <c r="AA145" s="18"/>
       <c r="AB145" s="18"/>
       <c r="AC145" s="18"/>
-    </row>
-    <row r="146" s="13" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AD145" s="13"/>
+      <c r="AE145" s="13"/>
+      <c r="AF145" s="13"/>
+      <c r="AG145" s="13"/>
+      <c r="AH145" s="13"/>
+      <c r="AI145" s="13"/>
+      <c r="AJ145" s="13"/>
+      <c r="AK145" s="13"/>
+      <c r="AL145" s="13"/>
+      <c r="AM145" s="13"/>
+      <c r="AN145" s="13"/>
+      <c r="AO145" s="13"/>
+      <c r="AP145" s="13"/>
+      <c r="AQ145" s="13"/>
+      <c r="AR145" s="13"/>
+      <c r="AS145" s="13"/>
+      <c r="AT145" s="13"/>
+      <c r="AU145" s="13"/>
+      <c r="AV145" s="13"/>
+      <c r="AW145" s="13"/>
+      <c r="AX145" s="13"/>
+      <c r="AY145" s="13"/>
+      <c r="AZ145" s="13"/>
+      <c r="BA145" s="13"/>
+      <c r="BB145" s="13"/>
+      <c r="BC145" s="13"/>
+      <c r="BD145" s="13"/>
+      <c r="BE145" s="13"/>
+      <c r="BF145" s="13"/>
+      <c r="BG145" s="13"/>
+      <c r="BH145" s="13"/>
+      <c r="BI145" s="13"/>
+      <c r="BJ145" s="13"/>
+      <c r="BK145" s="13"/>
+      <c r="BL145" s="13"/>
+    </row>
+    <row r="146" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A146" s="13"/>
       <c r="B146" s="74" t="s">
         <v>193</v>
       </c>
@@ -8329,6 +13496,41 @@
       <c r="AA146" s="18"/>
       <c r="AB146" s="18"/>
       <c r="AC146" s="18"/>
+      <c r="AD146" s="13"/>
+      <c r="AE146" s="13"/>
+      <c r="AF146" s="13"/>
+      <c r="AG146" s="13"/>
+      <c r="AH146" s="13"/>
+      <c r="AI146" s="13"/>
+      <c r="AJ146" s="13"/>
+      <c r="AK146" s="13"/>
+      <c r="AL146" s="13"/>
+      <c r="AM146" s="13"/>
+      <c r="AN146" s="13"/>
+      <c r="AO146" s="13"/>
+      <c r="AP146" s="13"/>
+      <c r="AQ146" s="13"/>
+      <c r="AR146" s="13"/>
+      <c r="AS146" s="13"/>
+      <c r="AT146" s="13"/>
+      <c r="AU146" s="13"/>
+      <c r="AV146" s="13"/>
+      <c r="AW146" s="13"/>
+      <c r="AX146" s="13"/>
+      <c r="AY146" s="13"/>
+      <c r="AZ146" s="13"/>
+      <c r="BA146" s="13"/>
+      <c r="BB146" s="13"/>
+      <c r="BC146" s="13"/>
+      <c r="BD146" s="13"/>
+      <c r="BE146" s="13"/>
+      <c r="BF146" s="13"/>
+      <c r="BG146" s="13"/>
+      <c r="BH146" s="13"/>
+      <c r="BI146" s="13"/>
+      <c r="BJ146" s="13"/>
+      <c r="BK146" s="13"/>
+      <c r="BL146" s="13"/>
     </row>
     <row r="147" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="6"/>
@@ -20492,13 +25694,7 @@
       <c r="I1029" s="81"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:J141">
-    <filterColumn colId="9">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Janela"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:J141"/>
   <mergeCells count="13">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="D3:F3"/>
@@ -20530,7 +25726,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:BL38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
@@ -20542,9 +25738,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="82" width="12.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="82" width="14.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="82" width="12.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="82" width="9.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="82" width="9.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="82" width="9.59"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="82" width="11.61"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="64" min="7" style="82" width="11.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20569,7 +25765,7 @@
       <c r="D4" s="85"/>
     </row>
     <row r="5" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="6" s="88" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="86" t="s">
         <v>201</v>
       </c>
@@ -20584,6 +25780,64 @@
       </c>
       <c r="E6" s="86"/>
       <c r="F6" s="87"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="88"/>
+      <c r="Y6" s="88"/>
+      <c r="Z6" s="88"/>
+      <c r="AA6" s="88"/>
+      <c r="AB6" s="88"/>
+      <c r="AC6" s="88"/>
+      <c r="AD6" s="88"/>
+      <c r="AE6" s="88"/>
+      <c r="AF6" s="88"/>
+      <c r="AG6" s="88"/>
+      <c r="AH6" s="88"/>
+      <c r="AI6" s="88"/>
+      <c r="AJ6" s="88"/>
+      <c r="AK6" s="88"/>
+      <c r="AL6" s="88"/>
+      <c r="AM6" s="88"/>
+      <c r="AN6" s="88"/>
+      <c r="AO6" s="88"/>
+      <c r="AP6" s="88"/>
+      <c r="AQ6" s="88"/>
+      <c r="AR6" s="88"/>
+      <c r="AS6" s="88"/>
+      <c r="AT6" s="88"/>
+      <c r="AU6" s="88"/>
+      <c r="AV6" s="88"/>
+      <c r="AW6" s="88"/>
+      <c r="AX6" s="88"/>
+      <c r="AY6" s="88"/>
+      <c r="AZ6" s="88"/>
+      <c r="BA6" s="88"/>
+      <c r="BB6" s="88"/>
+      <c r="BC6" s="88"/>
+      <c r="BD6" s="88"/>
+      <c r="BE6" s="88"/>
+      <c r="BF6" s="88"/>
+      <c r="BG6" s="88"/>
+      <c r="BH6" s="88"/>
+      <c r="BI6" s="88"/>
+      <c r="BJ6" s="88"/>
+      <c r="BK6" s="88"/>
+      <c r="BL6" s="88"/>
     </row>
     <row r="7" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="89" t="n">
@@ -20928,7 +26182,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="11.63"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
